--- a/materialer/indholdsfortegnelse.xlsx
+++ b/materialer/indholdsfortegnelse.xlsx
@@ -8,26 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinnet/software/hoer-laegedansk/materialer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FFE102-3E12-224E-92AB-256006CF56DD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549F5C1A-B294-6C46-83A9-851BEADE233C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{69E01912-9258-5F42-B5AB-E0FC88A8FB10}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kapitler" sheetId="1" r:id="rId1"/>
     <sheet name="Sektioner" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr dataExtractLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="196">
   <si>
     <t>Mødet mellem læge og patient</t>
   </si>
@@ -212,20 +207,6 @@
     <t>Ører</t>
   </si>
   <si>
-    <r>
-      <t>Mund og svælg (cavum oris et fauces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Halsen (collum)</t>
   </si>
   <si>
@@ -349,50 +330,10 @@
     <t>Hvæsen og piben</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hoste </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>tussis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Opspyt (sputum og haemoptysis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Brystmerter</t>
@@ -587,18 +528,7 @@
     <t>Auskultation</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Skjoldbruskkirtlen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(glandula thyroidea)</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>Hypertyreose</t>
@@ -610,18 +540,7 @@
     <t>Struma og en knude på halsen</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Bryster </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(mammae)</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>Smerter (mastalgi)</t>
@@ -744,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,9 +671,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1071,17 +987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BFFB1C-D280-1A4B-BB07-E80658FB0A25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -1210,33 +1121,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B0B0C7-8194-8445-AD95-C0D835B5E9DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" style="5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1267,18 +1163,18 @@
         <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1306,14 +1202,14 @@
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A2," ","_"),"ø","oe"),"æ","ae"),",","")</f>
         <v>Indhold</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="M2" s="5" t="str">
         <f>IF(L2="","",CONCATENATE(K2,"_",L2))</f>
         <v>0_Indhold</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1348,7 +1244,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -1411,7 +1307,7 @@
         <f t="shared" si="4"/>
         <v>Moedet_mellem_laege_og_patient</v>
       </c>
-      <c r="M5" s="6" t="str">
+      <c r="M5" s="5" t="str">
         <f>IF(L5="","",CONCATENATE(K5,"_",L5))</f>
         <v>1_Moedet_mellem_laege_og_patient</v>
       </c>
@@ -1928,7 +1824,7 @@
         <f t="shared" si="4"/>
         <v>Sygehusjournalen</v>
       </c>
-      <c r="M19" s="6" t="str">
+      <c r="M19" s="5" t="str">
         <f>IF(L19="","",CONCATENATE(K19,"_",L19))</f>
         <v>2_Sygehusjournalen</v>
       </c>
@@ -2138,7 +2034,7 @@
         <f t="shared" si="4"/>
         <v>Indlaeggelsesnotatet</v>
       </c>
-      <c r="M25" s="6" t="str">
+      <c r="M25" s="5" t="str">
         <f>IF(L25="","",CONCATENATE(K25,"_",L25))</f>
         <v>3_Indlaeggelsesnotatet</v>
       </c>
@@ -2755,7 +2651,7 @@
         <v>.</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" ref="I41:I63" si="13">I40+1</f>
+        <f t="shared" ref="I41:I59" si="13">I40+1</f>
         <v>3</v>
       </c>
       <c r="J41" t="str">
@@ -2853,7 +2749,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D44">
         <v>46</v>
@@ -2893,7 +2789,7 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45">
         <v>46</v>
@@ -2933,7 +2829,7 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>46</v>
@@ -2973,7 +2869,7 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47">
         <v>47</v>
@@ -3013,7 +2909,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -3053,7 +2949,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49">
         <v>47</v>
@@ -3093,7 +2989,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50">
         <v>48</v>
@@ -3133,7 +3029,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51">
         <v>48</v>
@@ -3173,7 +3069,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52">
         <v>49</v>
@@ -3213,7 +3109,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53">
         <v>50</v>
@@ -3253,7 +3149,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54">
         <v>50</v>
@@ -3293,7 +3189,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55">
         <v>50</v>
@@ -3333,7 +3229,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56">
         <v>51</v>
@@ -3373,7 +3269,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57">
         <v>51</v>
@@ -3413,7 +3309,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58">
         <v>52</v>
@@ -3493,7 +3389,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60">
         <v>53</v>
@@ -3528,7 +3424,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61">
         <v>54</v>
@@ -3563,7 +3459,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62">
         <v>54</v>
@@ -3601,7 +3497,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63">
         <v>56</v>
@@ -3668,14 +3564,14 @@
         <f t="shared" si="4"/>
         <v>Almene_symptomer_og_fund</v>
       </c>
-      <c r="M64" s="6" t="str">
+      <c r="M64" s="5" t="str">
         <f>IF(L64="","",CONCATENATE(K64,"_",L64))</f>
         <v>4_Almene_symptomer_og_fund</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65">
         <v>57</v>
@@ -3710,7 +3606,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66">
         <v>57</v>
@@ -3749,7 +3645,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67">
         <v>58</v>
@@ -3789,7 +3685,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68">
         <v>59</v>
@@ -3829,7 +3725,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>60</v>
@@ -3869,7 +3765,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70">
         <v>60</v>
@@ -3909,7 +3805,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71">
         <v>61</v>
@@ -3944,7 +3840,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72">
         <v>62</v>
@@ -3983,7 +3879,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73">
         <v>62</v>
@@ -4023,7 +3919,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74">
         <v>63</v>
@@ -4063,7 +3959,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75">
         <v>64</v>
@@ -4103,7 +3999,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <v>64</v>
@@ -4143,7 +4039,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <v>64</v>
@@ -4182,7 +4078,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D78">
         <v>65</v>
@@ -4222,7 +4118,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79">
         <v>67</v>
@@ -4290,14 +4186,14 @@
         <f t="shared" si="16"/>
         <v>Hjertet</v>
       </c>
-      <c r="M80" s="6" t="str">
+      <c r="M80" s="5" t="str">
         <f>IF(L80="","",CONCATENATE(K80,"_",L80))</f>
         <v>5_Hjertet</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81">
         <v>68</v>
@@ -4332,7 +4228,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82">
         <v>69</v>
@@ -4371,7 +4267,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83">
         <v>69</v>
@@ -4411,7 +4307,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84">
         <v>69</v>
@@ -4451,7 +4347,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85">
         <v>72</v>
@@ -4491,7 +4387,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86">
         <v>73</v>
@@ -4531,7 +4427,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87">
         <v>73</v>
@@ -4566,7 +4462,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D88">
         <v>74</v>
@@ -4605,7 +4501,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D89">
         <v>75</v>
@@ -4673,14 +4569,14 @@
         <f t="shared" si="16"/>
         <v>Lunger_og_luftveje</v>
       </c>
-      <c r="M90" s="6" t="str">
+      <c r="M90" s="5" t="str">
         <f>IF(L90="","",CONCATENATE(K90,"_",L90))</f>
         <v>6_Lunger_og_luftveje</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91">
         <v>83</v>
@@ -4715,7 +4611,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D92">
         <v>84</v>
@@ -4754,7 +4650,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93">
         <v>85</v>
@@ -4794,7 +4690,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94">
         <v>85</v>
@@ -4834,7 +4730,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95">
         <v>86</v>
@@ -4874,7 +4770,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96">
         <v>87</v>
@@ -4914,7 +4810,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97">
         <v>89</v>
@@ -4949,7 +4845,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98">
         <v>91</v>
@@ -4988,7 +4884,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D99">
         <v>92</v>
@@ -5028,7 +4924,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100">
         <v>92</v>
@@ -5050,7 +4946,7 @@
         <v>.</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" ref="I100:I102" si="30">I99+1</f>
+        <f t="shared" ref="I100:I101" si="30">I99+1</f>
         <v>3</v>
       </c>
       <c r="J100" t="str">
@@ -5068,7 +4964,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101">
         <v>94</v>
@@ -5136,14 +5032,14 @@
         <f t="shared" si="16"/>
         <v>Mave-tarm-systemet</v>
       </c>
-      <c r="M102" s="6" t="str">
+      <c r="M102" s="5" t="str">
         <f>IF(L102="","",CONCATENATE(K102,"_",L102))</f>
         <v>7_Mave-tarm-systemet</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D103">
         <v>97</v>
@@ -5178,7 +5074,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D104">
         <v>98</v>
@@ -5217,7 +5113,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D105">
         <v>98</v>
@@ -5257,7 +5153,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D106">
         <v>99</v>
@@ -5297,7 +5193,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D107">
         <v>99</v>
@@ -5337,7 +5233,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D108">
         <v>101</v>
@@ -5377,7 +5273,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D109">
         <v>103</v>
@@ -5417,7 +5313,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D110">
         <v>103</v>
@@ -5452,7 +5348,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D111">
         <v>104</v>
@@ -5491,7 +5387,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D112">
         <v>105</v>
@@ -5531,7 +5427,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D113">
         <v>112</v>
@@ -5553,7 +5449,7 @@
         <v>.</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" ref="I113:I115" si="33">I112+1</f>
+        <f t="shared" ref="I113:I114" si="33">I112+1</f>
         <v>3</v>
       </c>
       <c r="J113" t="str">
@@ -5571,7 +5467,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D114">
         <v>113</v>
@@ -5639,14 +5535,14 @@
         <f t="shared" si="16"/>
         <v>Nyrer_urinveje_og_mandlige_koensorganer</v>
       </c>
-      <c r="M115" s="6" t="str">
+      <c r="M115" s="5" t="str">
         <f>IF(L115="","",CONCATENATE(K115,"_",L115))</f>
         <v>8_Nyrer_urinveje_og_mandlige_koensorganer</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D116">
         <v>116</v>
@@ -5684,7 +5580,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D117">
         <v>117</v>
@@ -5724,7 +5620,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D118">
         <v>118</v>
@@ -5764,7 +5660,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D119">
         <v>119</v>
@@ -5778,7 +5674,7 @@
         <v>.</v>
       </c>
       <c r="G119" s="3">
-        <f t="shared" ref="G119:G127" si="35">G118</f>
+        <f t="shared" ref="G119:G126" si="35">G118</f>
         <v>1</v>
       </c>
       <c r="H119" s="3" t="str">
@@ -5804,7 +5700,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D120">
         <v>119</v>
@@ -5844,7 +5740,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D121">
         <v>120</v>
@@ -5884,7 +5780,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D122">
         <v>120</v>
@@ -5924,7 +5820,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D123">
         <v>122</v>
@@ -5964,7 +5860,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D124">
         <v>122</v>
@@ -5999,7 +5895,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D125">
         <v>122</v>
@@ -6038,7 +5934,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126">
         <v>125</v>
@@ -6106,14 +6002,14 @@
         <f t="shared" si="16"/>
         <v>Kvindelige_koensorganer</v>
       </c>
-      <c r="M127" s="6" t="str">
+      <c r="M127" s="5" t="str">
         <f>IF(L127="","",CONCATENATE(K127,"_",L127))</f>
         <v>9_Kvindelige_koensorganer</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D128">
         <v>127</v>
@@ -6148,7 +6044,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129">
         <v>128</v>
@@ -6187,7 +6083,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130">
         <v>129</v>
@@ -6227,7 +6123,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131">
         <v>129</v>
@@ -6241,7 +6137,7 @@
         <v>.</v>
       </c>
       <c r="G131" s="3">
-        <f t="shared" ref="G131:G139" si="36">G130</f>
+        <f t="shared" ref="G131:G133" si="36">G130</f>
         <v>1</v>
       </c>
       <c r="H131" s="3" t="str">
@@ -6267,7 +6163,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132">
         <v>130</v>
@@ -6307,7 +6203,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133">
         <v>130</v>
@@ -6382,7 +6278,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135">
         <v>131</v>
@@ -6449,14 +6345,14 @@
         <f t="shared" si="38"/>
         <v>Bevaegeapparatet</v>
       </c>
-      <c r="M136" s="6" t="str">
+      <c r="M136" s="5" t="str">
         <f>IF(L136="","",CONCATENATE(K136,"_",L136))</f>
         <v>10_Bevaegeapparatet</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D137">
         <v>136</v>
@@ -6491,7 +6387,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D138">
         <v>137</v>
@@ -6530,7 +6426,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D139">
         <v>138</v>
@@ -6570,7 +6466,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D140">
         <v>139</v>
@@ -6610,7 +6506,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D141">
         <v>139</v>
@@ -6650,7 +6546,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D142">
         <v>140</v>
@@ -6685,7 +6581,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D143">
         <v>140</v>
@@ -6724,7 +6620,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D144">
         <v>140</v>
@@ -6764,7 +6660,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D145">
         <v>141</v>
@@ -6804,7 +6700,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D146">
         <v>141</v>
@@ -6844,7 +6740,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D147">
         <v>142</v>
@@ -6884,7 +6780,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D148">
         <v>142</v>
@@ -6924,7 +6820,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D149">
         <v>145</v>
@@ -6964,7 +6860,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D150">
         <v>147</v>
@@ -7004,7 +6900,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D151">
         <v>148</v>
@@ -7044,7 +6940,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D152">
         <v>148</v>
@@ -7084,7 +6980,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D153">
         <v>151</v>
@@ -7124,7 +7020,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C154" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D154">
         <v>152</v>
@@ -7164,7 +7060,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C155" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D155">
         <v>153</v>
@@ -7235,7 +7131,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D157">
         <v>154</v>
@@ -7270,7 +7166,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C158" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D158">
         <v>155</v>
@@ -7309,7 +7205,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C159" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D159">
         <v>156</v>
@@ -7349,7 +7245,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C160" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D160">
         <v>156</v>
@@ -7389,7 +7285,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C161" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D161">
         <v>158</v>
@@ -7429,7 +7325,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C162" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D162">
         <v>159</v>
@@ -7469,7 +7365,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C163" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D163">
         <v>160</v>
@@ -7509,7 +7405,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C164" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D164">
         <v>160</v>
@@ -7549,7 +7445,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C165" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D165">
         <v>161</v>
@@ -7589,7 +7485,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C166" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D166">
         <v>161</v>
@@ -7629,7 +7525,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C167" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D167">
         <v>161</v>
@@ -7669,7 +7565,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D168">
         <v>162</v>
@@ -7704,7 +7600,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C169" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D169">
         <v>162</v>
@@ -7743,7 +7639,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C170" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D170">
         <v>163</v>
@@ -7783,7 +7679,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C171" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D171">
         <v>164</v>
@@ -7823,7 +7719,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C172" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D172">
         <v>165</v>
@@ -7863,7 +7759,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C173" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D173">
         <v>166</v>
@@ -7903,7 +7799,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C174" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D174">
         <v>169</v>
@@ -7943,7 +7839,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C175" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D175">
         <v>174</v>
@@ -8011,14 +7907,14 @@
         <f t="shared" si="38"/>
         <v>Det_perifere_karsystem</v>
       </c>
-      <c r="M176" s="6" t="str">
+      <c r="M176" s="5" t="str">
         <f>IF(L176="","",CONCATENATE(K176,"_",L176))</f>
         <v>12_Det_perifere_karsystem</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D177">
         <v>179</v>
@@ -8053,7 +7949,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C178" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D178">
         <v>180</v>
@@ -8092,7 +7988,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C179" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D179">
         <v>181</v>
@@ -8132,7 +8028,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C180" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D180">
         <v>181</v>
@@ -8172,7 +8068,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C181" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D181">
         <v>182</v>
@@ -8212,7 +8108,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D182">
         <v>182</v>
@@ -8247,7 +8143,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C183" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D183">
         <v>183</v>
@@ -8286,7 +8182,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C184" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D184">
         <v>185</v>
@@ -8326,7 +8222,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C185" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D185">
         <v>195</v>
@@ -8394,14 +8290,14 @@
         <f t="shared" si="38"/>
         <v>Kirtler</v>
       </c>
-      <c r="M186" s="6" t="str">
+      <c r="M186" s="5" t="str">
         <f>IF(L186="","",CONCATENATE(K186,"_",L186))</f>
         <v>13_Kirtler</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D187">
         <v>187</v>
@@ -8436,7 +8332,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D188">
         <v>187</v>
@@ -8471,7 +8367,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C189" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D189">
         <v>187</v>
@@ -8510,7 +8406,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C190" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D190">
         <v>188</v>
@@ -8550,7 +8446,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C191" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D191">
         <v>188</v>
@@ -8590,7 +8486,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D192">
         <v>189</v>
@@ -8625,7 +8521,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C193" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D193">
         <v>189</v>
@@ -8664,7 +8560,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C194" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D194">
         <v>189</v>
@@ -8704,7 +8600,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B195" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D195">
         <v>190</v>
@@ -8739,7 +8635,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D196">
         <v>190</v>
@@ -8774,7 +8670,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C197" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D197">
         <v>190</v>
@@ -8813,7 +8709,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C198" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D198">
         <v>190</v>
@@ -8853,7 +8749,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C199" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D199">
         <v>191</v>
@@ -8893,7 +8789,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C200" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D200">
         <v>191</v>
@@ -8933,7 +8829,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D201">
         <v>191</v>
@@ -8968,7 +8864,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C202" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D202">
         <v>192</v>
@@ -9007,7 +8903,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C203" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D203">
         <v>192</v>
@@ -9075,14 +8971,14 @@
         <f t="shared" si="54"/>
         <v>Hud</v>
       </c>
-      <c r="M204" s="6" t="str">
+      <c r="M204" s="5" t="str">
         <f>IF(L204="","",CONCATENATE(K204,"_",L204))</f>
         <v>14_Hud</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D205">
         <v>194</v>
@@ -9117,7 +9013,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C206" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D206">
         <v>194</v>
@@ -9156,7 +9052,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C207" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D207">
         <v>195</v>
@@ -9196,7 +9092,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C208" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D208">
         <v>195</v>
@@ -9236,7 +9132,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D209">
         <v>195</v>
@@ -9271,7 +9167,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C210" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D210">
         <v>196</v>
@@ -9338,14 +9234,14 @@
         <f t="shared" si="54"/>
         <v>Sanseorganer</v>
       </c>
-      <c r="M211" s="6" t="str">
+      <c r="M211" s="5" t="str">
         <f>IF(L211="","",CONCATENATE(K211,"_",L211))</f>
         <v>15_Sanseorganer</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D212">
         <v>201</v>
@@ -9380,7 +9276,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C213" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D213">
         <v>201</v>
@@ -9419,7 +9315,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C214" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D214">
         <v>202</v>
@@ -9459,7 +9355,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C215" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D215">
         <v>202</v>
@@ -9499,7 +9395,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C216" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D216">
         <v>203</v>
@@ -9539,7 +9435,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B217" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D217">
         <v>203</v>
@@ -9574,7 +9470,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C218" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D218">
         <v>203</v>
@@ -9653,7 +9549,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D220">
         <v>207</v>
@@ -9681,13 +9577,12 @@
         <f t="shared" si="54"/>
         <v>Stikordsregister</v>
       </c>
-      <c r="M220" s="6" t="str">
+      <c r="M220" s="5" t="str">
         <f>IF(L220="","",CONCATENATE(K220,"_",L220))</f>
         <v>16_Stikordsregister</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/materialer/indholdsfortegnelse.xlsx
+++ b/materialer/indholdsfortegnelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinnet/software/hoer-laegedansk/materialer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12898F1E-2C42-144C-A0C9-C9F453A577A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC6016-7C03-0F4A-9BF6-B90DD2CF863A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kapitler" sheetId="1" r:id="rId1"/>
@@ -4949,7 +4949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4971,6 +4971,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -31508,15 +31511,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E3B2D6-1357-EF4F-B237-AF77DB97A715}">
   <dimension ref="A1:L459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="K356" sqref="K356"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L355" sqref="L355:L459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="8" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.1640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -31544,7 +31557,7 @@
       <c r="I1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="13" t="s">
         <v>1613</v>
       </c>
       <c r="L1" s="12" t="s">
@@ -31567,7 +31580,7 @@
       <c r="E2" t="s">
         <v>206</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>1</v>
       </c>
       <c r="L2" s="7">
@@ -31591,7 +31604,7 @@
       <c r="E3" t="s">
         <v>208</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
       <c r="L3" s="7">
@@ -31615,7 +31628,7 @@
       <c r="E4" t="s">
         <v>210</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <v>1</v>
       </c>
       <c r="L4" s="7">
@@ -43207,7 +43220,13 @@
       <c r="I356" s="8">
         <v>1</v>
       </c>
-      <c r="K356" s="11"/>
+      <c r="K356" s="8">
+        <v>65</v>
+      </c>
+      <c r="L356" s="7" t="str">
+        <f>VLOOKUP(K356,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>4.2.3</v>
+      </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
@@ -43234,7 +43253,13 @@
       <c r="I357" s="8">
         <v>2</v>
       </c>
-      <c r="K357" s="11"/>
+      <c r="K357" s="8">
+        <v>65</v>
+      </c>
+      <c r="L357" s="7" t="str">
+        <f>VLOOKUP(K357,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>4.2.3</v>
+      </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
@@ -43261,7 +43286,13 @@
       <c r="I358" s="8">
         <v>1</v>
       </c>
-      <c r="K358" s="11"/>
+      <c r="K358" s="8">
+        <v>70</v>
+      </c>
+      <c r="L358" s="7" t="str">
+        <f>VLOOKUP(K358,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>5.1.1</v>
+      </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
@@ -43288,7 +43319,13 @@
       <c r="I359" s="8">
         <v>2</v>
       </c>
-      <c r="K359" s="11"/>
+      <c r="K359" s="8">
+        <v>75</v>
+      </c>
+      <c r="L359" s="7" t="str">
+        <f>VLOOKUP(K359,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>5.2.2</v>
+      </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
@@ -43315,7 +43352,13 @@
       <c r="I360" s="8">
         <v>3</v>
       </c>
-      <c r="K360" s="11"/>
+      <c r="K360" s="8">
+        <v>75</v>
+      </c>
+      <c r="L360" s="7" t="str">
+        <f>VLOOKUP(K360,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>5.2.2</v>
+      </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
@@ -43342,7 +43385,13 @@
       <c r="I361" s="8">
         <v>4</v>
       </c>
-      <c r="K361" s="11"/>
+      <c r="K361" s="8">
+        <v>76</v>
+      </c>
+      <c r="L361" s="7" t="str">
+        <f>VLOOKUP(K361,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>5.2.2</v>
+      </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
@@ -43369,7 +43418,13 @@
       <c r="I362" s="8">
         <v>5</v>
       </c>
-      <c r="K362" s="11"/>
+      <c r="K362" s="8">
+        <v>77</v>
+      </c>
+      <c r="L362" s="7" t="str">
+        <f>VLOOKUP(K362,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>5.2.2</v>
+      </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
@@ -43396,7 +43451,13 @@
       <c r="I363" s="8">
         <v>6</v>
       </c>
-      <c r="K363" s="11"/>
+      <c r="K363" s="8">
+        <v>79</v>
+      </c>
+      <c r="L363" s="7" t="str">
+        <f>VLOOKUP(K363,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>5.2.2</v>
+      </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
@@ -43423,7 +43484,13 @@
       <c r="I364" s="8">
         <v>7</v>
       </c>
-      <c r="K364" s="11"/>
+      <c r="K364" s="8">
+        <v>79</v>
+      </c>
+      <c r="L364" s="7" t="str">
+        <f>VLOOKUP(K364,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>5.2.2</v>
+      </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
@@ -43450,7 +43517,13 @@
       <c r="I365" s="8">
         <v>1</v>
       </c>
-      <c r="K365" s="11"/>
+      <c r="K365" s="8">
+        <v>92</v>
+      </c>
+      <c r="L365" s="7" t="str">
+        <f>VLOOKUP(K365,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>6.2.2</v>
+      </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
@@ -43477,7 +43550,13 @@
       <c r="I366" s="8">
         <v>2</v>
       </c>
-      <c r="K366" s="11"/>
+      <c r="K366" s="8">
+        <v>93</v>
+      </c>
+      <c r="L366" s="7" t="str">
+        <f>VLOOKUP(K366,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>6.2.2</v>
+      </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
@@ -43504,7 +43583,13 @@
       <c r="I367" s="8">
         <v>3</v>
       </c>
-      <c r="K367" s="11"/>
+      <c r="K367" s="8">
+        <v>93</v>
+      </c>
+      <c r="L367" s="7" t="str">
+        <f>VLOOKUP(K367,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>6.2.2</v>
+      </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
@@ -43531,9 +43616,15 @@
       <c r="I368" s="8">
         <v>4</v>
       </c>
-      <c r="K368" s="11"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K368" s="8">
+        <v>94</v>
+      </c>
+      <c r="L368" s="7" t="str">
+        <f>VLOOKUP(K368,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>6.2.4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>367</v>
       </c>
@@ -43558,9 +43649,15 @@
       <c r="I369" s="8">
         <v>1</v>
       </c>
-      <c r="K369" s="11"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K369" s="8">
+        <v>100</v>
+      </c>
+      <c r="L369" s="7" t="str">
+        <f>VLOOKUP(K369,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>7.1.3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>368</v>
       </c>
@@ -43585,9 +43682,15 @@
       <c r="I370" s="8">
         <v>2</v>
       </c>
-      <c r="K370" s="11"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K370" s="8">
+        <v>104</v>
+      </c>
+      <c r="L370" s="7" t="str">
+        <f>VLOOKUP(K370,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>7.2.1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>369</v>
       </c>
@@ -43612,9 +43715,15 @@
       <c r="I371" s="8">
         <v>3</v>
       </c>
-      <c r="K371" s="11"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K371" s="8">
+        <v>105</v>
+      </c>
+      <c r="L371" s="7" t="str">
+        <f>VLOOKUP(K371,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>7.2.2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>370</v>
       </c>
@@ -43639,9 +43748,15 @@
       <c r="I372" s="8">
         <v>4</v>
       </c>
-      <c r="K372" s="11"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K372" s="8">
+        <v>106</v>
+      </c>
+      <c r="L372" s="7" t="str">
+        <f>VLOOKUP(K372,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>7.2.2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>371</v>
       </c>
@@ -43666,9 +43781,15 @@
       <c r="I373" s="8">
         <v>5</v>
       </c>
-      <c r="K373" s="11"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K373" s="8">
+        <v>107</v>
+      </c>
+      <c r="L373" s="7" t="str">
+        <f>VLOOKUP(K373,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>7.2.2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>372</v>
       </c>
@@ -43693,9 +43814,15 @@
       <c r="I374" s="8">
         <v>6</v>
       </c>
-      <c r="K374" s="11"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K374" s="8">
+        <v>108</v>
+      </c>
+      <c r="L374" s="7" t="str">
+        <f>VLOOKUP(K374,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>7.2.2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>373</v>
       </c>
@@ -43720,9 +43847,15 @@
       <c r="I375" s="8">
         <v>7</v>
       </c>
-      <c r="K375" s="11"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K375" s="8">
+        <v>110</v>
+      </c>
+      <c r="L375" s="7" t="str">
+        <f>VLOOKUP(K375,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>7.2.2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>374</v>
       </c>
@@ -43747,9 +43880,15 @@
       <c r="I376" s="8">
         <v>8</v>
       </c>
-      <c r="K376" s="11"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K376" s="8">
+        <v>115</v>
+      </c>
+      <c r="L376" s="7" t="str">
+        <f>VLOOKUP(K376,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>7.2.4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>375</v>
       </c>
@@ -43774,9 +43913,15 @@
       <c r="I377" s="8">
         <v>1</v>
       </c>
-      <c r="K377" s="11"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K377" s="8">
+        <v>118</v>
+      </c>
+      <c r="L377" s="7" t="str">
+        <f>VLOOKUP(K377,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>8.1.3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>376</v>
       </c>
@@ -43801,9 +43946,15 @@
       <c r="I378" s="8">
         <v>2</v>
       </c>
-      <c r="K378" s="11"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K378" s="8">
+        <v>124</v>
+      </c>
+      <c r="L378" s="7" t="str">
+        <f>VLOOKUP(K378,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>8.1.8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>377</v>
       </c>
@@ -43828,9 +43979,15 @@
       <c r="I379" s="8">
         <v>3</v>
       </c>
-      <c r="K379" s="11"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K379" s="8">
+        <v>125</v>
+      </c>
+      <c r="L379" s="7" t="str">
+        <f>VLOOKUP(K379,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>8.2.2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>378</v>
       </c>
@@ -43855,9 +44012,15 @@
       <c r="I380" s="8">
         <v>4</v>
       </c>
-      <c r="K380" s="11"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K380" s="8">
+        <v>126</v>
+      </c>
+      <c r="L380" s="7" t="str">
+        <f>VLOOKUP(K380,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>8.2.2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>379</v>
       </c>
@@ -43882,9 +44045,15 @@
       <c r="I381" s="8">
         <v>5</v>
       </c>
-      <c r="K381" s="11"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K381" s="8">
+        <v>126</v>
+      </c>
+      <c r="L381" s="7" t="str">
+        <f>VLOOKUP(K381,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>8.2.2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>380</v>
       </c>
@@ -43909,9 +44078,15 @@
       <c r="I382" s="8">
         <v>1</v>
       </c>
-      <c r="K382" s="11"/>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K382" s="8">
+        <v>131</v>
+      </c>
+      <c r="L382" s="7" t="str">
+        <f>VLOOKUP(K382,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>381</v>
       </c>
@@ -43936,9 +44111,15 @@
       <c r="I383" s="8">
         <v>2</v>
       </c>
-      <c r="K383" s="11"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K383" s="8">
+        <v>133</v>
+      </c>
+      <c r="L383" s="7" t="str">
+        <f>VLOOKUP(K383,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>382</v>
       </c>
@@ -43963,9 +44144,15 @@
       <c r="I384" s="8">
         <v>3</v>
       </c>
-      <c r="K384" s="11"/>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K384" s="8">
+        <v>133</v>
+      </c>
+      <c r="L384" s="7" t="str">
+        <f>VLOOKUP(K384,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>383</v>
       </c>
@@ -43990,9 +44177,15 @@
       <c r="I385" s="8">
         <v>4</v>
       </c>
-      <c r="K385" s="11"/>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K385" s="8">
+        <v>134</v>
+      </c>
+      <c r="L385" s="7" t="str">
+        <f>VLOOKUP(K385,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>384</v>
       </c>
@@ -44017,9 +44210,15 @@
       <c r="I386" s="8">
         <v>5</v>
       </c>
-      <c r="K386" s="11"/>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K386" s="8">
+        <v>135</v>
+      </c>
+      <c r="L386" s="7" t="str">
+        <f>VLOOKUP(K386,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>385</v>
       </c>
@@ -44044,9 +44243,15 @@
       <c r="I387" s="8">
         <v>6</v>
       </c>
-      <c r="K387" s="11"/>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K387" s="8">
+        <v>135</v>
+      </c>
+      <c r="L387" s="7" t="str">
+        <f>VLOOKUP(K387,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>386</v>
       </c>
@@ -44071,9 +44276,15 @@
       <c r="I388" s="8">
         <v>1</v>
       </c>
-      <c r="K388" s="11"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K388" s="8">
+        <v>142</v>
+      </c>
+      <c r="L388" s="7" t="str">
+        <f>VLOOKUP(K388,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>387</v>
       </c>
@@ -44098,9 +44309,15 @@
       <c r="I389" s="8">
         <v>2</v>
       </c>
-      <c r="K389" s="11"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K389" s="8">
+        <v>142</v>
+      </c>
+      <c r="L389" s="7" t="str">
+        <f>VLOOKUP(K389,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>388</v>
       </c>
@@ -44125,9 +44342,15 @@
       <c r="I390" s="8">
         <v>3</v>
       </c>
-      <c r="K390" s="11"/>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K390" s="8">
+        <v>143</v>
+      </c>
+      <c r="L390" s="7" t="str">
+        <f>VLOOKUP(K390,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>389</v>
       </c>
@@ -44152,9 +44375,15 @@
       <c r="I391" s="8">
         <v>4</v>
       </c>
-      <c r="K391" s="11"/>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K391" s="8">
+        <v>144</v>
+      </c>
+      <c r="L391" s="7" t="str">
+        <f>VLOOKUP(K391,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>390</v>
       </c>
@@ -44179,9 +44408,15 @@
       <c r="I392" s="8">
         <v>5</v>
       </c>
-      <c r="K392" s="11"/>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K392" s="8">
+        <v>145</v>
+      </c>
+      <c r="L392" s="7" t="str">
+        <f>VLOOKUP(K392,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>391</v>
       </c>
@@ -44206,9 +44441,15 @@
       <c r="I393" s="8">
         <v>6</v>
       </c>
-      <c r="K393" s="11"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K393" s="8">
+        <v>146</v>
+      </c>
+      <c r="L393" s="7" t="str">
+        <f>VLOOKUP(K393,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>392</v>
       </c>
@@ -44233,9 +44474,15 @@
       <c r="I394" s="8">
         <v>7</v>
       </c>
-      <c r="K394" s="11"/>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K394" s="8">
+        <v>147</v>
+      </c>
+      <c r="L394" s="7" t="str">
+        <f>VLOOKUP(K394,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>393</v>
       </c>
@@ -44260,9 +44507,15 @@
       <c r="I395" s="8">
         <v>8</v>
       </c>
-      <c r="K395" s="11"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K395" s="8">
+        <v>147</v>
+      </c>
+      <c r="L395" s="7" t="str">
+        <f>VLOOKUP(K395,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>394</v>
       </c>
@@ -44287,9 +44540,15 @@
       <c r="I396" s="8">
         <v>9</v>
       </c>
-      <c r="K396" s="11"/>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K396" s="8">
+        <v>148</v>
+      </c>
+      <c r="L396" s="7" t="str">
+        <f>VLOOKUP(K396,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>395</v>
       </c>
@@ -44314,9 +44573,15 @@
       <c r="I397" s="8">
         <v>10</v>
       </c>
-      <c r="K397" s="11"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K397" s="8">
+        <v>148</v>
+      </c>
+      <c r="L397" s="7" t="str">
+        <f>VLOOKUP(K397,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>396</v>
       </c>
@@ -44341,9 +44606,15 @@
       <c r="I398" s="8">
         <v>11</v>
       </c>
-      <c r="K398" s="11"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K398" s="8">
+        <v>149</v>
+      </c>
+      <c r="L398" s="7" t="str">
+        <f>VLOOKUP(K398,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>397</v>
       </c>
@@ -44368,9 +44639,15 @@
       <c r="I399" s="8">
         <v>12</v>
       </c>
-      <c r="K399" s="11"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K399" s="8">
+        <v>150</v>
+      </c>
+      <c r="L399" s="7" t="str">
+        <f>VLOOKUP(K399,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>398</v>
       </c>
@@ -44395,9 +44672,15 @@
       <c r="I400" s="8">
         <v>13</v>
       </c>
-      <c r="K400" s="11"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K400" s="8">
+        <v>150</v>
+      </c>
+      <c r="L400" s="7" t="str">
+        <f>VLOOKUP(K400,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>399</v>
       </c>
@@ -44422,9 +44705,15 @@
       <c r="I401" s="8">
         <v>14</v>
       </c>
-      <c r="K401" s="11"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K401" s="8">
+        <v>150</v>
+      </c>
+      <c r="L401" s="7" t="str">
+        <f>VLOOKUP(K401,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>400</v>
       </c>
@@ -44449,9 +44738,15 @@
       <c r="I402" s="8">
         <v>15</v>
       </c>
-      <c r="K402" s="11"/>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K402" s="8">
+        <v>150</v>
+      </c>
+      <c r="L402" s="7" t="str">
+        <f>VLOOKUP(K402,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>401</v>
       </c>
@@ -44476,9 +44771,15 @@
       <c r="I403" s="8">
         <v>16</v>
       </c>
-      <c r="K403" s="11"/>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K403" s="8">
+        <v>151</v>
+      </c>
+      <c r="L403" s="7" t="str">
+        <f>VLOOKUP(K403,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>402</v>
       </c>
@@ -44503,9 +44804,15 @@
       <c r="I404" s="8">
         <v>17</v>
       </c>
-      <c r="K404" s="11"/>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K404" s="8">
+        <v>152</v>
+      </c>
+      <c r="L404" s="7" t="str">
+        <f>VLOOKUP(K404,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>403</v>
       </c>
@@ -44530,9 +44837,15 @@
       <c r="I405" s="8">
         <v>18</v>
       </c>
-      <c r="K405" s="11"/>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K405" s="8">
+        <v>152</v>
+      </c>
+      <c r="L405" s="7" t="str">
+        <f>VLOOKUP(K405,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.12</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>404</v>
       </c>
@@ -44557,9 +44870,15 @@
       <c r="I406" s="8">
         <v>19</v>
       </c>
-      <c r="K406" s="11"/>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K406" s="8">
+        <v>152</v>
+      </c>
+      <c r="L406" s="7" t="str">
+        <f>VLOOKUP(K406,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>405</v>
       </c>
@@ -44584,9 +44903,15 @@
       <c r="I407" s="8">
         <v>20</v>
       </c>
-      <c r="K407" s="11"/>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K407" s="8">
+        <v>153</v>
+      </c>
+      <c r="L407" s="7" t="str">
+        <f>VLOOKUP(K407,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>10.2.13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>406</v>
       </c>
@@ -44611,9 +44936,15 @@
       <c r="I408" s="8">
         <v>1</v>
       </c>
-      <c r="K408" s="11"/>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K408" s="8">
+        <v>165</v>
+      </c>
+      <c r="L408" s="7" t="str">
+        <f>VLOOKUP(K408,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>407</v>
       </c>
@@ -44638,9 +44969,15 @@
       <c r="I409" s="8">
         <v>2</v>
       </c>
-      <c r="K409" s="11"/>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K409" s="8">
+        <v>167</v>
+      </c>
+      <c r="L409" s="7" t="str">
+        <f>VLOOKUP(K409,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>408</v>
       </c>
@@ -44665,9 +45002,15 @@
       <c r="I410" s="8">
         <v>3</v>
       </c>
-      <c r="K410" s="11"/>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K410" s="8">
+        <v>167</v>
+      </c>
+      <c r="L410" s="7" t="str">
+        <f>VLOOKUP(K410,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>409</v>
       </c>
@@ -44692,9 +45035,15 @@
       <c r="I411" s="8">
         <v>4</v>
       </c>
-      <c r="K411" s="11"/>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K411" s="8">
+        <v>168</v>
+      </c>
+      <c r="L411" s="7" t="str">
+        <f>VLOOKUP(K411,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>410</v>
       </c>
@@ -44719,9 +45068,15 @@
       <c r="I412" s="8">
         <v>5</v>
       </c>
-      <c r="K412" s="11"/>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K412" s="8">
+        <v>170</v>
+      </c>
+      <c r="L412" s="7" t="str">
+        <f>VLOOKUP(K412,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>411</v>
       </c>
@@ -44746,9 +45101,15 @@
       <c r="I413" s="8">
         <v>6</v>
       </c>
-      <c r="K413" s="11"/>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K413" s="8">
+        <v>171</v>
+      </c>
+      <c r="L413" s="7" t="str">
+        <f>VLOOKUP(K413,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>412</v>
       </c>
@@ -44773,9 +45134,15 @@
       <c r="I414" s="8">
         <v>7</v>
       </c>
-      <c r="K414" s="11"/>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K414" s="8">
+        <v>172</v>
+      </c>
+      <c r="L414" s="7" t="str">
+        <f>VLOOKUP(K414,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>413</v>
       </c>
@@ -44800,9 +45167,15 @@
       <c r="I415" s="8">
         <v>8</v>
       </c>
-      <c r="K415" s="11"/>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K415" s="8">
+        <v>173</v>
+      </c>
+      <c r="L415" s="7" t="str">
+        <f>VLOOKUP(K415,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>414</v>
       </c>
@@ -44827,9 +45200,15 @@
       <c r="I416" s="8">
         <v>9</v>
       </c>
-      <c r="K416" s="11"/>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K416" s="8">
+        <v>173</v>
+      </c>
+      <c r="L416" s="7" t="str">
+        <f>VLOOKUP(K416,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>415</v>
       </c>
@@ -44854,9 +45233,15 @@
       <c r="I417" s="8">
         <v>10</v>
       </c>
-      <c r="K417" s="11"/>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K417" s="8">
+        <v>173</v>
+      </c>
+      <c r="L417" s="7" t="str">
+        <f>VLOOKUP(K417,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>416</v>
       </c>
@@ -44881,9 +45266,15 @@
       <c r="I418" s="8">
         <v>11</v>
       </c>
-      <c r="K418" s="11"/>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K418" s="8">
+        <v>174</v>
+      </c>
+      <c r="L418" s="7" t="str">
+        <f>VLOOKUP(K418,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>417</v>
       </c>
@@ -44908,9 +45299,15 @@
       <c r="I419" s="8">
         <v>12</v>
       </c>
-      <c r="K419" s="11"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K419" s="8">
+        <v>174</v>
+      </c>
+      <c r="L419" s="7" t="str">
+        <f>VLOOKUP(K419,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>418</v>
       </c>
@@ -44935,9 +45332,15 @@
       <c r="I420" s="8">
         <v>13</v>
       </c>
-      <c r="K420" s="11"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K420" s="8">
+        <v>175</v>
+      </c>
+      <c r="L420" s="7" t="str">
+        <f>VLOOKUP(K420,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>419</v>
       </c>
@@ -44962,9 +45365,15 @@
       <c r="I421" s="8">
         <v>15</v>
       </c>
-      <c r="K421" s="11"/>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K421" s="8">
+        <v>176</v>
+      </c>
+      <c r="L421" s="7" t="str">
+        <f>VLOOKUP(K421,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>11.2.7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>420</v>
       </c>
@@ -44989,9 +45398,15 @@
       <c r="I422" s="8">
         <v>1</v>
       </c>
-      <c r="K422" s="11"/>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K422" s="8">
+        <v>184</v>
+      </c>
+      <c r="L422" s="7" t="str">
+        <f>VLOOKUP(K422,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>12.2.1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>421</v>
       </c>
@@ -45016,9 +45431,15 @@
       <c r="I423" s="8">
         <v>2</v>
       </c>
-      <c r="K423" s="11"/>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K423" s="8">
+        <v>185</v>
+      </c>
+      <c r="L423" s="7" t="str">
+        <f>VLOOKUP(K423,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>12.2.2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>422</v>
       </c>
@@ -45043,9 +45464,15 @@
       <c r="I424" s="8">
         <v>3</v>
       </c>
-      <c r="K424" s="11"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K424" s="8">
+        <v>186</v>
+      </c>
+      <c r="L424" s="7" t="str">
+        <f>VLOOKUP(K424,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>12.2.2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>423</v>
       </c>
@@ -45070,9 +45497,15 @@
       <c r="I425" s="8">
         <v>1</v>
       </c>
-      <c r="K425" s="11"/>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K425" s="8">
+        <v>189</v>
+      </c>
+      <c r="L425" s="7" t="str">
+        <f>VLOOKUP(K425,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>424</v>
       </c>
@@ -45097,9 +45530,15 @@
       <c r="I426" s="8">
         <v>2</v>
       </c>
-      <c r="K426" s="11"/>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K426" s="8">
+        <v>192</v>
+      </c>
+      <c r="L426" s="7" t="str">
+        <f>VLOOKUP(K426,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>13.6.1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>425</v>
       </c>
@@ -45124,9 +45563,15 @@
       <c r="I427" s="8">
         <v>3</v>
       </c>
-      <c r="K427" s="11"/>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K427" s="8">
+        <v>192</v>
+      </c>
+      <c r="L427" s="7" t="str">
+        <f>VLOOKUP(K427,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>13.6.1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>426</v>
       </c>
@@ -45151,9 +45596,15 @@
       <c r="I428" s="8">
         <v>4</v>
       </c>
-      <c r="K428" s="11"/>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K428" s="8">
+        <v>193</v>
+      </c>
+      <c r="L428" s="7" t="str">
+        <f>VLOOKUP(K428,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>13.6.1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>427</v>
       </c>
@@ -45178,9 +45629,15 @@
       <c r="I429" s="8">
         <v>1</v>
       </c>
-      <c r="K429" s="11"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K429" s="8">
+        <v>197</v>
+      </c>
+      <c r="L429" s="7" t="str">
+        <f>VLOOKUP(K429,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>14.2.1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>428</v>
       </c>
@@ -45205,9 +45662,15 @@
       <c r="I430" s="8">
         <v>2</v>
       </c>
-      <c r="K430" s="11"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="8">
+        <v>198</v>
+      </c>
+      <c r="L430" s="7" t="str">
+        <f>VLOOKUP(K430,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>14.2.1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>429</v>
       </c>
@@ -45232,9 +45695,15 @@
       <c r="I431" s="8">
         <v>3</v>
       </c>
-      <c r="K431" s="11"/>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K431" s="8">
+        <v>199</v>
+      </c>
+      <c r="L431" s="7" t="str">
+        <f>VLOOKUP(K431,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>14.2.1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>430</v>
       </c>
@@ -45259,9 +45728,15 @@
       <c r="I432" s="8">
         <v>4</v>
       </c>
-      <c r="K432" s="11"/>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="8">
+        <v>200</v>
+      </c>
+      <c r="L432" s="7" t="str">
+        <f>VLOOKUP(K432,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>14.2.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>431</v>
       </c>
@@ -45286,9 +45761,15 @@
       <c r="I433" s="8">
         <v>5</v>
       </c>
-      <c r="K433" s="11"/>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="8">
+        <v>200</v>
+      </c>
+      <c r="L433" s="7" t="str">
+        <f>VLOOKUP(K433,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>14.2.1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>432</v>
       </c>
@@ -45313,9 +45794,15 @@
       <c r="I434" s="8">
         <v>1</v>
       </c>
-      <c r="K434" s="11"/>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K434" s="8">
+        <v>204</v>
+      </c>
+      <c r="L434" s="7" t="str">
+        <f>VLOOKUP(K434,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>15.2.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>433</v>
       </c>
@@ -45340,9 +45827,15 @@
       <c r="I435" s="8">
         <v>2</v>
       </c>
-      <c r="K435" s="11"/>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K435" s="8">
+        <v>204</v>
+      </c>
+      <c r="L435" s="7" t="str">
+        <f>VLOOKUP(K435,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>15.2.2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>434</v>
       </c>
@@ -45367,9 +45860,15 @@
       <c r="I436" s="8">
         <v>3</v>
       </c>
-      <c r="K436" s="11"/>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K436" s="8">
+        <v>205</v>
+      </c>
+      <c r="L436" s="7" t="str">
+        <f>VLOOKUP(K436,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>15.2.2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>435</v>
       </c>
@@ -45391,9 +45890,15 @@
       <c r="I437" t="s">
         <v>991</v>
       </c>
-      <c r="K437" s="11"/>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K437" s="8">
+        <v>207</v>
+      </c>
+      <c r="L437" s="7" t="str">
+        <f>VLOOKUP(K437,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>436</v>
       </c>
@@ -45415,9 +45920,15 @@
       <c r="I438" t="s">
         <v>1523</v>
       </c>
-      <c r="K438" s="11"/>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K438" s="8">
+        <v>216</v>
+      </c>
+      <c r="L438" s="7" t="str">
+        <f>VLOOKUP(K438,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>437</v>
       </c>
@@ -45439,9 +45950,15 @@
       <c r="I439" t="s">
         <v>952</v>
       </c>
-      <c r="K439" s="11"/>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K439" s="8">
+        <v>207</v>
+      </c>
+      <c r="L439" s="7" t="str">
+        <f>VLOOKUP(K439,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>438</v>
       </c>
@@ -45463,9 +45980,15 @@
       <c r="I440" t="s">
         <v>1530</v>
       </c>
-      <c r="K440" s="11"/>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K440" s="8">
+        <v>208</v>
+      </c>
+      <c r="L440" s="7" t="str">
+        <f>VLOOKUP(K440,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>439</v>
       </c>
@@ -45487,9 +46010,15 @@
       <c r="I441" t="s">
         <v>1534</v>
       </c>
-      <c r="K441" s="11"/>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K441" s="8">
+        <v>208</v>
+      </c>
+      <c r="L441" s="7" t="str">
+        <f>VLOOKUP(K441,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>440</v>
       </c>
@@ -45511,9 +46040,15 @@
       <c r="I442" t="s">
         <v>1538</v>
       </c>
-      <c r="K442" s="11"/>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K442" s="8">
+        <v>209</v>
+      </c>
+      <c r="L442" s="7" t="str">
+        <f>VLOOKUP(K442,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>441</v>
       </c>
@@ -45535,9 +46070,15 @@
       <c r="I443" t="s">
         <v>1542</v>
       </c>
-      <c r="K443" s="11"/>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K443" s="8">
+        <v>209</v>
+      </c>
+      <c r="L443" s="7" t="str">
+        <f>VLOOKUP(K443,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>442</v>
       </c>
@@ -45559,9 +46100,15 @@
       <c r="I444" t="s">
         <v>1546</v>
       </c>
-      <c r="K444" s="11"/>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K444" s="8">
+        <v>209</v>
+      </c>
+      <c r="L444" s="7" t="str">
+        <f>VLOOKUP(K444,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>443</v>
       </c>
@@ -45583,9 +46130,15 @@
       <c r="I445" t="s">
         <v>1550</v>
       </c>
-      <c r="K445" s="11"/>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K445" s="8">
+        <v>210</v>
+      </c>
+      <c r="L445" s="7" t="str">
+        <f>VLOOKUP(K445,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>444</v>
       </c>
@@ -45607,9 +46160,15 @@
       <c r="I446" t="s">
         <v>1554</v>
       </c>
-      <c r="K446" s="11"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K446" s="8">
+        <v>210</v>
+      </c>
+      <c r="L446" s="7" t="str">
+        <f>VLOOKUP(K446,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>445</v>
       </c>
@@ -45631,9 +46190,15 @@
       <c r="I447" t="s">
         <v>1558</v>
       </c>
-      <c r="K447" s="11"/>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K447" s="8">
+        <v>211</v>
+      </c>
+      <c r="L447" s="7" t="str">
+        <f>VLOOKUP(K447,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>446</v>
       </c>
@@ -45655,9 +46220,15 @@
       <c r="I448" t="s">
         <v>1562</v>
       </c>
-      <c r="K448" s="11"/>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K448" s="8">
+        <v>211</v>
+      </c>
+      <c r="L448" s="7" t="str">
+        <f>VLOOKUP(K448,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>447</v>
       </c>
@@ -45679,9 +46250,15 @@
       <c r="I449" t="s">
         <v>1566</v>
       </c>
-      <c r="K449" s="11"/>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K449" s="8">
+        <v>211</v>
+      </c>
+      <c r="L449" s="7" t="str">
+        <f>VLOOKUP(K449,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="6">
         <v>448</v>
       </c>
@@ -45703,9 +46280,15 @@
       <c r="I450" t="s">
         <v>1570</v>
       </c>
-      <c r="K450" s="11"/>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K450" s="8">
+        <v>211</v>
+      </c>
+      <c r="L450" s="7" t="str">
+        <f>VLOOKUP(K450,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>449</v>
       </c>
@@ -45727,9 +46310,15 @@
       <c r="I451" t="s">
         <v>1574</v>
       </c>
-      <c r="K451" s="11"/>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K451" s="8">
+        <v>212</v>
+      </c>
+      <c r="L451" s="7" t="str">
+        <f>VLOOKUP(K451,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>450</v>
       </c>
@@ -45751,9 +46340,15 @@
       <c r="I452" t="s">
         <v>1578</v>
       </c>
-      <c r="K452" s="11"/>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K452" s="8">
+        <v>212</v>
+      </c>
+      <c r="L452" s="7" t="str">
+        <f>VLOOKUP(K452,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>451</v>
       </c>
@@ -45775,9 +46370,15 @@
       <c r="I453" t="s">
         <v>1582</v>
       </c>
-      <c r="K453" s="11"/>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K453" s="8">
+        <v>216</v>
+      </c>
+      <c r="L453" s="7" t="str">
+        <f>VLOOKUP(K453,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>452</v>
       </c>
@@ -45799,9 +46400,15 @@
       <c r="I454" t="s">
         <v>1586</v>
       </c>
-      <c r="K454" s="11"/>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K454" s="8">
+        <v>213</v>
+      </c>
+      <c r="L454" s="7" t="str">
+        <f>VLOOKUP(K454,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>453</v>
       </c>
@@ -45823,9 +46430,15 @@
       <c r="I455" t="s">
         <v>1590</v>
       </c>
-      <c r="K455" s="11"/>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K455" s="8">
+        <v>213</v>
+      </c>
+      <c r="L455" s="7" t="str">
+        <f>VLOOKUP(K455,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="6">
         <v>454</v>
       </c>
@@ -45847,9 +46460,15 @@
       <c r="I456" t="s">
         <v>1594</v>
       </c>
-      <c r="K456" s="11"/>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K456" s="8">
+        <v>214</v>
+      </c>
+      <c r="L456" s="7" t="str">
+        <f>VLOOKUP(K456,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>455</v>
       </c>
@@ -45871,9 +46490,15 @@
       <c r="I457" t="s">
         <v>1598</v>
       </c>
-      <c r="K457" s="11"/>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K457" s="8">
+        <v>215</v>
+      </c>
+      <c r="L457" s="7" t="str">
+        <f>VLOOKUP(K457,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>456</v>
       </c>
@@ -45895,9 +46520,15 @@
       <c r="I458" t="s">
         <v>1602</v>
       </c>
-      <c r="K458" s="11"/>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K458" s="8">
+        <v>215</v>
+      </c>
+      <c r="L458" s="7" t="str">
+        <f>VLOOKUP(K458,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>457</v>
       </c>
@@ -45919,7 +46550,13 @@
       <c r="I459" t="s">
         <v>1606</v>
       </c>
-      <c r="K459" s="11"/>
+      <c r="K459" s="8">
+        <v>216</v>
+      </c>
+      <c r="L459" s="7" t="str">
+        <f>VLOOKUP(K459,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/materialer/indholdsfortegnelse.xlsx
+++ b/materialer/indholdsfortegnelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinnet/software/hoer-laegedansk/materialer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275305BE-73D2-9B43-B1A9-4D5231231961}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6459C67-8832-A641-AAAC-896998E13D29}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kapitler" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="2342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="2344">
   <si>
     <t>Mødet mellem læge og patient</t>
   </si>
@@ -7051,6 +7051,12 @@
   </si>
   <si>
     <t>INTRO_UK.mp3</t>
+  </si>
+  <si>
+    <t>Lagt op</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -33746,11 +33752,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E3B2D6-1357-EF4F-B237-AF77DB97A715}">
-  <dimension ref="A1:N460"/>
+  <dimension ref="A1:P460"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33769,7 +33775,7 @@
     <col min="12" max="12" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>199</v>
       </c>
@@ -33801,10 +33807,13 @@
         <v>1611</v>
       </c>
       <c r="N1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="P1" t="s">
         <v>2338</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -33827,12 +33836,15 @@
         <f>VLOOKUP(K2,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="P2" t="str">
         <f>_xlfn.CONCAT("| ", B2, " || ", D2, " || ", G2, " || ", I2, " || ", K2, " || ", L2, " || ", "&lt;html5media&gt;File:", C2, "&lt;/html5media&gt;")</f>
         <v>| FORORD || Forord ||  ||  || 1 || 0 || &lt;html5media&gt;File:FORORD.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -33855,12 +33867,15 @@
         <f>VLOOKUP(K3,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N67" si="0">_xlfn.CONCAT("| ", B3, " || ", D3, " || ", G3, " || ", I3, " || ", K3, " || ", L3, " || ", "&lt;html5media&gt;File:", C3, "&lt;/html5media&gt;")</f>
+      <c r="N3" t="s">
+        <v>2343</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P67" si="0">_xlfn.CONCAT("| ", B3, " || ", D3, " || ", G3, " || ", I3, " || ", K3, " || ", L3, " || ", "&lt;html5media&gt;File:", C3, "&lt;/html5media&gt;")</f>
         <v>| INTRO_DK || Forord ||  ||  || 1 || 0 || &lt;html5media&gt;File:INTRO_DK.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>2340</v>
@@ -33881,12 +33896,15 @@
         <f>VLOOKUP(K4,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v>| INTRO_UK || Forord ||  ||  || 1 || 0 || &lt;html5media&gt;File:INTRO_UK.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -33909,12 +33927,12 @@
         <f>VLOOKUP(K5,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v>| OP-JOUR || Forord ||  ||  || 1 || 0 || &lt;html5media&gt;File:OP-JOUR.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -33946,12 +33964,12 @@
         <f>VLOOKUP(K6,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_15 || Kapitel || 1 ||  || 15 || 1 || &lt;html5media&gt;File:KAP1_15.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -33986,12 +34004,12 @@
         <f>VLOOKUP(K7,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_15_2 || Kapitel || 1 || 2 || 15 || 1 || &lt;html5media&gt;File:KAP1_15_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -34023,12 +34041,12 @@
         <f>VLOOKUP(K8,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2</v>
       </c>
-      <c r="N8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_16 || Kapitel || 1 ||  || 16 || 1.2 || &lt;html5media&gt;File:KAP1_16.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -34063,12 +34081,12 @@
         <f>VLOOKUP(K9,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2</v>
       </c>
-      <c r="N9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_16_2 || Kapitel || 1 || 2 || 16 || 1.2 || &lt;html5media&gt;File:KAP1_16_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -34100,12 +34118,12 @@
         <f>VLOOKUP(K10,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2.2</v>
       </c>
-      <c r="N10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_17 || Kapitel || 1 ||  || 17 || 1.2.2 || &lt;html5media&gt;File:KAP1_17.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -34137,12 +34155,12 @@
         <f>VLOOKUP(K11,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2.3</v>
       </c>
-      <c r="N11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_18 || Kapitel || 1 ||  || 18 || 1.2.3 || &lt;html5media&gt;File:KAP1_18.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -34174,12 +34192,12 @@
         <f>VLOOKUP(K12,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3</v>
       </c>
-      <c r="N12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_19 || Kapitel || 1 ||  || 19 || 1.3 || &lt;html5media&gt;File:KAP1_19.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -34214,12 +34232,12 @@
         <f>VLOOKUP(K13,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3</v>
       </c>
-      <c r="N13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_19_2 || Kapitel || 1 || 2 || 19 || 1.3 || &lt;html5media&gt;File:KAP1_19_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -34254,12 +34272,12 @@
         <f>VLOOKUP(K14,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3</v>
       </c>
-      <c r="N14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_19_3 || Kapitel || 1 || 3 || 19 || 1.3 || &lt;html5media&gt;File:KAP1_19_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -34291,12 +34309,12 @@
         <f>VLOOKUP(K15,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.3</v>
       </c>
-      <c r="N15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_21 || Kapitel || 1 ||  || 21 || 1.3.3 || &lt;html5media&gt;File:KAP1_21.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -34328,12 +34346,12 @@
         <f>VLOOKUP(K16,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.4</v>
       </c>
-      <c r="N16" t="str">
+      <c r="P16" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_22 || Kapitel || 1 ||  || 22 || 1.3.4 || &lt;html5media&gt;File:KAP1_22.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -34368,12 +34386,12 @@
         <f>VLOOKUP(K17,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.4</v>
       </c>
-      <c r="N17" t="str">
+      <c r="P17" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_22_2 || Kapitel || 1 || 2 || 22 || 1.3.4 || &lt;html5media&gt;File:KAP1_22_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -34408,12 +34426,12 @@
         <f>VLOOKUP(K18,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.4</v>
       </c>
-      <c r="N18" t="str">
+      <c r="P18" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_22_3 || Kapitel || 1 || 3 || 22 || 1.3.4 || &lt;html5media&gt;File:KAP1_22_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -34445,12 +34463,12 @@
         <f>VLOOKUP(K19,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.4</v>
       </c>
-      <c r="N19" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_23 || Kapitel || 1 ||  || 23 || 1.4 || &lt;html5media&gt;File:KAP1_23.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -34482,12 +34500,12 @@
         <f>VLOOKUP(K20,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="N20" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_25 || Kapitel || 2 ||  || 25 || 2 || &lt;html5media&gt;File:KAP2_25.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -34522,12 +34540,12 @@
         <f>VLOOKUP(K21,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="N21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_25_2 || Kapitel || 2 || 2 || 25 || 2 || &lt;html5media&gt;File:KAP2_25_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -34559,12 +34577,12 @@
         <f>VLOOKUP(K22,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2.3</v>
       </c>
-      <c r="N22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_27 || Kapitel || 2 ||  || 27 || 2.3 || &lt;html5media&gt;File:KAP2_27.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -34599,12 +34617,12 @@
         <f>VLOOKUP(K23,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2.3</v>
       </c>
-      <c r="N23" t="str">
+      <c r="P23" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_27_2 || Kapitel || 2 || 2 || 27 || 2.3 || &lt;html5media&gt;File:KAP2_27_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -34636,12 +34654,12 @@
         <f>VLOOKUP(K24,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2.5</v>
       </c>
-      <c r="N24" t="str">
+      <c r="P24" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_29 || Kapitel || 2 ||  || 29 || 2.5 || &lt;html5media&gt;File:KAP2_29.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -34673,12 +34691,12 @@
         <f>VLOOKUP(K25,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="N25" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_31 || Kapitel || 3 ||  || 31 || 3 || &lt;html5media&gt;File:KAP3_31.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -34713,12 +34731,12 @@
         <f>VLOOKUP(K26,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="N26" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_31_2 || Kapitel || 3 || 2 || 31 || 3 || &lt;html5media&gt;File:KAP3_31_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -34753,12 +34771,12 @@
         <f>VLOOKUP(K27,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="N27" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_31_3 || Kapitel || 3 || 3 || 31 || 3 || &lt;html5media&gt;File:KAP3_31_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -34790,12 +34808,12 @@
         <f>VLOOKUP(K28,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.2</v>
       </c>
-      <c r="N28" t="str">
+      <c r="P28" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_33 || Kapitel || 3 ||  || 33 || 3.1.2 || &lt;html5media&gt;File:KAP3_33.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -34830,12 +34848,12 @@
         <f>VLOOKUP(K29,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.2</v>
       </c>
-      <c r="N29" t="str">
+      <c r="P29" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_33_2 || Kapitel || 3 || 2 || 33 || 3.1.2 || &lt;html5media&gt;File:KAP3_33_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -34867,12 +34885,12 @@
         <f>VLOOKUP(K30,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.4</v>
       </c>
-      <c r="N30" t="str">
+      <c r="P30" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_34 || Kapitel || 3 ||  || 34 || 3.1.4 || &lt;html5media&gt;File:KAP3_34.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -34904,12 +34922,12 @@
         <f>VLOOKUP(K31,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.5</v>
       </c>
-      <c r="N31" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_35 || Kapitel || 3 ||  || 35 || 3.1.5 || &lt;html5media&gt;File:KAP3_35.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -34941,12 +34959,12 @@
         <f>VLOOKUP(K32,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.6</v>
       </c>
-      <c r="N32" t="str">
+      <c r="P32" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_36 || Kapitel || 3 ||  || 36 || 3.1.6 || &lt;html5media&gt;File:KAP3_36.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -34978,12 +34996,12 @@
         <f>VLOOKUP(K33,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.7</v>
       </c>
-      <c r="N33" t="str">
+      <c r="P33" t="str">
         <f t="shared" si="0"/>
         <v>| kap3_37 || Kapitel || 3 ||  || 37 || 3.1.7 || &lt;html5media&gt;File:kap3_37.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -35015,12 +35033,12 @@
         <f>VLOOKUP(K34,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.8</v>
       </c>
-      <c r="N34" t="str">
+      <c r="P34" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_39 || Kapitel || 3 ||  || 39 || 3.1.8 || &lt;html5media&gt;File:KAP3_39.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -35052,12 +35070,12 @@
         <f>VLOOKUP(K35,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.9</v>
       </c>
-      <c r="N35" t="str">
+      <c r="P35" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_41 || Kapitel || 3 ||  || 41 || 3.1.9 || &lt;html5media&gt;File:KAP3_41.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -35089,12 +35107,12 @@
         <f>VLOOKUP(K36,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.10</v>
       </c>
-      <c r="N36" t="str">
+      <c r="P36" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_42 || Kapitel || 3 ||  || 42 || 3.1.10 || &lt;html5media&gt;File:KAP3_42.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -35129,12 +35147,12 @@
         <f>VLOOKUP(K37,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.10</v>
       </c>
-      <c r="N37" t="str">
+      <c r="P37" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_42_2 || Kapitel || 3 || 2 || 42 || 3.1.10 || &lt;html5media&gt;File:KAP3_42_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -35166,12 +35184,12 @@
         <f>VLOOKUP(K38,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N38" t="str">
+      <c r="P38" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_43 || Kapitel || 3 ||  || 43 || 3.2 || &lt;html5media&gt;File:KAP3_43.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>36</v>
       </c>
@@ -35203,12 +35221,12 @@
         <f>VLOOKUP(K39,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.1</v>
       </c>
-      <c r="N39" t="str">
+      <c r="P39" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_44 || Kapitel || 3 ||  || 44 || 3.2.1 || &lt;html5media&gt;File:KAP3_44.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>37</v>
       </c>
@@ -35240,12 +35258,12 @@
         <f>VLOOKUP(K40,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.2</v>
       </c>
-      <c r="N40" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_45 || Kapitel || 3 ||  || 45 || 3.2.2 || &lt;html5media&gt;File:KAP3_45.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>38</v>
       </c>
@@ -35280,12 +35298,12 @@
         <f>VLOOKUP(K41,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.2</v>
       </c>
-      <c r="N41" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_45_2 || Kapitel || 3 || 2 || 45 || 3.2.2 || &lt;html5media&gt;File:KAP3_45_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>39</v>
       </c>
@@ -35320,12 +35338,12 @@
         <f>VLOOKUP(K42,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.2</v>
       </c>
-      <c r="N42" t="str">
+      <c r="P42" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_45_3 || Kapitel || 3 || 3 || 45 || 3.2.2 || &lt;html5media&gt;File:KAP3_45_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>40</v>
       </c>
@@ -35357,12 +35375,12 @@
         <f>VLOOKUP(K43,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.5</v>
       </c>
-      <c r="N43" t="str">
+      <c r="P43" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_46 || Kapitel || 3 ||  || 46 || 3.2.5 || &lt;html5media&gt;File:KAP3_46.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>41</v>
       </c>
@@ -35397,12 +35415,12 @@
         <f>VLOOKUP(K44,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.5</v>
       </c>
-      <c r="N44" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_46_2 || Kapitel || 3 || 2 || 46 || 3.2.5 || &lt;html5media&gt;File:KAP3_46_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>42</v>
       </c>
@@ -35437,12 +35455,12 @@
         <f>VLOOKUP(K45,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.5</v>
       </c>
-      <c r="N45" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_46_3 || Kapitel || 3 || 3 || 46 || 3.2.5 || &lt;html5media&gt;File:KAP3_46_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -35477,12 +35495,12 @@
         <f>VLOOKUP(K46,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.5</v>
       </c>
-      <c r="N46" t="str">
+      <c r="P46" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_46_4 || Kapitel || 3 || 4 || 46 || 3.2.5 || &lt;html5media&gt;File:KAP3_46_4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>44</v>
       </c>
@@ -35514,12 +35532,12 @@
         <f>VLOOKUP(K47,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.9</v>
       </c>
-      <c r="N47" t="str">
+      <c r="P47" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_47 || Kapitel || 3 ||  || 47 || 3.2.9 || &lt;html5media&gt;File:KAP3_47.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45</v>
       </c>
@@ -35554,12 +35572,12 @@
         <f>VLOOKUP(K48,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.9</v>
       </c>
-      <c r="N48" t="str">
+      <c r="P48" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_47_2 || Kapitel || 3 || 2 || 47 || 3.2.9 || &lt;html5media&gt;File:KAP3_47_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>46</v>
       </c>
@@ -35594,12 +35612,12 @@
         <f>VLOOKUP(K49,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.9</v>
       </c>
-      <c r="N49" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_47_3 || Kapitel || 3 || 3 || 47 || 3.2.9 || &lt;html5media&gt;File:KAP3_47_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>47</v>
       </c>
@@ -35631,12 +35649,12 @@
         <f>VLOOKUP(K50,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.12</v>
       </c>
-      <c r="N50" t="str">
+      <c r="P50" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_48 || Kapitel || 3 ||  || 48 || 3.2.12 || &lt;html5media&gt;File:KAP3_48.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>48</v>
       </c>
@@ -35671,12 +35689,12 @@
         <f>VLOOKUP(K51,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.12</v>
       </c>
-      <c r="N51" t="str">
+      <c r="P51" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_48_2 || Kapitel || 3 || 2 || 48 || 3.2.12 || &lt;html5media&gt;File:KAP3_48_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>49</v>
       </c>
@@ -35708,12 +35726,12 @@
         <f>VLOOKUP(K52,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.14</v>
       </c>
-      <c r="N52" t="str">
+      <c r="P52" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_49 || Kapitel || 3 ||  || 49 || 3.2.14 || &lt;html5media&gt;File:KAP3_49.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -35745,12 +35763,12 @@
         <f>VLOOKUP(K53,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.15</v>
       </c>
-      <c r="N53" t="str">
+      <c r="P53" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_50 || Kapitel || 3 ||  || 50 || 3.2.15 || &lt;html5media&gt;File:KAP3_50.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>51</v>
       </c>
@@ -35785,12 +35803,12 @@
         <f>VLOOKUP(K54,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.15</v>
       </c>
-      <c r="N54" t="str">
+      <c r="P54" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_50_2 || Kapitel || 3 || 2 || 50 || 3.2.15 || &lt;html5media&gt;File:KAP3_50_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>52</v>
       </c>
@@ -35825,12 +35843,12 @@
         <f>VLOOKUP(K55,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.15</v>
       </c>
-      <c r="N55" t="str">
+      <c r="P55" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_50_3 || Kapitel || 3 || 3 || 50 || 3.2.15 || &lt;html5media&gt;File:KAP3_50_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>53</v>
       </c>
@@ -35862,12 +35880,12 @@
         <f>VLOOKUP(K56,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.18</v>
       </c>
-      <c r="N56" t="str">
+      <c r="P56" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_51 || Kapitel || 3 ||  || 51 || 3.2.18 || &lt;html5media&gt;File:KAP3_51.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>54</v>
       </c>
@@ -35902,12 +35920,12 @@
         <f>VLOOKUP(K57,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.18</v>
       </c>
-      <c r="N57" t="str">
+      <c r="P57" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_51_2 || Kapitel || 3 || 2 || 51 || 3.2.18 || &lt;html5media&gt;File:KAP3_51_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>55</v>
       </c>
@@ -35939,12 +35957,12 @@
         <f>VLOOKUP(K58,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.20</v>
       </c>
-      <c r="N58" t="str">
+      <c r="P58" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_52 || Kapitel || 3 ||  || 52 || 3.2.20 || &lt;html5media&gt;File:KAP3_52.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>56</v>
       </c>
@@ -35976,12 +35994,12 @@
         <f>VLOOKUP(K59,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.21</v>
       </c>
-      <c r="N59" t="str">
+      <c r="P59" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_53 || Kapitel || 3 ||  || 53 || 3.2.21 || &lt;html5media&gt;File:KAP3_53.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>57</v>
       </c>
@@ -36016,12 +36034,12 @@
         <f>VLOOKUP(K60,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.21</v>
       </c>
-      <c r="N60" t="str">
+      <c r="P60" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_53_2 || Kapitel || 3 || 2 || 53 || 3.2.21 || &lt;html5media&gt;File:KAP3_53_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>58</v>
       </c>
@@ -36053,12 +36071,12 @@
         <f>VLOOKUP(K61,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.4</v>
       </c>
-      <c r="N61" t="str">
+      <c r="P61" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_54 || Kapitel || 3 ||  || 54 || 3.4 || &lt;html5media&gt;File:KAP3_54.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>59</v>
       </c>
@@ -36093,12 +36111,12 @@
         <f>VLOOKUP(K62,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.4</v>
       </c>
-      <c r="N62" t="str">
+      <c r="P62" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_54_2 || Kapitel || 3 || 2 || 54 || 3.4 || &lt;html5media&gt;File:KAP3_54_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>60</v>
       </c>
@@ -36130,12 +36148,12 @@
         <f>VLOOKUP(K63,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.4.2</v>
       </c>
-      <c r="N63" t="str">
+      <c r="P63" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_56 || Kapitel || 3 ||  || 56 || 3.4.2 || &lt;html5media&gt;File:KAP3_56.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>61</v>
       </c>
@@ -36167,12 +36185,12 @@
         <f>VLOOKUP(K64,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="N64" t="str">
+      <c r="P64" t="str">
         <f t="shared" si="0"/>
         <v>| KAP4_57 || Kapitel || 4 ||  || 57 || 4 || &lt;html5media&gt;File:KAP4_57.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>62</v>
       </c>
@@ -36207,12 +36225,12 @@
         <f>VLOOKUP(K65,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="N65" t="str">
+      <c r="P65" t="str">
         <f t="shared" si="0"/>
         <v>| KAP4_57_2 || Kapitel || 4 || 2 || 57 || 4 || &lt;html5media&gt;File:KAP4_57_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>63</v>
       </c>
@@ -36244,12 +36262,12 @@
         <f>VLOOKUP(K66,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.1.2</v>
       </c>
-      <c r="N66" t="str">
+      <c r="P66" t="str">
         <f t="shared" si="0"/>
         <v>| KAP4_58 || Kapitel || 4 ||  || 58 || 4.1.2 || &lt;html5media&gt;File:KAP4_58.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>64</v>
       </c>
@@ -36281,12 +36299,12 @@
         <f>VLOOKUP(K67,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.1.3</v>
       </c>
-      <c r="N67" t="str">
+      <c r="P67" t="str">
         <f t="shared" si="0"/>
         <v>| KAP4_59 || Kapitel || 4 ||  || 59 || 4.1.3 || &lt;html5media&gt;File:KAP4_59.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>65</v>
       </c>
@@ -36318,12 +36336,12 @@
         <f>VLOOKUP(K68,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.1.4</v>
       </c>
-      <c r="N68" t="str">
-        <f t="shared" ref="N68:N131" si="1">_xlfn.CONCAT("| ", B68, " || ", D68, " || ", G68, " || ", I68, " || ", K68, " || ", L68, " || ", "&lt;html5media&gt;File:", C68, "&lt;/html5media&gt;")</f>
+      <c r="P68" t="str">
+        <f t="shared" ref="P68:P131" si="1">_xlfn.CONCAT("| ", B68, " || ", D68, " || ", G68, " || ", I68, " || ", K68, " || ", L68, " || ", "&lt;html5media&gt;File:", C68, "&lt;/html5media&gt;")</f>
         <v>| KAP4_60 || Kapitel || 4 ||  || 60 || 4.1.4 || &lt;html5media&gt;File:KAP4_60.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>66</v>
       </c>
@@ -36358,12 +36376,12 @@
         <f>VLOOKUP(K69,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.1.4</v>
       </c>
-      <c r="N69" t="str">
+      <c r="P69" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_60_2 || Kapitel || 4 || 2 || 60 || 4.1.4 || &lt;html5media&gt;File:KAP4_60_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>67</v>
       </c>
@@ -36395,12 +36413,12 @@
         <f>VLOOKUP(K70,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2</v>
       </c>
-      <c r="N70" t="str">
+      <c r="P70" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_61 || Kapitel || 4 ||  || 61 || 4.2 || &lt;html5media&gt;File:KAP4_61.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>68</v>
       </c>
@@ -36432,12 +36450,12 @@
         <f>VLOOKUP(K71,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.1</v>
       </c>
-      <c r="N71" t="str">
+      <c r="P71" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_62 || Kapitel || 4 ||  || 62 || 4.2.1 || &lt;html5media&gt;File:KAP4_62.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>69</v>
       </c>
@@ -36472,12 +36490,12 @@
         <f>VLOOKUP(K72,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.1</v>
       </c>
-      <c r="N72" t="str">
+      <c r="P72" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_62_2 || Kapitel || 4 || 2 || 62 || 4.2.1 || &lt;html5media&gt;File:KAP4_62_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>70</v>
       </c>
@@ -36509,12 +36527,12 @@
         <f>VLOOKUP(K73,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.3</v>
       </c>
-      <c r="N73" t="str">
+      <c r="P73" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_63 || Kapitel || 4 ||  || 63 || 4.2.3 || &lt;html5media&gt;File:KAP4_63.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>71</v>
       </c>
@@ -36546,12 +36564,12 @@
         <f>VLOOKUP(K74,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.4</v>
       </c>
-      <c r="N74" t="str">
+      <c r="P74" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_64 || Kapitel || 4 ||  || 64 || 4.2.4 || &lt;html5media&gt;File:KAP4_64.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>72</v>
       </c>
@@ -36586,12 +36604,12 @@
         <f>VLOOKUP(K75,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.4</v>
       </c>
-      <c r="N75" t="str">
+      <c r="P75" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_64_2 || Kapitel || 4 || 2 || 64 || 4.2.4 || &lt;html5media&gt;File:KAP4_64_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>73</v>
       </c>
@@ -36626,12 +36644,12 @@
         <f>VLOOKUP(K76,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.4</v>
       </c>
-      <c r="N76" t="str">
+      <c r="P76" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_64_3 || Kapitel || 4 || 3 || 64 || 4.2.4 || &lt;html5media&gt;File:KAP4_64_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>74</v>
       </c>
@@ -36663,12 +36681,12 @@
         <f>VLOOKUP(K77,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.3</v>
       </c>
-      <c r="N77" t="str">
+      <c r="P77" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_65 || Kapitel || 4 ||  || 65 || 4.2.3 || &lt;html5media&gt;File:KAP4_65.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>75</v>
       </c>
@@ -36700,12 +36718,12 @@
         <f>VLOOKUP(K78,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.4</v>
       </c>
-      <c r="N78" t="str">
+      <c r="P78" t="str">
         <f t="shared" si="1"/>
         <v>| KAP4_67 || Kapitel || 4 ||  || 67 || 4.2.4 || &lt;html5media&gt;File:KAP4_67.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>76</v>
       </c>
@@ -36737,12 +36755,12 @@
         <f>VLOOKUP(K79,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="N79" t="str">
+      <c r="P79" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_68 || Kapitel || 5 ||  || 68 || 5 || &lt;html5media&gt;File:KAP5_68.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>77</v>
       </c>
@@ -36777,12 +36795,12 @@
         <f>VLOOKUP(K80,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="N80" t="str">
+      <c r="P80" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_68_2 || Kapitel || 5 || 2 || 68 || 5 || &lt;html5media&gt;File:KAP5_68_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>78</v>
       </c>
@@ -36814,12 +36832,12 @@
         <f>VLOOKUP(K81,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.1</v>
       </c>
-      <c r="N81" t="str">
+      <c r="P81" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_69 || Kapitel || 5 ||  || 69 || 5.1.1 || &lt;html5media&gt;File:KAP5_69.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>79</v>
       </c>
@@ -36854,12 +36872,12 @@
         <f>VLOOKUP(K82,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.1</v>
       </c>
-      <c r="N82" t="str">
+      <c r="P82" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_69_2 || Kapitel || 5 || 2 || 69 || 5.1.1 || &lt;html5media&gt;File:KAP5_69_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>80</v>
       </c>
@@ -36894,12 +36912,12 @@
         <f>VLOOKUP(K83,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.1</v>
       </c>
-      <c r="N83" t="str">
+      <c r="P83" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_69_3 || Kapitel || 5 || 3 || 69 || 5.1.1 || &lt;html5media&gt;File:KAP5_69_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>81</v>
       </c>
@@ -36931,12 +36949,12 @@
         <f>VLOOKUP(K84,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.4</v>
       </c>
-      <c r="N84" t="str">
+      <c r="P84" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_72 || Kapitel || 5 ||  || 72 || 5.1.4 || &lt;html5media&gt;File:KAP5_72.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>82</v>
       </c>
@@ -36968,12 +36986,12 @@
         <f>VLOOKUP(K85,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.5</v>
       </c>
-      <c r="N85" t="str">
+      <c r="P85" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_73 || Kapitel || 5 ||  || 73 || 5.1.5 || &lt;html5media&gt;File:KAP5_73.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>83</v>
       </c>
@@ -37008,12 +37026,12 @@
         <f>VLOOKUP(K86,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.5</v>
       </c>
-      <c r="N86" t="str">
+      <c r="P86" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_73_2 || Kapitel || 5 || 2 || 73 || 5.1.5 || &lt;html5media&gt;File:KAP5_73_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>84</v>
       </c>
@@ -37045,12 +37063,12 @@
         <f>VLOOKUP(K87,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.1</v>
       </c>
-      <c r="N87" t="str">
+      <c r="P87" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_74 || Kapitel || 5 ||  || 74 || 5.2.1 || &lt;html5media&gt;File:KAP5_74.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>85</v>
       </c>
@@ -37082,12 +37100,12 @@
         <f>VLOOKUP(K88,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N88" t="str">
+      <c r="P88" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_75 || Kapitel || 5 ||  || 75 || 5.2.2 || &lt;html5media&gt;File:KAP5_75.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>86</v>
       </c>
@@ -37119,12 +37137,12 @@
         <f>VLOOKUP(K89,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N89" t="str">
+      <c r="P89" t="str">
         <f t="shared" si="1"/>
         <v>| kap5_76 || Kapitel || 5 ||  || 76 || 5.2.2 || &lt;html5media&gt;File:kap5_76.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>87</v>
       </c>
@@ -37156,12 +37174,12 @@
         <f>VLOOKUP(K90,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N90" t="str">
+      <c r="P90" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_78 || Kapitel || 5 ||  || 78 || 5.2.2 || &lt;html5media&gt;File:KAP5_78.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>88</v>
       </c>
@@ -37196,12 +37214,12 @@
         <f>VLOOKUP(K91,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N91" t="str">
+      <c r="P91" t="str">
         <f t="shared" si="1"/>
         <v>| KAP5_78_2 || Kapitel || 5 || 2 || 78 || 5.2.2 || &lt;html5media&gt;File:KAP5_78_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>89</v>
       </c>
@@ -37233,12 +37251,12 @@
         <f>VLOOKUP(K92,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="N92" t="str">
+      <c r="P92" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_83 || Kapitel || 6 ||  || 83 || 6 || &lt;html5media&gt;File:KAP6_83.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>90</v>
       </c>
@@ -37273,12 +37291,12 @@
         <f>VLOOKUP(K93,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="N93" t="str">
+      <c r="P93" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_83_2 || Kapitel || 6 || 2 || 83 || 6 || &lt;html5media&gt;File:KAP6_83_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>91</v>
       </c>
@@ -37310,12 +37328,12 @@
         <f>VLOOKUP(K94,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.1</v>
       </c>
-      <c r="N94" t="str">
+      <c r="P94" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_84 || Kapitel || 6 ||  || 84 || 6.1.1 || &lt;html5media&gt;File:KAP6_84.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>92</v>
       </c>
@@ -37347,12 +37365,12 @@
         <f>VLOOKUP(K95,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.2</v>
       </c>
-      <c r="N95" t="str">
+      <c r="P95" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_85 || Kapitel || 6 ||  || 85 || 6.1.2 || &lt;html5media&gt;File:KAP6_85.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>93</v>
       </c>
@@ -37387,12 +37405,12 @@
         <f>VLOOKUP(K96,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.2</v>
       </c>
-      <c r="N96" t="str">
+      <c r="P96" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_85_2 || Kapitel || 6 || 2 || 85 || 6.1.2 || &lt;html5media&gt;File:KAP6_85_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>94</v>
       </c>
@@ -37424,12 +37442,12 @@
         <f>VLOOKUP(K97,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.4</v>
       </c>
-      <c r="N97" t="str">
+      <c r="P97" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_86 || Kapitel || 6 ||  || 86 || 6.1.4 || &lt;html5media&gt;File:KAP6_86.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>95</v>
       </c>
@@ -37461,12 +37479,12 @@
         <f>VLOOKUP(K98,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.5</v>
       </c>
-      <c r="N98" t="str">
+      <c r="P98" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_87 || Kapitel || 6 ||  || 87 || 6.1.5 || &lt;html5media&gt;File:KAP6_87.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>96</v>
       </c>
@@ -37498,12 +37516,12 @@
         <f>VLOOKUP(K99,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2</v>
       </c>
-      <c r="N99" t="str">
+      <c r="P99" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_89 || Kapitel || 6 ||  || 89 || 6.2 || &lt;html5media&gt;File:KAP6_89.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>97</v>
       </c>
@@ -37535,12 +37553,12 @@
         <f>VLOOKUP(K100,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.1</v>
       </c>
-      <c r="N100" t="str">
+      <c r="P100" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_91 || Kapitel || 6 ||  || 91 || 6.2.1 || &lt;html5media&gt;File:KAP6_91.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>98</v>
       </c>
@@ -37572,12 +37590,12 @@
         <f>VLOOKUP(K101,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.2</v>
       </c>
-      <c r="N101" t="str">
+      <c r="P101" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_92 || Kapitel || 6 ||  || 92 || 6.2.2 || &lt;html5media&gt;File:KAP6_92.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>99</v>
       </c>
@@ -37612,12 +37630,12 @@
         <f>VLOOKUP(K102,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.2</v>
       </c>
-      <c r="N102" t="str">
+      <c r="P102" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_92_2 || Kapitel || 6 || 2 || 92 || 6.2.2 || &lt;html5media&gt;File:KAP6_92_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>100</v>
       </c>
@@ -37649,12 +37667,12 @@
         <f>VLOOKUP(K103,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.4</v>
       </c>
-      <c r="N103" t="str">
+      <c r="P103" t="str">
         <f t="shared" si="1"/>
         <v>| KAP6_94 || Kapitel || 6 ||  || 94 || 6.2.4 || &lt;html5media&gt;File:KAP6_94.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>101</v>
       </c>
@@ -37686,12 +37704,12 @@
         <f>VLOOKUP(K104,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.5</v>
       </c>
-      <c r="N104" t="str">
+      <c r="P104" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_101 || Kapitel || 7 ||  || 101 || 7.1.5 || &lt;html5media&gt;File:KAP7_101.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>102</v>
       </c>
@@ -37723,12 +37741,12 @@
         <f>VLOOKUP(K105,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.6</v>
       </c>
-      <c r="N105" t="str">
+      <c r="P105" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_103 || Kapitel || 7 ||  || 103 || 7.1.6 || &lt;html5media&gt;File:KAP7_103.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>103</v>
       </c>
@@ -37763,12 +37781,12 @@
         <f>VLOOKUP(K106,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.6</v>
       </c>
-      <c r="N106" t="str">
+      <c r="P106" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_103_2 || Kapitel || 7 || 2 || 103 || 7.1.6 || &lt;html5media&gt;File:KAP7_103_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>104</v>
       </c>
@@ -37800,12 +37818,12 @@
         <f>VLOOKUP(K107,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.1</v>
       </c>
-      <c r="N107" t="str">
+      <c r="P107" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_104 || Kapitel || 7 ||  || 104 || 7.2.1 || &lt;html5media&gt;File:KAP7_104.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>105</v>
       </c>
@@ -37837,12 +37855,12 @@
         <f>VLOOKUP(K108,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N108" t="str">
+      <c r="P108" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_105 || Kapitel || 7 ||  || 105 || 7.2.2 || &lt;html5media&gt;File:KAP7_105.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>106</v>
       </c>
@@ -37874,12 +37892,12 @@
         <f>VLOOKUP(K109,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N109" t="str">
+      <c r="P109" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_107 || Kapitel || 7 ||  || 107 || 7.2.2 || &lt;html5media&gt;File:KAP7_107.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>107</v>
       </c>
@@ -37911,12 +37929,12 @@
         <f>VLOOKUP(K110,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N110" t="str">
+      <c r="P110" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_111 || Kapitel || 7 ||  || 111 || 7.2.2 || &lt;html5media&gt;File:KAP7_111.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>108</v>
       </c>
@@ -37948,12 +37966,12 @@
         <f>VLOOKUP(K111,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.3</v>
       </c>
-      <c r="N111" t="str">
+      <c r="P111" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_112 || Kapitel || 7 ||  || 112 || 7.2.3 || &lt;html5media&gt;File:KAP7_112.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>109</v>
       </c>
@@ -37988,12 +38006,12 @@
         <f>VLOOKUP(K112,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.3</v>
       </c>
-      <c r="N112" t="str">
+      <c r="P112" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_112_2 || Kapitel || 7 || 2 || 112 || 7.2.3 || &lt;html5media&gt;File:KAP7_112_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>110</v>
       </c>
@@ -38025,12 +38043,12 @@
         <f>VLOOKUP(K113,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.4</v>
       </c>
-      <c r="N113" t="str">
+      <c r="P113" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_113 || Kapitel || 7 ||  || 113 || 7.2.4 || &lt;html5media&gt;File:KAP7_113.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>111</v>
       </c>
@@ -38062,12 +38080,12 @@
         <f>VLOOKUP(K114,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="N114" t="str">
+      <c r="P114" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_97 || Kapitel || 7 ||  || 97 || 7 || &lt;html5media&gt;File:KAP7_97.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>112</v>
       </c>
@@ -38102,12 +38120,12 @@
         <f>VLOOKUP(K115,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="N115" t="str">
+      <c r="P115" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_97_2 || Kapitel || 7 || 2 || 97 || 7 || &lt;html5media&gt;File:KAP7_97_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>113</v>
       </c>
@@ -38139,12 +38157,12 @@
         <f>VLOOKUP(K116,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.1</v>
       </c>
-      <c r="N116" t="str">
+      <c r="P116" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_98 || Kapitel || 7 ||  || 98 || 7.1.1 || &lt;html5media&gt;File:KAP7_98.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>114</v>
       </c>
@@ -38179,12 +38197,12 @@
         <f>VLOOKUP(K117,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.1</v>
       </c>
-      <c r="N117" t="str">
+      <c r="P117" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_98_2 || Kapitel || 7 || 2 || 98 || 7.1.1 || &lt;html5media&gt;File:KAP7_98_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>115</v>
       </c>
@@ -38216,12 +38234,12 @@
         <f>VLOOKUP(K118,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.3</v>
       </c>
-      <c r="N118" t="str">
+      <c r="P118" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_99 || Kapitel || 7 ||  || 99 || 7.1.3 || &lt;html5media&gt;File:KAP7_99.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>116</v>
       </c>
@@ -38256,12 +38274,12 @@
         <f>VLOOKUP(K119,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.3</v>
       </c>
-      <c r="N119" t="str">
+      <c r="P119" t="str">
         <f t="shared" si="1"/>
         <v>| KAP7_99_2 || Kapitel || 7 || 2 || 99 || 7.1.3 || &lt;html5media&gt;File:KAP7_99_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>117</v>
       </c>
@@ -38293,12 +38311,12 @@
         <f>VLOOKUP(K120,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="N120" t="str">
+      <c r="P120" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_116 || Kapitel || 8 ||  || 116 || 8 || &lt;html5media&gt;File:KAP8_116.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>118</v>
       </c>
@@ -38333,12 +38351,12 @@
         <f>VLOOKUP(K121,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="N121" t="str">
+      <c r="P121" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_116_2 || Kapitel || 8 || 2 || 116 || 8 || &lt;html5media&gt;File:KAP8_116_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>119</v>
       </c>
@@ -38370,12 +38388,12 @@
         <f>VLOOKUP(K122,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.2</v>
       </c>
-      <c r="N122" t="str">
+      <c r="P122" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_117 || Kapitel || 8 ||  || 117 || 8.1.2 || &lt;html5media&gt;File:KAP8_117.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>120</v>
       </c>
@@ -38407,12 +38425,12 @@
         <f>VLOOKUP(K123,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.3</v>
       </c>
-      <c r="N123" t="str">
+      <c r="P123" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_118 || Kapitel || 8 ||  || 118 || 8.1.3 || &lt;html5media&gt;File:KAP8_118.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>121</v>
       </c>
@@ -38444,12 +38462,12 @@
         <f>VLOOKUP(K124,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.4</v>
       </c>
-      <c r="N124" t="str">
+      <c r="P124" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_119 || Kapitel || 8 ||  || 119 || 8.1.4 || &lt;html5media&gt;File:KAP8_119.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>122</v>
       </c>
@@ -38484,12 +38502,12 @@
         <f>VLOOKUP(K125,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.4</v>
       </c>
-      <c r="N125" t="str">
+      <c r="P125" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_119_2 || Kapitel || 8 || 2 || 119 || 8.1.4 || &lt;html5media&gt;File:KAP8_119_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>123</v>
       </c>
@@ -38521,12 +38539,12 @@
         <f>VLOOKUP(K126,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.6</v>
       </c>
-      <c r="N126" t="str">
+      <c r="P126" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_120 || Kapitel || 8 ||  || 120 || 8.1.6 || &lt;html5media&gt;File:KAP8_120.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>124</v>
       </c>
@@ -38561,12 +38579,12 @@
         <f>VLOOKUP(K127,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.6</v>
       </c>
-      <c r="N127" t="str">
+      <c r="P127" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_120_2 || Kapitel || 8 || 2 || 120 || 8.1.6 || &lt;html5media&gt;File:KAP8_120_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>125</v>
       </c>
@@ -38598,12 +38616,12 @@
         <f>VLOOKUP(K128,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.8</v>
       </c>
-      <c r="N128" t="str">
+      <c r="P128" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_122 || Kapitel || 8 ||  || 122 || 8.1.8 || &lt;html5media&gt;File:KAP8_122.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>126</v>
       </c>
@@ -38638,12 +38656,12 @@
         <f>VLOOKUP(K129,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.8</v>
       </c>
-      <c r="N129" t="str">
+      <c r="P129" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_122_2 || Kapitel || 8 || 2 || 122 || 8.1.8 || &lt;html5media&gt;File:KAP8_122_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>127</v>
       </c>
@@ -38678,12 +38696,12 @@
         <f>VLOOKUP(K130,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.8</v>
       </c>
-      <c r="N130" t="str">
+      <c r="P130" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_122_3 || Kapitel || 8 || 3 || 122 || 8.1.8 || &lt;html5media&gt;File:KAP8_122_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>128</v>
       </c>
@@ -38715,12 +38733,12 @@
         <f>VLOOKUP(K131,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.8</v>
       </c>
-      <c r="N131" t="str">
+      <c r="P131" t="str">
         <f t="shared" si="1"/>
         <v>| KAP8_123 || Kapitel || 8 ||  || 123 || 8.1.8 || &lt;html5media&gt;File:KAP8_123.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>129</v>
       </c>
@@ -38755,12 +38773,12 @@
         <f>VLOOKUP(K132,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.8</v>
       </c>
-      <c r="N132" t="str">
-        <f t="shared" ref="N132:N195" si="2">_xlfn.CONCAT("| ", B132, " || ", D132, " || ", G132, " || ", I132, " || ", K132, " || ", L132, " || ", "&lt;html5media&gt;File:", C132, "&lt;/html5media&gt;")</f>
+      <c r="P132" t="str">
+        <f t="shared" ref="P132:P195" si="2">_xlfn.CONCAT("| ", B132, " || ", D132, " || ", G132, " || ", I132, " || ", K132, " || ", L132, " || ", "&lt;html5media&gt;File:", C132, "&lt;/html5media&gt;")</f>
         <v>| KAP8_123_2 || Kapitel || 8 || 2 || 123 || 8.1.8 || &lt;html5media&gt;File:KAP8_123_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>130</v>
       </c>
@@ -38792,12 +38810,12 @@
         <f>VLOOKUP(K133,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.2.2</v>
       </c>
-      <c r="N133" t="str">
+      <c r="P133" t="str">
         <f t="shared" si="2"/>
         <v>| KAP8_125 || Kapitel || 8 ||  || 125 || 8.2.2 || &lt;html5media&gt;File:KAP8_125.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>131</v>
       </c>
@@ -38829,12 +38847,12 @@
         <f>VLOOKUP(K134,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="N134" t="str">
+      <c r="P134" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_127 || Kapitel || 9 ||  || 127 || 9 || &lt;html5media&gt;File:KAP9_127.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>132</v>
       </c>
@@ -38869,12 +38887,12 @@
         <f>VLOOKUP(K135,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="N135" t="str">
+      <c r="P135" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_127_2 || Kapitel || 9 || 2 || 127 || 9 || &lt;html5media&gt;File:KAP9_127_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>133</v>
       </c>
@@ -38906,12 +38924,12 @@
         <f>VLOOKUP(K136,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.1</v>
       </c>
-      <c r="N136" t="str">
+      <c r="P136" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_128 || Kapitel || 9 ||  || 128 || 9.1.1 || &lt;html5media&gt;File:KAP9_128.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>134</v>
       </c>
@@ -38943,12 +38961,12 @@
         <f>VLOOKUP(K137,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.2</v>
       </c>
-      <c r="N137" t="str">
+      <c r="P137" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_129 || Kapitel || 9 ||  || 129 || 9.1.2 || &lt;html5media&gt;File:KAP9_129.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>135</v>
       </c>
@@ -38983,12 +39001,12 @@
         <f>VLOOKUP(K138,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.2</v>
       </c>
-      <c r="N138" t="str">
+      <c r="P138" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_129_2 || Kapitel || 9 || 2 || 129 || 9.1.2 || &lt;html5media&gt;File:KAP9_129_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>136</v>
       </c>
@@ -39020,12 +39038,12 @@
         <f>VLOOKUP(K139,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.4</v>
       </c>
-      <c r="N139" t="str">
+      <c r="P139" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_130 || Kapitel || 9 ||  || 130 || 9.1.4 || &lt;html5media&gt;File:KAP9_130.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>137</v>
       </c>
@@ -39060,12 +39078,12 @@
         <f>VLOOKUP(K140,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.4</v>
       </c>
-      <c r="N140" t="str">
+      <c r="P140" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_130_2 || Kapitel || 9 || 2 || 130 || 9.1.4 || &lt;html5media&gt;File:KAP9_130_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>138</v>
       </c>
@@ -39097,12 +39115,12 @@
         <f>VLOOKUP(K141,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N141" t="str">
+      <c r="P141" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_131 || Kapitel || 9 ||  || 131 || 9.2 || &lt;html5media&gt;File:KAP9_131.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>139</v>
       </c>
@@ -39137,12 +39155,12 @@
         <f>VLOOKUP(K142,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N142" t="str">
+      <c r="P142" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_131_2 || Kapitel || 9 || 2 || 131 || 9.2 || &lt;html5media&gt;File:KAP9_131_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>140</v>
       </c>
@@ -39174,12 +39192,12 @@
         <f>VLOOKUP(K143,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N143" t="str">
+      <c r="P143" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_132 || Kapitel || 9 ||  || 132 || 9.2 || &lt;html5media&gt;File:KAP9_132.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>141</v>
       </c>
@@ -39211,12 +39229,12 @@
         <f>VLOOKUP(K144,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N144" t="str">
+      <c r="P144" t="str">
         <f t="shared" si="2"/>
         <v>| KAP9_134 || Kapitel || 9 ||  || 134 || 9.2 || &lt;html5media&gt;File:KAP9_134.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>142</v>
       </c>
@@ -39248,12 +39266,12 @@
         <f>VLOOKUP(K145,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="N145" t="str">
+      <c r="P145" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_136 || Kapitel || 10 ||  || 136 || 10 || &lt;html5media&gt;File:KAP10_136.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>143</v>
       </c>
@@ -39288,12 +39306,12 @@
         <f>VLOOKUP(K146,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="N146" t="str">
+      <c r="P146" t="str">
         <f t="shared" si="2"/>
         <v>| kap10_136_2 || Kapitel || 10 || 2 || 136 || 10 || &lt;html5media&gt;File:kap10_136_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>144</v>
       </c>
@@ -39325,12 +39343,12 @@
         <f>VLOOKUP(K147,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.1.1</v>
       </c>
-      <c r="N147" t="str">
+      <c r="P147" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_137 || Kapitel || 10 ||  || 137 || 10.1.1 || &lt;html5media&gt;File:KAP10_137.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>145</v>
       </c>
@@ -39362,12 +39380,12 @@
         <f>VLOOKUP(K148,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.1.2</v>
       </c>
-      <c r="N148" t="str">
+      <c r="P148" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_138 || Kapitel || 10 ||  || 138 || 10.1.2 || &lt;html5media&gt;File:KAP10_138.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>146</v>
       </c>
@@ -39399,12 +39417,12 @@
         <f>VLOOKUP(K149,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.1.3</v>
       </c>
-      <c r="N149" t="str">
+      <c r="P149" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_139 || Kapitel || 10 ||  || 139 || 10.1.3 || &lt;html5media&gt;File:KAP10_139.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>147</v>
       </c>
@@ -39439,12 +39457,12 @@
         <f>VLOOKUP(K150,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.1.3</v>
       </c>
-      <c r="N150" t="str">
+      <c r="P150" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_139_2 || Kapitel || 10 || 2 || 139 || 10.1.3 || &lt;html5media&gt;File:KAP10_139_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>148</v>
       </c>
@@ -39476,12 +39494,12 @@
         <f>VLOOKUP(K151,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2</v>
       </c>
-      <c r="N151" t="str">
+      <c r="P151" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_140 || Kapitel || 10 ||  || 140 || 10.2 || &lt;html5media&gt;File:KAP10_140.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>149</v>
       </c>
@@ -39516,12 +39534,12 @@
         <f>VLOOKUP(K152,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2</v>
       </c>
-      <c r="N152" t="str">
+      <c r="P152" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_140_2 || Kapitel || 10 || 2 || 140 || 10.2 || &lt;html5media&gt;File:KAP10_140_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>150</v>
       </c>
@@ -39556,12 +39574,12 @@
         <f>VLOOKUP(K153,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2</v>
       </c>
-      <c r="N153" t="str">
+      <c r="P153" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_140_3 || Kapitel || 10 || 3 || 140 || 10.2 || &lt;html5media&gt;File:KAP10_140_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>151</v>
       </c>
@@ -39593,12 +39611,12 @@
         <f>VLOOKUP(K154,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.3</v>
       </c>
-      <c r="N154" t="str">
+      <c r="P154" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_141 || Kapitel || 10 ||  || 141 || 10.2.3 || &lt;html5media&gt;File:KAP10_141.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>152</v>
       </c>
@@ -39633,12 +39651,12 @@
         <f>VLOOKUP(K155,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.3</v>
       </c>
-      <c r="N155" t="str">
+      <c r="P155" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_141_2 || Kapitel || 10 || 2 || 141 || 10.2.3 || &lt;html5media&gt;File:KAP10_141_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>153</v>
       </c>
@@ -39670,12 +39688,12 @@
         <f>VLOOKUP(K156,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.5</v>
       </c>
-      <c r="N156" t="str">
+      <c r="P156" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_142 || Kapitel || 10 ||  || 142 || 10.2.5 || &lt;html5media&gt;File:KAP10_142.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>154</v>
       </c>
@@ -39707,12 +39725,12 @@
         <f>VLOOKUP(K157,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.7</v>
       </c>
-      <c r="N157" t="str">
+      <c r="P157" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_145 || Kapitel || 10 ||  || 145 || 10.2.7 || &lt;html5media&gt;File:KAP10_145.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>155</v>
       </c>
@@ -39744,12 +39762,12 @@
         <f>VLOOKUP(K158,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.8</v>
       </c>
-      <c r="N158" t="str">
+      <c r="P158" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_147 || Kapitel || 10 ||  || 147 || 10.2.8 || &lt;html5media&gt;File:KAP10_147.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>156</v>
       </c>
@@ -39781,12 +39799,12 @@
         <f>VLOOKUP(K159,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N159" t="str">
+      <c r="P159" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_148 || Kapitel || 10 ||  || 148 || 10.2.9 || &lt;html5media&gt;File:KAP10_148.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>157</v>
       </c>
@@ -39821,12 +39839,12 @@
         <f>VLOOKUP(K160,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N160" t="str">
+      <c r="P160" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_148_2 || Kapitel || 10 || 2 || 148 || 10.2.9 || &lt;html5media&gt;File:KAP10_148_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>158</v>
       </c>
@@ -39858,12 +39876,12 @@
         <f>VLOOKUP(K161,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.11</v>
       </c>
-      <c r="N161" t="str">
+      <c r="P161" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_151 || Kapitel || 10 ||  || 151 || 10.2.11 || &lt;html5media&gt;File:KAP10_151.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>159</v>
       </c>
@@ -39895,12 +39913,12 @@
         <f>VLOOKUP(K162,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.12</v>
       </c>
-      <c r="N162" t="str">
+      <c r="P162" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_152 || Kapitel || 10 ||  || 152 || 10.2.12 || &lt;html5media&gt;File:KAP10_152.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>160</v>
       </c>
@@ -39932,12 +39950,12 @@
         <f>VLOOKUP(K163,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.13</v>
       </c>
-      <c r="N163" t="str">
+      <c r="P163" t="str">
         <f t="shared" si="2"/>
         <v>| KAP10_153 || Kapitel || 10 ||  || 153 || 10.2.13 || &lt;html5media&gt;File:KAP10_153.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>161</v>
       </c>
@@ -39969,12 +39987,12 @@
         <f>VLOOKUP(K164,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="N164" t="str">
+      <c r="P164" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_154 || Kapitel || 11 ||  || 154 || 11 || &lt;html5media&gt;File:KAP11_154.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>162</v>
       </c>
@@ -40009,12 +40027,12 @@
         <f>VLOOKUP(K165,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="N165" t="str">
+      <c r="P165" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_154_2 || Kapitel || 11 || 2 || 154 || 11 || &lt;html5media&gt;File:KAP11_154_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>163</v>
       </c>
@@ -40046,12 +40064,12 @@
         <f>VLOOKUP(K166,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.1</v>
       </c>
-      <c r="N166" t="str">
+      <c r="P166" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_155 || Kapitel || 11 ||  || 155 || 11.1.1 || &lt;html5media&gt;File:KAP11_155.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>164</v>
       </c>
@@ -40083,12 +40101,12 @@
         <f>VLOOKUP(K167,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.2</v>
       </c>
-      <c r="N167" t="str">
+      <c r="P167" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_156 || Kapitel || 11 ||  || 156 || 11.1.2 || &lt;html5media&gt;File:KAP11_156.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>165</v>
       </c>
@@ -40123,12 +40141,12 @@
         <f>VLOOKUP(K168,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.2</v>
       </c>
-      <c r="N168" t="str">
+      <c r="P168" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_156_2 || Kapitel || 11 || 2 || 156 || 11.1.2 || &lt;html5media&gt;File:KAP11_156_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>166</v>
       </c>
@@ -40160,12 +40178,12 @@
         <f>VLOOKUP(K169,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.4</v>
       </c>
-      <c r="N169" t="str">
+      <c r="P169" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_158 || Kapitel || 11 ||  || 158 || 11.1.4 || &lt;html5media&gt;File:KAP11_158.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>167</v>
       </c>
@@ -40197,12 +40215,12 @@
         <f>VLOOKUP(K170,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.5</v>
       </c>
-      <c r="N170" t="str">
+      <c r="P170" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_159 || Kapitel || 11 ||  || 159 || 11.1.5 || &lt;html5media&gt;File:KAP11_159.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>168</v>
       </c>
@@ -40234,12 +40252,12 @@
         <f>VLOOKUP(K171,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.6</v>
       </c>
-      <c r="N171" t="str">
+      <c r="P171" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_160 || Kapitel || 11 ||  || 160 || 11.1.6 || &lt;html5media&gt;File:KAP11_160.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>169</v>
       </c>
@@ -40274,12 +40292,12 @@
         <f>VLOOKUP(K172,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.6</v>
       </c>
-      <c r="N172" t="str">
+      <c r="P172" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_160_2 || Kapitel || 11 || 2 || 160 || 11.1.6 || &lt;html5media&gt;File:KAP11_160_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>170</v>
       </c>
@@ -40311,12 +40329,12 @@
         <f>VLOOKUP(K173,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.8</v>
       </c>
-      <c r="N173" t="str">
+      <c r="P173" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_161 || Kapitel || 11 ||  || 161 || 11.1.8 || &lt;html5media&gt;File:KAP11_161.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>171</v>
       </c>
@@ -40351,12 +40369,12 @@
         <f>VLOOKUP(K174,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.8</v>
       </c>
-      <c r="N174" t="str">
+      <c r="P174" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_161_2 || Kapitel || 11 || 2 || 161 || 11.1.8 || &lt;html5media&gt;File:KAP11_161_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>172</v>
       </c>
@@ -40391,12 +40409,12 @@
         <f>VLOOKUP(K175,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.8</v>
       </c>
-      <c r="N175" t="str">
+      <c r="P175" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_161_3 || Kapitel || 11 || 3 || 161 || 11.1.8 || &lt;html5media&gt;File:KAP11_161_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>173</v>
       </c>
@@ -40428,12 +40446,12 @@
         <f>VLOOKUP(K176,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2</v>
       </c>
-      <c r="N176" t="str">
+      <c r="P176" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_162 || Kapitel || 11 ||  || 162 || 11.2 || &lt;html5media&gt;File:KAP11_162.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>174</v>
       </c>
@@ -40468,12 +40486,12 @@
         <f>VLOOKUP(K177,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2</v>
       </c>
-      <c r="N177" t="str">
+      <c r="P177" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_162_2 || Kapitel || 11 || 2 || 162 || 11.2 || &lt;html5media&gt;File:KAP11_162_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>175</v>
       </c>
@@ -40505,12 +40523,12 @@
         <f>VLOOKUP(K178,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.2</v>
       </c>
-      <c r="N178" t="str">
+      <c r="P178" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_163 || Kapitel || 11 ||  || 163 || 11.2.2 || &lt;html5media&gt;File:KAP11_163.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>176</v>
       </c>
@@ -40542,12 +40560,12 @@
         <f>VLOOKUP(K179,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.3</v>
       </c>
-      <c r="N179" t="str">
+      <c r="P179" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_164 || Kapitel || 11 ||  || 164 || 11.2.3 || &lt;html5media&gt;File:KAP11_164.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>177</v>
       </c>
@@ -40579,12 +40597,12 @@
         <f>VLOOKUP(K180,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.4</v>
       </c>
-      <c r="N180" t="str">
+      <c r="P180" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_165 || Kapitel || 11 ||  || 165 || 11.2.4 || &lt;html5media&gt;File:KAP11_165.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>178</v>
       </c>
@@ -40616,12 +40634,12 @@
         <f>VLOOKUP(K181,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.5</v>
       </c>
-      <c r="N181" t="str">
+      <c r="P181" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_166 || Kapitel || 11 ||  || 166 || 11.2.5 || &lt;html5media&gt;File:KAP11_166.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>179</v>
       </c>
@@ -40653,12 +40671,12 @@
         <f>VLOOKUP(K182,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N182" t="str">
+      <c r="P182" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_169 || Kapitel || 11 ||  || 169 || 11.2.6 || &lt;html5media&gt;File:KAP11_169.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>180</v>
       </c>
@@ -40690,12 +40708,12 @@
         <f>VLOOKUP(K183,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.7</v>
       </c>
-      <c r="N183" t="str">
+      <c r="P183" t="str">
         <f t="shared" si="2"/>
         <v>| KAP11_174 || Kapitel || 11 ||  || 174 || 11.2.7 || &lt;html5media&gt;File:KAP11_174.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>181</v>
       </c>
@@ -40727,12 +40745,12 @@
         <f>VLOOKUP(K184,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="N184" t="str">
+      <c r="P184" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_178 || Kapitel || 12 ||  || 178 || 12 || &lt;html5media&gt;File:KAP12_178.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>182</v>
       </c>
@@ -40764,12 +40782,12 @@
         <f>VLOOKUP(K185,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1</v>
       </c>
-      <c r="N185" t="str">
+      <c r="P185" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_179 || Kapitel || 12 ||  || 179 || 12.1 || &lt;html5media&gt;File:KAP12_179.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>183</v>
       </c>
@@ -40801,12 +40819,12 @@
         <f>VLOOKUP(K186,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1.1</v>
       </c>
-      <c r="N186" t="str">
+      <c r="P186" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_180 || Kapitel || 12 ||  || 180 || 12.1.1 || &lt;html5media&gt;File:KAP12_180.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>184</v>
       </c>
@@ -40838,12 +40856,12 @@
         <f>VLOOKUP(K187,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1.2</v>
       </c>
-      <c r="N187" t="str">
+      <c r="P187" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_181 || Kapitel || 12 ||  || 181 || 12.1.2 || &lt;html5media&gt;File:KAP12_181.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>185</v>
       </c>
@@ -40878,12 +40896,12 @@
         <f>VLOOKUP(K188,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1.2</v>
       </c>
-      <c r="N188" t="str">
+      <c r="P188" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_181_2 || Kapitel || 12 || 2 || 181 || 12.1.2 || &lt;html5media&gt;File:KAP12_181_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>186</v>
       </c>
@@ -40915,12 +40933,12 @@
         <f>VLOOKUP(K189,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1.4</v>
       </c>
-      <c r="N189" t="str">
+      <c r="P189" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_182 || Kapitel || 12 ||  || 182 || 12.1.4 || &lt;html5media&gt;File:KAP12_182.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>187</v>
       </c>
@@ -40955,12 +40973,12 @@
         <f>VLOOKUP(K190,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1.4</v>
       </c>
-      <c r="N190" t="str">
+      <c r="P190" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_182_2 || Kapitel || 12 || 2 || 182 || 12.1.4 || &lt;html5media&gt;File:KAP12_182_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>188</v>
       </c>
@@ -40992,12 +41010,12 @@
         <f>VLOOKUP(K191,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.1</v>
       </c>
-      <c r="N191" t="str">
+      <c r="P191" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_183 || Kapitel || 12 ||  || 183 || 12.2.1 || &lt;html5media&gt;File:KAP12_183.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>189</v>
       </c>
@@ -41029,12 +41047,12 @@
         <f>VLOOKUP(K192,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.2</v>
       </c>
-      <c r="N192" t="str">
+      <c r="P192" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_185 || Kapitel || 12 ||  || 185 || 12.2.2 || &lt;html5media&gt;File:KAP12_185.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>190</v>
       </c>
@@ -41069,12 +41087,12 @@
         <f>VLOOKUP(K193,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.2</v>
       </c>
-      <c r="N193" t="str">
+      <c r="P193" t="str">
         <f t="shared" si="2"/>
         <v>| KAP12_185_2 || Kapitel || 12 || 2 || 185 || 12.2.2 || &lt;html5media&gt;File:KAP12_185_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>191</v>
       </c>
@@ -41106,12 +41124,12 @@
         <f>VLOOKUP(K194,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="N194" t="str">
+      <c r="P194" t="str">
         <f t="shared" si="2"/>
         <v>| KAP13_187 || Kapitel || 13 ||  || 187 || 13 || &lt;html5media&gt;File:KAP13_187.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>192</v>
       </c>
@@ -41146,12 +41164,12 @@
         <f>VLOOKUP(K195,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="N195" t="str">
+      <c r="P195" t="str">
         <f t="shared" si="2"/>
         <v>| KAP13_187_2 || Kapitel || 13 || 2 || 187 || 13 || &lt;html5media&gt;File:KAP13_187_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>193</v>
       </c>
@@ -41186,12 +41204,12 @@
         <f>VLOOKUP(K196,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="N196" t="str">
-        <f t="shared" ref="N196:N259" si="3">_xlfn.CONCAT("| ", B196, " || ", D196, " || ", G196, " || ", I196, " || ", K196, " || ", L196, " || ", "&lt;html5media&gt;File:", C196, "&lt;/html5media&gt;")</f>
+      <c r="P196" t="str">
+        <f t="shared" ref="P196:P259" si="3">_xlfn.CONCAT("| ", B196, " || ", D196, " || ", G196, " || ", I196, " || ", K196, " || ", L196, " || ", "&lt;html5media&gt;File:", C196, "&lt;/html5media&gt;")</f>
         <v>| KAP13_187_3 || Kapitel || 13 || 3 || 187 || 13 || &lt;html5media&gt;File:KAP13_187_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>194</v>
       </c>
@@ -41223,12 +41241,12 @@
         <f>VLOOKUP(K197,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.2.2</v>
       </c>
-      <c r="N197" t="str">
+      <c r="P197" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_188 || Kapitel || 13 ||  || 188 || 13.2.2 || &lt;html5media&gt;File:KAP13_188.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>195</v>
       </c>
@@ -41263,12 +41281,12 @@
         <f>VLOOKUP(K198,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.2.2</v>
       </c>
-      <c r="N198" t="str">
+      <c r="P198" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_188_2 || Kapitel || 13 || 2 || 188 || 13.2.2 || &lt;html5media&gt;File:KAP13_188_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>196</v>
       </c>
@@ -41300,12 +41318,12 @@
         <f>VLOOKUP(K199,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.3</v>
       </c>
-      <c r="N199" t="str">
+      <c r="P199" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_189 || Kapitel || 13 ||  || 189 || 13.3 || &lt;html5media&gt;File:KAP13_189.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>197</v>
       </c>
@@ -41340,12 +41358,12 @@
         <f>VLOOKUP(K200,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.3</v>
       </c>
-      <c r="N200" t="str">
+      <c r="P200" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_189_2 || Kapitel || 13 || 2 || 189 || 13.3 || &lt;html5media&gt;File:KAP13_189_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>198</v>
       </c>
@@ -41380,12 +41398,12 @@
         <f>VLOOKUP(K201,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.3</v>
       </c>
-      <c r="N201" t="str">
+      <c r="P201" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_189_3 || Kapitel || 13 || 3 || 189 || 13.3 || &lt;html5media&gt;File:KAP13_189_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>199</v>
       </c>
@@ -41417,12 +41435,12 @@
         <f>VLOOKUP(K202,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.4</v>
       </c>
-      <c r="N202" t="str">
+      <c r="P202" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_190 || Kapitel || 13 ||  || 190 || 13.4 || &lt;html5media&gt;File:KAP13_190.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>200</v>
       </c>
@@ -41457,12 +41475,12 @@
         <f>VLOOKUP(K203,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.4</v>
       </c>
-      <c r="N203" t="str">
+      <c r="P203" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_190_2 || Kapitel || 13 || 2 || 190 || 13.4 || &lt;html5media&gt;File:KAP13_190_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>201</v>
       </c>
@@ -41497,12 +41515,12 @@
         <f>VLOOKUP(K204,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.4</v>
       </c>
-      <c r="N204" t="str">
+      <c r="P204" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_190_3 || Kapitel || 13 || 3 || 190 || 13.4 || &lt;html5media&gt;File:KAP13_190_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>202</v>
       </c>
@@ -41534,12 +41552,12 @@
         <f>VLOOKUP(K205,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.5.3</v>
       </c>
-      <c r="N205" t="str">
+      <c r="P205" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_191 || Kapitel || 13 ||  || 191 || 13.5.3 || &lt;html5media&gt;File:KAP13_191.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>203</v>
       </c>
@@ -41574,12 +41592,12 @@
         <f>VLOOKUP(K206,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.5.3</v>
       </c>
-      <c r="N206" t="str">
+      <c r="P206" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_191_2 || Kapitel || 13 || 2 || 191 || 13.5.3 || &lt;html5media&gt;File:KAP13_191_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>204</v>
       </c>
@@ -41614,12 +41632,12 @@
         <f>VLOOKUP(K207,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.5.3</v>
       </c>
-      <c r="N207" t="str">
+      <c r="P207" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_191_3 || Kapitel || 13 || 3 || 191 || 13.5.3 || &lt;html5media&gt;File:KAP13_191_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>205</v>
       </c>
@@ -41651,12 +41669,12 @@
         <f>VLOOKUP(K208,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.6.1</v>
       </c>
-      <c r="N208" t="str">
+      <c r="P208" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_192 || Kapitel || 13 ||  || 192 || 13.6.1 || &lt;html5media&gt;File:KAP13_192.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>206</v>
       </c>
@@ -41691,12 +41709,12 @@
         <f>VLOOKUP(K209,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.6.1</v>
       </c>
-      <c r="N209" t="str">
+      <c r="P209" t="str">
         <f t="shared" si="3"/>
         <v>| KAP13_192_2 || Kapitel || 13 || 2 || 192 || 13.6.1 || &lt;html5media&gt;File:KAP13_192_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>207</v>
       </c>
@@ -41728,12 +41746,12 @@
         <f>VLOOKUP(K210,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="N210" t="str">
+      <c r="P210" t="str">
         <f t="shared" si="3"/>
         <v>| KAP14_194 || Kapitel || 14 ||  || 194 || 14 || &lt;html5media&gt;File:KAP14_194.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>208</v>
       </c>
@@ -41768,12 +41786,12 @@
         <f>VLOOKUP(K211,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="N211" t="str">
+      <c r="P211" t="str">
         <f t="shared" si="3"/>
         <v>| KAP14_194_2 || Kapitel || 14 || 2 || 194 || 14 || &lt;html5media&gt;File:KAP14_194_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>209</v>
       </c>
@@ -41808,12 +41826,12 @@
         <f>VLOOKUP(K212,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="N212" t="str">
+      <c r="P212" t="str">
         <f t="shared" si="3"/>
         <v>| KAP14_194_3 || Kapitel || 14 || 3 || 194 || 14 || &lt;html5media&gt;File:KAP14_194_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>210</v>
       </c>
@@ -41845,12 +41863,12 @@
         <f>VLOOKUP(K213,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.3</v>
       </c>
-      <c r="N213" t="str">
+      <c r="P213" t="str">
         <f t="shared" si="3"/>
         <v>| KAP14_195 || Kapitel || 14 ||  || 195 || 12.2.3 || &lt;html5media&gt;File:KAP14_195.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>211</v>
       </c>
@@ -41885,12 +41903,12 @@
         <f>VLOOKUP(K214,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.3</v>
       </c>
-      <c r="N214" t="str">
+      <c r="P214" t="str">
         <f t="shared" si="3"/>
         <v>| KAP14_195_2 || Kapitel || 14 || 2 || 195 || 12.2.3 || &lt;html5media&gt;File:KAP14_195_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>212</v>
       </c>
@@ -41925,12 +41943,12 @@
         <f>VLOOKUP(K215,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.3</v>
       </c>
-      <c r="N215" t="str">
+      <c r="P215" t="str">
         <f t="shared" si="3"/>
         <v>| KAP14_195_3 || Kapitel || 14 || 3 || 195 || 12.2.3 || &lt;html5media&gt;File:KAP14_195_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>213</v>
       </c>
@@ -41962,12 +41980,12 @@
         <f>VLOOKUP(K216,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14.2.1</v>
       </c>
-      <c r="N216" t="str">
+      <c r="P216" t="str">
         <f t="shared" si="3"/>
         <v>| KAP14_196 || Kapitel || 14 ||  || 196 || 14.2.1 || &lt;html5media&gt;File:KAP14_196.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>214</v>
       </c>
@@ -41999,12 +42017,12 @@
         <f>VLOOKUP(K217,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="N217" t="str">
+      <c r="P217" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_201 || Kapitel || 15 ||  || 201 || 15 || &lt;html5media&gt;File:KAP15_201.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>215</v>
       </c>
@@ -42039,12 +42057,12 @@
         <f>VLOOKUP(K218,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="N218" t="str">
+      <c r="P218" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_201_2 || Kapitel || 15 || 2 || 201 || 15 || &lt;html5media&gt;File:KAP15_201_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>216</v>
       </c>
@@ -42079,12 +42097,12 @@
         <f>VLOOKUP(K219,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="N219" t="str">
+      <c r="P219" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_201_3 || Kapitel || 15 || 3 || 201 || 15 || &lt;html5media&gt;File:KAP15_201_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>217</v>
       </c>
@@ -42116,12 +42134,12 @@
         <f>VLOOKUP(K220,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.1.2</v>
       </c>
-      <c r="N220" t="str">
+      <c r="P220" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_202 || Kapitel || 15 ||  || 202 || 15.1.2 || &lt;html5media&gt;File:KAP15_202.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>218</v>
       </c>
@@ -42156,12 +42174,12 @@
         <f>VLOOKUP(K221,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.1.2</v>
       </c>
-      <c r="N221" t="str">
+      <c r="P221" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_202_2 || Kapitel || 15 || 2 || 202 || 15.1.2 || &lt;html5media&gt;File:KAP15_202_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>219</v>
       </c>
@@ -42193,12 +42211,12 @@
         <f>VLOOKUP(K222,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.1.4</v>
       </c>
-      <c r="N222" t="str">
+      <c r="P222" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_203 || Kapitel || 15 ||  || 203 || 15.1.4 || &lt;html5media&gt;File:KAP15_203.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>220</v>
       </c>
@@ -42233,12 +42251,12 @@
         <f>VLOOKUP(K223,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.1.4</v>
       </c>
-      <c r="N223" t="str">
+      <c r="P223" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_203_2 || Kapitel || 15 || 2 || 203 || 15.1.4 || &lt;html5media&gt;File:KAP15_203_2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>221</v>
       </c>
@@ -42273,12 +42291,12 @@
         <f>VLOOKUP(K224,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.1.4</v>
       </c>
-      <c r="N224" t="str">
+      <c r="P224" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_203_3 || Kapitel || 15 || 3 || 203 || 15.1.4 || &lt;html5media&gt;File:KAP15_203_3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>222</v>
       </c>
@@ -42310,12 +42328,12 @@
         <f>VLOOKUP(K225,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.2.2</v>
       </c>
-      <c r="N225" t="str">
+      <c r="P225" t="str">
         <f t="shared" si="3"/>
         <v>| KAP15_204 || Kapitel || 15 ||  || 204 || 15.2.2 || &lt;html5media&gt;File:KAP15_204.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>223</v>
       </c>
@@ -42341,12 +42359,12 @@
         <f>VLOOKUP(K226,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N226" t="str">
+      <c r="P226" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS-SIG || Bokse ||  ||  || 1 || 0 || &lt;html5media&gt;File:BOKS-SIG.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>224</v>
       </c>
@@ -42375,12 +42393,12 @@
         <f>VLOOKUP(K227,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.3</v>
       </c>
-      <c r="N227" t="str">
+      <c r="P227" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS21 || Bokse ||  ||  || 21 || 1.3.3 || &lt;html5media&gt;File:BOKS21.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>225</v>
       </c>
@@ -42412,12 +42430,12 @@
         <f>VLOOKUP(K228,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.3</v>
       </c>
-      <c r="N228" t="str">
+      <c r="P228" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS21B || Bokse ||  || B || 21 || 1.3.3 || &lt;html5media&gt;File:BOKS21B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>226</v>
       </c>
@@ -42446,12 +42464,12 @@
         <f>VLOOKUP(K229,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.4</v>
       </c>
-      <c r="N229" t="str">
+      <c r="P229" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS23 || Bokse ||  ||  || 23 || 1.4 || &lt;html5media&gt;File:BOKS23.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>227</v>
       </c>
@@ -42480,12 +42498,12 @@
         <f>VLOOKUP(K230,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.4</v>
       </c>
-      <c r="N230" t="str">
+      <c r="P230" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS24 || Bokse ||  ||  || 24 || 1.4 || &lt;html5media&gt;File:BOKS24.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>228</v>
       </c>
@@ -42517,12 +42535,12 @@
         <f>VLOOKUP(K231,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.4</v>
       </c>
-      <c r="N231" t="str">
+      <c r="P231" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS24B || Bokse ||  || B || 24 || 1.4 || &lt;html5media&gt;File:BOKS24B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>229</v>
       </c>
@@ -42551,12 +42569,12 @@
         <f>VLOOKUP(K232,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="N232" t="str">
+      <c r="P232" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS26 || Bokse ||  ||  || 26 || 2 || &lt;html5media&gt;File:BOKS26.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>230</v>
       </c>
@@ -42585,12 +42603,12 @@
         <f>VLOOKUP(K233,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="N233" t="str">
+      <c r="P233" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS32 || Bokse ||  ||  || 32 || 3 || &lt;html5media&gt;File:BOKS32.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>231</v>
       </c>
@@ -42619,12 +42637,12 @@
         <f>VLOOKUP(K234,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.7</v>
       </c>
-      <c r="N234" t="str">
+      <c r="P234" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS37 || Bokse ||  ||  || 37 || 3.1.7 || &lt;html5media&gt;File:BOKS37.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>232</v>
       </c>
@@ -42653,12 +42671,12 @@
         <f>VLOOKUP(K235,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.8</v>
       </c>
-      <c r="N235" t="str">
+      <c r="P235" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS39 || Bokse ||  ||  || 39 || 3.1.8 || &lt;html5media&gt;File:BOKS39.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>233</v>
       </c>
@@ -42687,12 +42705,12 @@
         <f>VLOOKUP(K236,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.1</v>
       </c>
-      <c r="N236" t="str">
+      <c r="P236" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS44 || Bokse ||  ||  || 44 || 3.2.1 || &lt;html5media&gt;File:BOKS44.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>234</v>
       </c>
@@ -42721,12 +42739,12 @@
         <f>VLOOKUP(K237,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="N237" t="str">
+      <c r="P237" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS57 || Bokse ||  ||  || 57 || 4 || &lt;html5media&gt;File:BOKS57.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>235</v>
       </c>
@@ -42755,12 +42773,12 @@
         <f>VLOOKUP(K238,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.1.2</v>
       </c>
-      <c r="N238" t="str">
+      <c r="P238" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS58 || Bokse ||  ||  || 58 || 4.1.2 || &lt;html5media&gt;File:BOKS58.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>236</v>
       </c>
@@ -42792,12 +42810,12 @@
         <f>VLOOKUP(K239,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.1.2</v>
       </c>
-      <c r="N239" t="str">
+      <c r="P239" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS58B || Bokse ||  || B || 58 || 4.1.2 || &lt;html5media&gt;File:BOKS58B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>237</v>
       </c>
@@ -42826,12 +42844,12 @@
         <f>VLOOKUP(K240,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.1.3</v>
       </c>
-      <c r="N240" t="str">
+      <c r="P240" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS59 || Bokse ||  ||  || 59 || 4.1.3 || &lt;html5media&gt;File:BOKS59.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>238</v>
       </c>
@@ -42860,12 +42878,12 @@
         <f>VLOOKUP(K241,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.1.4</v>
       </c>
-      <c r="N241" t="str">
+      <c r="P241" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS60 || Bokse ||  ||  || 60 || 4.1.4 || &lt;html5media&gt;File:BOKS60.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>239</v>
       </c>
@@ -42894,12 +42912,12 @@
         <f>VLOOKUP(K242,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2</v>
       </c>
-      <c r="N242" t="str">
+      <c r="P242" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS61 || Bokse ||  ||  || 61 || 4.2 || &lt;html5media&gt;File:BOKS61.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>240</v>
       </c>
@@ -42928,12 +42946,12 @@
         <f>VLOOKUP(K243,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.1</v>
       </c>
-      <c r="N243" t="str">
+      <c r="P243" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS62 || Bokse ||  ||  || 62 || 4.2.1 || &lt;html5media&gt;File:BOKS62.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>241</v>
       </c>
@@ -42965,12 +42983,12 @@
         <f>VLOOKUP(K244,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.3</v>
       </c>
-      <c r="N244" t="str">
+      <c r="P244" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS63A || Bokse ||  || A || 63 || 4.2.3 || &lt;html5media&gt;File:BOKS63A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>242</v>
       </c>
@@ -43002,12 +43020,12 @@
         <f>VLOOKUP(K245,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.3</v>
       </c>
-      <c r="N245" t="str">
+      <c r="P245" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS63B || Bokse ||  || B || 63 || 4.2.3 || &lt;html5media&gt;File:BOKS63B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>243</v>
       </c>
@@ -43036,12 +43054,12 @@
         <f>VLOOKUP(K246,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.4</v>
       </c>
-      <c r="N246" t="str">
+      <c r="P246" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS64 || Bokse ||  ||  || 64 || 4.2.4 || &lt;html5media&gt;File:BOKS64.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>244</v>
       </c>
@@ -43073,12 +43091,12 @@
         <f>VLOOKUP(K247,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.3</v>
       </c>
-      <c r="N247" t="str">
+      <c r="P247" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS66A || Bokse ||  || A || 66 || 4.2.3 || &lt;html5media&gt;File:BOKS66A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>245</v>
       </c>
@@ -43110,12 +43128,12 @@
         <f>VLOOKUP(K248,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.3</v>
       </c>
-      <c r="N248" t="str">
+      <c r="P248" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS66B || Bokse ||  || B || 66 || 4.2.3 || &lt;html5media&gt;File:BOKS66B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>246</v>
       </c>
@@ -43144,12 +43162,12 @@
         <f>VLOOKUP(K249,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="N249" t="str">
+      <c r="P249" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS68 || Bokse ||  ||  || 68 || 5 || &lt;html5media&gt;File:BOKS68.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>247</v>
       </c>
@@ -43178,12 +43196,12 @@
         <f>VLOOKUP(K250,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.1</v>
       </c>
-      <c r="N250" t="str">
+      <c r="P250" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS69 || Bokse ||  ||  || 69 || 5.1.1 || &lt;html5media&gt;File:BOKS69.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>248</v>
       </c>
@@ -43215,12 +43233,12 @@
         <f>VLOOKUP(K251,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.1</v>
       </c>
-      <c r="N251" t="str">
+      <c r="P251" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS70A || Bokse ||  || A || 70 || 5.1.1 || &lt;html5media&gt;File:BOKS70A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>249</v>
       </c>
@@ -43252,12 +43270,12 @@
         <f>VLOOKUP(K252,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.1</v>
       </c>
-      <c r="N252" t="str">
+      <c r="P252" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS70B || Bokse ||  || B || 70 || 5.1.1 || &lt;html5media&gt;File:BOKS70B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>250</v>
       </c>
@@ -43286,12 +43304,12 @@
         <f>VLOOKUP(K253,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.1</v>
       </c>
-      <c r="N253" t="str">
+      <c r="P253" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS71 || Bokse ||  ||  || 71 || 5.1.1 || &lt;html5media&gt;File:BOKS71.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>251</v>
       </c>
@@ -43320,12 +43338,12 @@
         <f>VLOOKUP(K254,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.4</v>
       </c>
-      <c r="N254" t="str">
+      <c r="P254" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS72 || Bokse ||  ||  || 72 || 5.1.4 || &lt;html5media&gt;File:BOKS72.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>252</v>
       </c>
@@ -43354,12 +43372,12 @@
         <f>VLOOKUP(K255,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.1</v>
       </c>
-      <c r="N255" t="str">
+      <c r="P255" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS74 || Bokse ||  ||  || 74 || 5.2.1 || &lt;html5media&gt;File:BOKS74.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>253</v>
       </c>
@@ -43388,12 +43406,12 @@
         <f>VLOOKUP(K256,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N256" t="str">
+      <c r="P256" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS77 || Bokse ||  ||  || 77 || 5.2.2 || &lt;html5media&gt;File:BOKS77.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>254</v>
       </c>
@@ -43425,12 +43443,12 @@
         <f>VLOOKUP(K257,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N257" t="str">
+      <c r="P257" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS80A || Bokse ||  || A || 80 || 5.2.2 || &lt;html5media&gt;File:BOKS80A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>255</v>
       </c>
@@ -43462,12 +43480,12 @@
         <f>VLOOKUP(K258,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N258" t="str">
+      <c r="P258" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS80B || Bokse ||  || B || 80 || 5.2.2 || &lt;html5media&gt;File:BOKS80B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>256</v>
       </c>
@@ -43496,12 +43514,12 @@
         <f>VLOOKUP(K259,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N259" t="str">
+      <c r="P259" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS81 || Bokse ||  ||  || 81 || 5.2.2 || &lt;html5media&gt;File:BOKS81.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>257</v>
       </c>
@@ -43530,12 +43548,12 @@
         <f>VLOOKUP(K260,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N260" t="str">
-        <f t="shared" ref="N260:N323" si="4">_xlfn.CONCAT("| ", B260, " || ", D260, " || ", G260, " || ", I260, " || ", K260, " || ", L260, " || ", "&lt;html5media&gt;File:", C260, "&lt;/html5media&gt;")</f>
+      <c r="P260" t="str">
+        <f t="shared" ref="P260:P323" si="4">_xlfn.CONCAT("| ", B260, " || ", D260, " || ", G260, " || ", I260, " || ", K260, " || ", L260, " || ", "&lt;html5media&gt;File:", C260, "&lt;/html5media&gt;")</f>
         <v>| BOKS82 || Bokse ||  ||  || 82 || 5.2.2 || &lt;html5media&gt;File:BOKS82.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>258</v>
       </c>
@@ -43564,12 +43582,12 @@
         <f>VLOOKUP(K261,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="N261" t="str">
+      <c r="P261" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS83 || Bokse ||  ||  || 83 || 6 || &lt;html5media&gt;File:BOKS83.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>259</v>
       </c>
@@ -43598,12 +43616,12 @@
         <f>VLOOKUP(K262,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.1</v>
       </c>
-      <c r="N262" t="str">
+      <c r="P262" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS84 || Bokse ||  ||  || 84 || 6.1.1 || &lt;html5media&gt;File:BOKS84.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>260</v>
       </c>
@@ -43635,12 +43653,12 @@
         <f>VLOOKUP(K263,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.1</v>
       </c>
-      <c r="N263" t="str">
+      <c r="P263" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS84B || Bokse ||  || B || 84 || 6.1.1 || &lt;html5media&gt;File:BOKS84B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>261</v>
       </c>
@@ -43669,12 +43687,12 @@
         <f>VLOOKUP(K264,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.2</v>
       </c>
-      <c r="N264" t="str">
+      <c r="P264" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS85 || Bokse ||  ||  || 85 || 6.1.2 || &lt;html5media&gt;File:BOKS85.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>262</v>
       </c>
@@ -43703,12 +43721,12 @@
         <f>VLOOKUP(K265,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.4</v>
       </c>
-      <c r="N265" t="str">
+      <c r="P265" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS86 || Bokse ||  ||  || 86 || 6.1.4 || &lt;html5media&gt;File:BOKS86.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>263</v>
       </c>
@@ -43740,12 +43758,12 @@
         <f>VLOOKUP(K266,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.4</v>
       </c>
-      <c r="N266" t="str">
+      <c r="P266" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS86B || Bokse ||  || B || 86 || 6.1.4 || &lt;html5media&gt;File:BOKS86B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>264</v>
       </c>
@@ -43774,12 +43792,12 @@
         <f>VLOOKUP(K267,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.5</v>
       </c>
-      <c r="N267" t="str">
+      <c r="P267" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS87 || Bokse ||  ||  || 87 || 6.1.5 || &lt;html5media&gt;File:BOKS87.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>265</v>
       </c>
@@ -43808,12 +43826,12 @@
         <f>VLOOKUP(K268,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.5</v>
       </c>
-      <c r="N268" t="str">
+      <c r="P268" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS88 || Bokse ||  ||  || 88 || 6.1.5 || &lt;html5media&gt;File:BOKS88.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>266</v>
       </c>
@@ -43845,12 +43863,12 @@
         <f>VLOOKUP(K269,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.1.5</v>
       </c>
-      <c r="N269" t="str">
+      <c r="P269" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS88B || Bokse ||  || B || 88 || 6.1.5 || &lt;html5media&gt;File:BOKS88B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>267</v>
       </c>
@@ -43879,12 +43897,12 @@
         <f>VLOOKUP(K270,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2</v>
       </c>
-      <c r="N270" t="str">
+      <c r="P270" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS89 || Bokse ||  ||  || 89 || 6.2 || &lt;html5media&gt;File:BOKS89.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>268</v>
       </c>
@@ -43913,12 +43931,12 @@
         <f>VLOOKUP(K271,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2</v>
       </c>
-      <c r="N271" t="str">
+      <c r="P271" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS90 || Bokse ||  ||  || 90 || 6.2 || &lt;html5media&gt;File:BOKS90.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>269</v>
       </c>
@@ -43947,12 +43965,12 @@
         <f>VLOOKUP(K272,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.1</v>
       </c>
-      <c r="N272" t="str">
+      <c r="P272" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS91 || Bokse ||  ||  || 91 || 6.2.1 || &lt;html5media&gt;File:BOKS91.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>270</v>
       </c>
@@ -43981,12 +43999,12 @@
         <f>VLOOKUP(K273,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.2</v>
       </c>
-      <c r="N273" t="str">
+      <c r="P273" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS93 || Bokse ||  ||  || 93 || 6.2.2 || &lt;html5media&gt;File:BOKS93.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>271</v>
       </c>
@@ -44015,12 +44033,12 @@
         <f>VLOOKUP(K274,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.4</v>
       </c>
-      <c r="N274" t="str">
+      <c r="P274" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS95 || Bokse ||  ||  || 95 || 6.2.4 || &lt;html5media&gt;File:BOKS95.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>272</v>
       </c>
@@ -44049,12 +44067,12 @@
         <f>VLOOKUP(K275,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.4</v>
       </c>
-      <c r="N275" t="str">
+      <c r="P275" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS96 || Bokse ||  ||  || 96 || 6.2.4 || &lt;html5media&gt;File:BOKS96.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>273</v>
       </c>
@@ -44083,12 +44101,12 @@
         <f>VLOOKUP(K276,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="N276" t="str">
+      <c r="P276" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS97 || Bokse ||  ||  || 97 || 7 || &lt;html5media&gt;File:BOKS97.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>274</v>
       </c>
@@ -44117,12 +44135,12 @@
         <f>VLOOKUP(K277,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.1</v>
       </c>
-      <c r="N277" t="str">
+      <c r="P277" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS98 || Bokse ||  ||  || 98 || 7.1.1 || &lt;html5media&gt;File:BOKS98.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>275</v>
       </c>
@@ -44151,12 +44169,12 @@
         <f>VLOOKUP(K278,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.3</v>
       </c>
-      <c r="N278" t="str">
+      <c r="P278" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS99 || Bokse ||  ||  || 99 || 7.1.3 || &lt;html5media&gt;File:BOKS99.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>276</v>
       </c>
@@ -44185,12 +44203,12 @@
         <f>VLOOKUP(K279,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.3</v>
       </c>
-      <c r="N279" t="str">
+      <c r="P279" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS100 || Bokse ||  ||  || 100 || 7.1.3 || &lt;html5media&gt;File:BOKS100.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>277</v>
       </c>
@@ -44219,12 +44237,12 @@
         <f>VLOOKUP(K280,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.5</v>
       </c>
-      <c r="N280" t="str">
+      <c r="P280" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS101 || Bokse ||  ||  || 101 || 7.1.5 || &lt;html5media&gt;File:BOKS101.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>278</v>
       </c>
@@ -44256,12 +44274,12 @@
         <f>VLOOKUP(K281,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.5</v>
       </c>
-      <c r="N281" t="str">
+      <c r="P281" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS102A || Bokse ||  || A || 102 || 7.1.5 || &lt;html5media&gt;File:BOKS102A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>279</v>
       </c>
@@ -44293,12 +44311,12 @@
         <f>VLOOKUP(K282,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.5</v>
       </c>
-      <c r="N282" t="str">
+      <c r="P282" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS102B || Bokse ||  || B || 102 || 7.1.5 || &lt;html5media&gt;File:BOKS102B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>280</v>
       </c>
@@ -44327,12 +44345,12 @@
         <f>VLOOKUP(K283,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.6</v>
       </c>
-      <c r="N283" t="str">
+      <c r="P283" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS103 || Bokse ||  ||  || 103 || 7.1.6 || &lt;html5media&gt;File:BOKS103.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>281</v>
       </c>
@@ -44361,12 +44379,12 @@
         <f>VLOOKUP(K284,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N284" t="str">
+      <c r="P284" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS106 || Bokse ||  ||  || 106 || 7.2.2 || &lt;html5media&gt;File:BOKS106.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>282</v>
       </c>
@@ -44395,12 +44413,12 @@
         <f>VLOOKUP(K285,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N285" t="str">
+      <c r="P285" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS107 || Bokse ||  ||  || 107 || 7.2.2 || &lt;html5media&gt;File:BOKS107.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>283</v>
       </c>
@@ -44429,12 +44447,12 @@
         <f>VLOOKUP(K286,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N286" t="str">
+      <c r="P286" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS109 || Bokse ||  ||  || 109 || 7.2.2 || &lt;html5media&gt;File:BOKS109.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>284</v>
       </c>
@@ -44463,12 +44481,12 @@
         <f>VLOOKUP(K287,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N287" t="str">
+      <c r="P287" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS111 || Bokse ||  ||  || 111 || 7.2.2 || &lt;html5media&gt;File:BOKS111.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>285</v>
       </c>
@@ -44497,12 +44515,12 @@
         <f>VLOOKUP(K288,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.3</v>
       </c>
-      <c r="N288" t="str">
+      <c r="P288" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS112 || Bokse ||  ||  || 112 || 7.2.3 || &lt;html5media&gt;File:BOKS112.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>286</v>
       </c>
@@ -44531,12 +44549,12 @@
         <f>VLOOKUP(K289,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.4</v>
       </c>
-      <c r="N289" t="str">
+      <c r="P289" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS113 || Bokse ||  ||  || 113 || 7.2.4 || &lt;html5media&gt;File:BOKS113.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>287</v>
       </c>
@@ -44565,12 +44583,12 @@
         <f>VLOOKUP(K290,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.2</v>
       </c>
-      <c r="N290" t="str">
+      <c r="P290" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS117 || Bokse ||  ||  || 117 || 8.1.2 || &lt;html5media&gt;File:BOKS117.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>288</v>
       </c>
@@ -44602,12 +44620,12 @@
         <f>VLOOKUP(K291,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.2</v>
       </c>
-      <c r="N291" t="str">
+      <c r="P291" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS117B || Bokse ||  || B || 117 || 8.1.2 || &lt;html5media&gt;File:BOKS117B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>289</v>
       </c>
@@ -44636,12 +44654,12 @@
         <f>VLOOKUP(K292,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.3</v>
       </c>
-      <c r="N292" t="str">
+      <c r="P292" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS118 || Bokse ||  ||  || 118 || 8.1.3 || &lt;html5media&gt;File:BOKS118.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>290</v>
       </c>
@@ -44670,12 +44688,12 @@
         <f>VLOOKUP(K293,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.4</v>
       </c>
-      <c r="N293" t="str">
+      <c r="P293" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS119 || Bokse ||  ||  || 119 || 8.1.4 || &lt;html5media&gt;File:BOKS119.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>291</v>
       </c>
@@ -44704,12 +44722,12 @@
         <f>VLOOKUP(K294,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.6</v>
       </c>
-      <c r="N294" t="str">
+      <c r="P294" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS120 || Bokse ||  ||  || 120 || 8.1.6 || &lt;html5media&gt;File:BOKS120.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>292</v>
       </c>
@@ -44741,12 +44759,12 @@
         <f>VLOOKUP(K295,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.6</v>
       </c>
-      <c r="N295" t="str">
+      <c r="P295" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS121A || Bokse ||  || A || 121 || 8.1.6 || &lt;html5media&gt;File:BOKS121A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>293</v>
       </c>
@@ -44778,12 +44796,12 @@
         <f>VLOOKUP(K296,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.6</v>
       </c>
-      <c r="N296" t="str">
+      <c r="P296" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS121B || Bokse ||  || B || 121 || 8.1.6 || &lt;html5media&gt;File:BOKS121B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>294</v>
       </c>
@@ -44812,12 +44830,12 @@
         <f>VLOOKUP(K297,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.8</v>
       </c>
-      <c r="N297" t="str">
+      <c r="P297" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS123 || Bokse ||  ||  || 123 || 8.1.8 || &lt;html5media&gt;File:BOKS123.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>295</v>
       </c>
@@ -44846,12 +44864,12 @@
         <f>VLOOKUP(K298,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="N298" t="str">
+      <c r="P298" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS127 || Bokse ||  ||  || 127 || 9 || &lt;html5media&gt;File:BOKS127.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>296</v>
       </c>
@@ -44883,12 +44901,12 @@
         <f>VLOOKUP(K299,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.1</v>
       </c>
-      <c r="N299" t="str">
+      <c r="P299" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS128A || Bokse ||  || A || 128 || 9.1.1 || &lt;html5media&gt;File:BOKS128A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>297</v>
       </c>
@@ -44920,12 +44938,12 @@
         <f>VLOOKUP(K300,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.1</v>
       </c>
-      <c r="N300" t="str">
+      <c r="P300" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS128B || Bokse ||  || B || 128 || 9.1.1 || &lt;html5media&gt;File:BOKS128B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>298</v>
       </c>
@@ -44954,12 +44972,12 @@
         <f>VLOOKUP(K301,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.2</v>
       </c>
-      <c r="N301" t="str">
+      <c r="P301" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS129 || Bokse ||  ||  || 129 || 9.1.2 || &lt;html5media&gt;File:BOKS129.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>299</v>
       </c>
@@ -44991,12 +45009,12 @@
         <f>VLOOKUP(K302,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.4</v>
       </c>
-      <c r="N302" t="str">
+      <c r="P302" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS130A || Bokse ||  || A || 130 || 9.1.4 || &lt;html5media&gt;File:BOKS130A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>300</v>
       </c>
@@ -45028,12 +45046,12 @@
         <f>VLOOKUP(K303,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.1.4</v>
       </c>
-      <c r="N303" t="str">
+      <c r="P303" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS130B || Bokse ||  || B || 130 || 9.1.4 || &lt;html5media&gt;File:BOKS130B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>301</v>
       </c>
@@ -45062,12 +45080,12 @@
         <f>VLOOKUP(K304,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N304" t="str">
+      <c r="P304" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS132 || Bokse ||  ||  || 132 || 9.2 || &lt;html5media&gt;File:BOKS132.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>302</v>
       </c>
@@ -45096,12 +45114,12 @@
         <f>VLOOKUP(K305,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N305" t="str">
+      <c r="P305" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS133 || Bokse ||  ||  || 133 || 9.2 || &lt;html5media&gt;File:BOKS133.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>303</v>
       </c>
@@ -45130,12 +45148,12 @@
         <f>VLOOKUP(K306,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="N306" t="str">
+      <c r="P306" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS136 || Bokse ||  ||  || 136 || 10 || &lt;html5media&gt;File:BOKS136.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>304</v>
       </c>
@@ -45164,12 +45182,12 @@
         <f>VLOOKUP(K307,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.1.1</v>
       </c>
-      <c r="N307" t="str">
+      <c r="P307" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS137 || Bokse ||  ||  || 137 || 10.1.1 || &lt;html5media&gt;File:BOKS137.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>305</v>
       </c>
@@ -45198,12 +45216,12 @@
         <f>VLOOKUP(K308,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.1.3</v>
       </c>
-      <c r="N308" t="str">
+      <c r="P308" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS139 || Bokse ||  ||  || 139 || 10.1.3 || &lt;html5media&gt;File:BOKS139.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>306</v>
       </c>
@@ -45235,12 +45253,12 @@
         <f>VLOOKUP(K309,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.1.3</v>
       </c>
-      <c r="N309" t="str">
+      <c r="P309" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS139B || Bokse ||  || B || 139 || 10.1.3 || &lt;html5media&gt;File:BOKS139B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>307</v>
       </c>
@@ -45269,12 +45287,12 @@
         <f>VLOOKUP(K310,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.5</v>
       </c>
-      <c r="N310" t="str">
+      <c r="P310" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS143 || Bokse ||  ||  || 143 || 10.2.5 || &lt;html5media&gt;File:BOKS143.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>308</v>
       </c>
@@ -45303,12 +45321,12 @@
         <f>VLOOKUP(K311,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N311" t="str">
+      <c r="P311" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS149 || Bokse ||  ||  || 149 || 10.2.9 || &lt;html5media&gt;File:BOKS149.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>309</v>
       </c>
@@ -45337,12 +45355,12 @@
         <f>VLOOKUP(K312,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N312" t="str">
+      <c r="P312" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS15 || Bokse ||  ||  || 15 || 1 || &lt;html5media&gt;File:BOKS15.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>310</v>
       </c>
@@ -45371,12 +45389,12 @@
         <f>VLOOKUP(K313,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.1</v>
       </c>
-      <c r="N313" t="str">
+      <c r="P313" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS155 || Bokse ||  ||  || 155 || 11.1.1 || &lt;html5media&gt;File:BOKS155.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>311</v>
       </c>
@@ -45408,12 +45426,12 @@
         <f>VLOOKUP(K314,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.1</v>
       </c>
-      <c r="N314" t="str">
+      <c r="P314" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS155B || Bokse ||  || B || 155 || 11.1.1 || &lt;html5media&gt;File:BOKS155B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>312</v>
       </c>
@@ -45442,12 +45460,12 @@
         <f>VLOOKUP(K315,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.2</v>
       </c>
-      <c r="N315" t="str">
+      <c r="P315" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS156 || Bokse ||  ||  || 156 || 11.1.2 || &lt;html5media&gt;File:BOKS156.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>313</v>
       </c>
@@ -45476,12 +45494,12 @@
         <f>VLOOKUP(K316,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.2</v>
       </c>
-      <c r="N316" t="str">
+      <c r="P316" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS157 || Bokse ||  ||  || 157 || 11.1.2 || &lt;html5media&gt;File:BOKS157.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>314</v>
       </c>
@@ -45513,12 +45531,12 @@
         <f>VLOOKUP(K317,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.2</v>
       </c>
-      <c r="N317" t="str">
+      <c r="P317" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS157B || Bokse ||  || B || 157 || 11.1.2 || &lt;html5media&gt;File:BOKS157B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>315</v>
       </c>
@@ -45547,12 +45565,12 @@
         <f>VLOOKUP(K318,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.4</v>
       </c>
-      <c r="N318" t="str">
+      <c r="P318" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS158 || Bokse ||  ||  || 158 || 11.1.4 || &lt;html5media&gt;File:BOKS158.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>316</v>
       </c>
@@ -45581,12 +45599,12 @@
         <f>VLOOKUP(K319,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.5</v>
       </c>
-      <c r="N319" t="str">
+      <c r="P319" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS159 || Bokse ||  ||  || 159 || 11.1.5 || &lt;html5media&gt;File:BOKS159.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>317</v>
       </c>
@@ -45618,12 +45636,12 @@
         <f>VLOOKUP(K320,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.5</v>
       </c>
-      <c r="N320" t="str">
+      <c r="P320" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS159B || Bokse ||  || B || 159 || 11.1.5 || &lt;html5media&gt;File:BOKS159B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>318</v>
       </c>
@@ -45655,12 +45673,12 @@
         <f>VLOOKUP(K321,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.6</v>
       </c>
-      <c r="N321" t="str">
+      <c r="P321" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS160A || Bokse ||  || A || 160 || 11.1.6 || &lt;html5media&gt;File:BOKS160A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>319</v>
       </c>
@@ -45692,12 +45710,12 @@
         <f>VLOOKUP(K322,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.1.6</v>
       </c>
-      <c r="N322" t="str">
+      <c r="P322" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS160B || Bokse ||  || B || 160 || 11.1.6 || &lt;html5media&gt;File:BOKS160B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>320</v>
       </c>
@@ -45726,12 +45744,12 @@
         <f>VLOOKUP(K323,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2</v>
       </c>
-      <c r="N323" t="str">
+      <c r="P323" t="str">
         <f t="shared" si="4"/>
         <v>| BOKS162 || Bokse ||  ||  || 162 || 11.2 || &lt;html5media&gt;File:BOKS162.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>321</v>
       </c>
@@ -45760,12 +45778,12 @@
         <f>VLOOKUP(K324,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.2</v>
       </c>
-      <c r="N324" t="str">
-        <f t="shared" ref="N324:N387" si="5">_xlfn.CONCAT("| ", B324, " || ", D324, " || ", G324, " || ", I324, " || ", K324, " || ", L324, " || ", "&lt;html5media&gt;File:", C324, "&lt;/html5media&gt;")</f>
+      <c r="P324" t="str">
+        <f t="shared" ref="P324:P387" si="5">_xlfn.CONCAT("| ", B324, " || ", D324, " || ", G324, " || ", I324, " || ", K324, " || ", L324, " || ", "&lt;html5media&gt;File:", C324, "&lt;/html5media&gt;")</f>
         <v>| BOKS163 || Bokse ||  ||  || 163 || 11.2.2 || &lt;html5media&gt;File:BOKS163.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>322</v>
       </c>
@@ -45797,12 +45815,12 @@
         <f>VLOOKUP(K325,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.2</v>
       </c>
-      <c r="N325" t="str">
+      <c r="P325" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS163B || Bokse ||  || B || 163 || 11.2.2 || &lt;html5media&gt;File:BOKS163B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>323</v>
       </c>
@@ -45831,12 +45849,12 @@
         <f>VLOOKUP(K326,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.3</v>
       </c>
-      <c r="N326" t="str">
+      <c r="P326" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS164 || Bokse ||  ||  || 164 || 11.2.3 || &lt;html5media&gt;File:BOKS164.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>324</v>
       </c>
@@ -45865,12 +45883,12 @@
         <f>VLOOKUP(K327,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.4</v>
       </c>
-      <c r="N327" t="str">
+      <c r="P327" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS165 || Bokse ||  ||  || 165 || 11.2.4 || &lt;html5media&gt;File:BOKS165.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>325</v>
       </c>
@@ -45899,12 +45917,12 @@
         <f>VLOOKUP(K328,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.5</v>
       </c>
-      <c r="N328" t="str">
+      <c r="P328" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS166 || Bokse ||  ||  || 166 || 11.2.5 || &lt;html5media&gt;File:BOKS166.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>326</v>
       </c>
@@ -45933,12 +45951,12 @@
         <f>VLOOKUP(K329,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2.2</v>
       </c>
-      <c r="N329" t="str">
+      <c r="P329" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS17 || Bokse ||  ||  || 17 || 1.2.2 || &lt;html5media&gt;File:BOKS17.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>327</v>
       </c>
@@ -45967,12 +45985,12 @@
         <f>VLOOKUP(K330,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N330" t="str">
+      <c r="P330" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS170 || Bokse ||  ||  || 170 || 11.2.6 || &lt;html5media&gt;File:BOKS170.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>328</v>
       </c>
@@ -46001,12 +46019,12 @@
         <f>VLOOKUP(K331,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N331" t="str">
+      <c r="P331" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS171 || Bokse ||  ||  || 171 || 11.2.6 || &lt;html5media&gt;File:BOKS171.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>329</v>
       </c>
@@ -46038,12 +46056,12 @@
         <f>VLOOKUP(K332,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N332" t="str">
+      <c r="P332" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS171B || Bokse ||  || B || 171 || 11.2.6 || &lt;html5media&gt;File:BOKS171B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>330</v>
       </c>
@@ -46072,12 +46090,12 @@
         <f>VLOOKUP(K333,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N333" t="str">
+      <c r="P333" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS172 || Bokse ||  ||  || 172 || 11.2.6 || &lt;html5media&gt;File:BOKS172.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>331</v>
       </c>
@@ -46106,12 +46124,12 @@
         <f>VLOOKUP(K334,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.7</v>
       </c>
-      <c r="N334" t="str">
+      <c r="P334" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS177 || Bokse ||  ||  || 177 || 11.2.7 || &lt;html5media&gt;File:BOKS177.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>332</v>
       </c>
@@ -46140,12 +46158,12 @@
         <f>VLOOKUP(K335,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="N335" t="str">
+      <c r="P335" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS178 || Bokse ||  ||  || 178 || 12 || &lt;html5media&gt;File:BOKS178.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>333</v>
       </c>
@@ -46177,12 +46195,12 @@
         <f>VLOOKUP(K336,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1</v>
       </c>
-      <c r="N336" t="str">
+      <c r="P336" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS179A || Bokse ||  || A || 179 || 12.1 || &lt;html5media&gt;File:BOKS179A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>334</v>
       </c>
@@ -46214,12 +46232,12 @@
         <f>VLOOKUP(K337,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1</v>
       </c>
-      <c r="N337" t="str">
+      <c r="P337" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS179B || Bokse ||  || B || 179 || 12.1 || &lt;html5media&gt;File:BOKS179B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>335</v>
       </c>
@@ -46251,12 +46269,12 @@
         <f>VLOOKUP(K338,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2.2</v>
       </c>
-      <c r="N338" t="str">
+      <c r="P338" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS17B || Bokse ||  || B || 17 || 1.2.2 || &lt;html5media&gt;File:BOKS17B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>336</v>
       </c>
@@ -46285,12 +46303,12 @@
         <f>VLOOKUP(K339,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2.3</v>
       </c>
-      <c r="N339" t="str">
+      <c r="P339" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS18 || Bokse ||  ||  || 18 || 1.2.3 || &lt;html5media&gt;File:BOKS18.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>337</v>
       </c>
@@ -46319,12 +46337,12 @@
         <f>VLOOKUP(K340,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1.1</v>
       </c>
-      <c r="N340" t="str">
+      <c r="P340" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS180 || Bokse ||  ||  || 180 || 12.1.1 || &lt;html5media&gt;File:BOKS180.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>338</v>
       </c>
@@ -46353,12 +46371,12 @@
         <f>VLOOKUP(K341,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.1.2</v>
       </c>
-      <c r="N341" t="str">
+      <c r="P341" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS181 || Bokse ||  ||  || 181 || 12.1.2 || &lt;html5media&gt;File:BOKS181.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>339</v>
       </c>
@@ -46387,12 +46405,12 @@
         <f>VLOOKUP(K342,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.1</v>
       </c>
-      <c r="N342" t="str">
+      <c r="P342" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS183 || Bokse ||  ||  || 183 || 12.2.1 || &lt;html5media&gt;File:BOKS183.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>340</v>
       </c>
@@ -46421,12 +46439,12 @@
         <f>VLOOKUP(K343,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.2</v>
       </c>
-      <c r="N343" t="str">
+      <c r="P343" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS185 || Bokse ||  ||  || 185 || 12.2.2 || &lt;html5media&gt;File:BOKS185.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>341</v>
       </c>
@@ -46455,12 +46473,12 @@
         <f>VLOOKUP(K344,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.2.2</v>
       </c>
-      <c r="N344" t="str">
+      <c r="P344" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS188 || Bokse ||  ||  || 188 || 13.2.2 || &lt;html5media&gt;File:BOKS188.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>342</v>
       </c>
@@ -46492,12 +46510,12 @@
         <f>VLOOKUP(K345,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.2.2</v>
       </c>
-      <c r="N345" t="str">
+      <c r="P345" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS188B || Bokse ||  || B || 188 || 13.2.2 || &lt;html5media&gt;File:BOKS188B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>343</v>
       </c>
@@ -46526,12 +46544,12 @@
         <f>VLOOKUP(K346,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.4</v>
       </c>
-      <c r="N346" t="str">
+      <c r="P346" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS190 || Bokse ||  ||  || 190 || 13.4 || &lt;html5media&gt;File:BOKS190.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>344</v>
       </c>
@@ -46560,12 +46578,12 @@
         <f>VLOOKUP(K347,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.5.3</v>
       </c>
-      <c r="N347" t="str">
+      <c r="P347" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS191 || Bokse ||  ||  || 191 || 13.5.3 || &lt;html5media&gt;File:BOKS191.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>345</v>
       </c>
@@ -46594,12 +46612,12 @@
         <f>VLOOKUP(K348,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.6.1</v>
       </c>
-      <c r="N348" t="str">
+      <c r="P348" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS193 || Bokse ||  ||  || 193 || 13.6.1 || &lt;html5media&gt;File:BOKS193.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>346</v>
       </c>
@@ -46628,12 +46646,12 @@
         <f>VLOOKUP(K349,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="N349" t="str">
+      <c r="P349" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS194 || Bokse ||  ||  || 194 || 14 || &lt;html5media&gt;File:BOKS194.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>347</v>
       </c>
@@ -46662,12 +46680,12 @@
         <f>VLOOKUP(K350,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.3</v>
       </c>
-      <c r="N350" t="str">
+      <c r="P350" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS195 || Bokse ||  ||  || 195 || 12.2.3 || &lt;html5media&gt;File:BOKS195.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>348</v>
       </c>
@@ -46699,12 +46717,12 @@
         <f>VLOOKUP(K351,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14.2.1</v>
       </c>
-      <c r="N351" t="str">
+      <c r="P351" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS196A || Bokse ||  || A || 196 || 14.2.1 || &lt;html5media&gt;File:BOKS196A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>349</v>
       </c>
@@ -46736,12 +46754,12 @@
         <f>VLOOKUP(K352,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14.2.1</v>
       </c>
-      <c r="N352" t="str">
+      <c r="P352" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS196B || Bokse ||  || B || 196 || 14.2.1 || &lt;html5media&gt;File:BOKS196B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>350</v>
       </c>
@@ -46770,12 +46788,12 @@
         <f>VLOOKUP(K353,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="N353" t="str">
+      <c r="P353" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS201 || Bokse ||  ||  || 201 || 15 || &lt;html5media&gt;File:BOKS201.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>351</v>
       </c>
@@ -46804,12 +46822,12 @@
         <f>VLOOKUP(K354,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.1.2</v>
       </c>
-      <c r="N354" t="str">
+      <c r="P354" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS202 || Bokse ||  ||  || 202 || 15.1.2 || &lt;html5media&gt;File:BOKS202.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>352</v>
       </c>
@@ -46838,12 +46856,12 @@
         <f>VLOOKUP(K355,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.1.4</v>
       </c>
-      <c r="N355" t="str">
+      <c r="P355" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS203 || Bokse ||  ||  || 203 || 15.1.4 || &lt;html5media&gt;File:BOKS203.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>353</v>
       </c>
@@ -46872,12 +46890,12 @@
         <f>VLOOKUP(K356,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.2.2</v>
       </c>
-      <c r="N356" t="str">
+      <c r="P356" t="str">
         <f t="shared" si="5"/>
         <v>| BOKS205 || Bokse ||  ||  || 205 || 15.2.2 || &lt;html5media&gt;File:BOKS205.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>354</v>
       </c>
@@ -46909,12 +46927,12 @@
         <f>VLOOKUP(K357,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.3</v>
       </c>
-      <c r="N357" t="str">
+      <c r="P357" t="str">
         <f t="shared" si="5"/>
         <v>| FIG4-1 || Figur || 4 || 1 || 65 || 4.2.3 || &lt;html5media&gt;File:FIG4-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>355</v>
       </c>
@@ -46946,12 +46964,12 @@
         <f>VLOOKUP(K358,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>4.2.3</v>
       </c>
-      <c r="N358" t="str">
+      <c r="P358" t="str">
         <f t="shared" si="5"/>
         <v>| FIG4-2 || Figur || 4 || 2 || 65 || 4.2.3 || &lt;html5media&gt;File:FIG4-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>356</v>
       </c>
@@ -46983,12 +47001,12 @@
         <f>VLOOKUP(K359,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.1.1</v>
       </c>
-      <c r="N359" t="str">
+      <c r="P359" t="str">
         <f t="shared" si="5"/>
         <v>| FIG5-1 || Figur || 5 || 1 || 70 || 5.1.1 || &lt;html5media&gt;File:FIG5-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>357</v>
       </c>
@@ -47020,12 +47038,12 @@
         <f>VLOOKUP(K360,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N360" t="str">
+      <c r="P360" t="str">
         <f t="shared" si="5"/>
         <v>| FIG5-2 || Figur || 5 || 2 || 75 || 5.2.2 || &lt;html5media&gt;File:FIG5-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>358</v>
       </c>
@@ -47057,12 +47075,12 @@
         <f>VLOOKUP(K361,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N361" t="str">
+      <c r="P361" t="str">
         <f t="shared" si="5"/>
         <v>| FIG5-3 || Figur || 5 || 3 || 75 || 5.2.2 || &lt;html5media&gt;File:FIG5-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>359</v>
       </c>
@@ -47094,12 +47112,12 @@
         <f>VLOOKUP(K362,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N362" t="str">
+      <c r="P362" t="str">
         <f t="shared" si="5"/>
         <v>| FIG5-4 || Figur || 5 || 4 || 76 || 5.2.2 || &lt;html5media&gt;File:FIG5-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>360</v>
       </c>
@@ -47131,12 +47149,12 @@
         <f>VLOOKUP(K363,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N363" t="str">
+      <c r="P363" t="str">
         <f t="shared" si="5"/>
         <v>| FIG5-5 || Figur || 5 || 5 || 77 || 5.2.2 || &lt;html5media&gt;File:FIG5-5.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>361</v>
       </c>
@@ -47168,12 +47186,12 @@
         <f>VLOOKUP(K364,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N364" t="str">
+      <c r="P364" t="str">
         <f t="shared" si="5"/>
         <v>| FIG5-6 || Figur || 5 || 6 || 79 || 5.2.2 || &lt;html5media&gt;File:FIG5-6.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>362</v>
       </c>
@@ -47205,12 +47223,12 @@
         <f>VLOOKUP(K365,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>5.2.2</v>
       </c>
-      <c r="N365" t="str">
+      <c r="P365" t="str">
         <f t="shared" si="5"/>
         <v>| FIG5-7 || Figur || 5 || 7 || 79 || 5.2.2 || &lt;html5media&gt;File:FIG5-7.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>363</v>
       </c>
@@ -47242,12 +47260,12 @@
         <f>VLOOKUP(K366,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.2</v>
       </c>
-      <c r="N366" t="str">
+      <c r="P366" t="str">
         <f t="shared" si="5"/>
         <v>| FIG6-1 || Figur || 6 || 1 || 92 || 6.2.2 || &lt;html5media&gt;File:FIG6-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>364</v>
       </c>
@@ -47279,12 +47297,12 @@
         <f>VLOOKUP(K367,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.2</v>
       </c>
-      <c r="N367" t="str">
+      <c r="P367" t="str">
         <f t="shared" si="5"/>
         <v>| FIG6-2 || Figur || 6 || 2 || 93 || 6.2.2 || &lt;html5media&gt;File:FIG6-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>365</v>
       </c>
@@ -47316,12 +47334,12 @@
         <f>VLOOKUP(K368,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.2</v>
       </c>
-      <c r="N368" t="str">
+      <c r="P368" t="str">
         <f t="shared" si="5"/>
         <v>| FIG6-3 || Figur || 6 || 3 || 93 || 6.2.2 || &lt;html5media&gt;File:FIG6-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>366</v>
       </c>
@@ -47353,12 +47371,12 @@
         <f>VLOOKUP(K369,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>6.2.4</v>
       </c>
-      <c r="N369" t="str">
+      <c r="P369" t="str">
         <f t="shared" si="5"/>
         <v>| FIG6-4 || Figur || 6 || 4 || 94 || 6.2.4 || &lt;html5media&gt;File:FIG6-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>367</v>
       </c>
@@ -47390,12 +47408,12 @@
         <f>VLOOKUP(K370,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.1.3</v>
       </c>
-      <c r="N370" t="str">
+      <c r="P370" t="str">
         <f t="shared" si="5"/>
         <v>| FIG7-1 || Figur || 7 || 1 || 100 || 7.1.3 || &lt;html5media&gt;File:FIG7-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>368</v>
       </c>
@@ -47427,12 +47445,12 @@
         <f>VLOOKUP(K371,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.1</v>
       </c>
-      <c r="N371" t="str">
+      <c r="P371" t="str">
         <f t="shared" si="5"/>
         <v>| FIG7-2 || Figur || 7 || 2 || 104 || 7.2.1 || &lt;html5media&gt;File:FIG7-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>369</v>
       </c>
@@ -47464,12 +47482,12 @@
         <f>VLOOKUP(K372,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N372" t="str">
+      <c r="P372" t="str">
         <f t="shared" si="5"/>
         <v>| FIG7-3 || Figur || 7 || 3 || 105 || 7.2.2 || &lt;html5media&gt;File:FIG7-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>370</v>
       </c>
@@ -47501,12 +47519,12 @@
         <f>VLOOKUP(K373,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N373" t="str">
+      <c r="P373" t="str">
         <f t="shared" si="5"/>
         <v>| FIG7-4 || Figur || 7 || 4 || 106 || 7.2.2 || &lt;html5media&gt;File:FIG7-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>371</v>
       </c>
@@ -47538,12 +47556,12 @@
         <f>VLOOKUP(K374,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N374" t="str">
+      <c r="P374" t="str">
         <f t="shared" si="5"/>
         <v>| FIG7-5 || Figur || 7 || 5 || 107 || 7.2.2 || &lt;html5media&gt;File:FIG7-5.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>372</v>
       </c>
@@ -47575,12 +47593,12 @@
         <f>VLOOKUP(K375,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N375" t="str">
+      <c r="P375" t="str">
         <f t="shared" si="5"/>
         <v>| FIG7-6 || Figur || 7 || 6 || 108 || 7.2.2 || &lt;html5media&gt;File:FIG7-6.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>373</v>
       </c>
@@ -47612,12 +47630,12 @@
         <f>VLOOKUP(K376,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.2</v>
       </c>
-      <c r="N376" t="str">
+      <c r="P376" t="str">
         <f t="shared" si="5"/>
         <v>| FIG7-7 || Figur || 7 || 7 || 110 || 7.2.2 || &lt;html5media&gt;File:FIG7-7.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>374</v>
       </c>
@@ -47649,12 +47667,12 @@
         <f>VLOOKUP(K377,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>7.2.4</v>
       </c>
-      <c r="N377" t="str">
+      <c r="P377" t="str">
         <f t="shared" si="5"/>
         <v>| FIG7-8 || Figur || 7 || 8 || 115 || 7.2.4 || &lt;html5media&gt;File:FIG7-8.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>375</v>
       </c>
@@ -47686,12 +47704,12 @@
         <f>VLOOKUP(K378,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.3</v>
       </c>
-      <c r="N378" t="str">
+      <c r="P378" t="str">
         <f t="shared" si="5"/>
         <v>| FIG8-1 || Figur || 8 || 1 || 118 || 8.1.3 || &lt;html5media&gt;File:FIG8-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>376</v>
       </c>
@@ -47723,12 +47741,12 @@
         <f>VLOOKUP(K379,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.1.8</v>
       </c>
-      <c r="N379" t="str">
+      <c r="P379" t="str">
         <f t="shared" si="5"/>
         <v>| FIG8-2 || Figur || 8 || 2 || 124 || 8.1.8 || &lt;html5media&gt;File:FIG8-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>377</v>
       </c>
@@ -47760,12 +47778,12 @@
         <f>VLOOKUP(K380,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.2.2</v>
       </c>
-      <c r="N380" t="str">
+      <c r="P380" t="str">
         <f t="shared" si="5"/>
         <v>| FIG8-3 || Figur || 8 || 3 || 125 || 8.2.2 || &lt;html5media&gt;File:FIG8-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>378</v>
       </c>
@@ -47797,12 +47815,12 @@
         <f>VLOOKUP(K381,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.2.2</v>
       </c>
-      <c r="N381" t="str">
+      <c r="P381" t="str">
         <f t="shared" si="5"/>
         <v>| FIG8-4 || Figur || 8 || 4 || 126 || 8.2.2 || &lt;html5media&gt;File:FIG8-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>379</v>
       </c>
@@ -47834,12 +47852,12 @@
         <f>VLOOKUP(K382,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>8.2.2</v>
       </c>
-      <c r="N382" t="str">
+      <c r="P382" t="str">
         <f t="shared" si="5"/>
         <v>| FIG8-5 || Figur || 8 || 5 || 126 || 8.2.2 || &lt;html5media&gt;File:FIG8-5.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>380</v>
       </c>
@@ -47871,12 +47889,12 @@
         <f>VLOOKUP(K383,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N383" t="str">
+      <c r="P383" t="str">
         <f t="shared" si="5"/>
         <v>| FIG9-1 || Figur || 9 || 1 || 131 || 9.2 || &lt;html5media&gt;File:FIG9-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>381</v>
       </c>
@@ -47908,12 +47926,12 @@
         <f>VLOOKUP(K384,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N384" t="str">
+      <c r="P384" t="str">
         <f t="shared" si="5"/>
         <v>| FIG9-2 || Figur || 9 || 2 || 133 || 9.2 || &lt;html5media&gt;File:FIG9-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>382</v>
       </c>
@@ -47945,12 +47963,12 @@
         <f>VLOOKUP(K385,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N385" t="str">
+      <c r="P385" t="str">
         <f t="shared" si="5"/>
         <v>| FIG9-3 || Figur || 9 || 3 || 133 || 9.2 || &lt;html5media&gt;File:FIG9-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>383</v>
       </c>
@@ -47982,12 +48000,12 @@
         <f>VLOOKUP(K386,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N386" t="str">
+      <c r="P386" t="str">
         <f t="shared" si="5"/>
         <v>| FIG9-4 || Figur || 9 || 4 || 134 || 9.2 || &lt;html5media&gt;File:FIG9-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>384</v>
       </c>
@@ -48019,12 +48037,12 @@
         <f>VLOOKUP(K387,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N387" t="str">
+      <c r="P387" t="str">
         <f t="shared" si="5"/>
         <v>| FIG9-5 || Figur || 9 || 5 || 135 || 9.2 || &lt;html5media&gt;File:FIG9-5.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>385</v>
       </c>
@@ -48056,12 +48074,12 @@
         <f>VLOOKUP(K388,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>9.2</v>
       </c>
-      <c r="N388" t="str">
-        <f t="shared" ref="N388:N451" si="6">_xlfn.CONCAT("| ", B388, " || ", D388, " || ", G388, " || ", I388, " || ", K388, " || ", L388, " || ", "&lt;html5media&gt;File:", C388, "&lt;/html5media&gt;")</f>
+      <c r="P388" t="str">
+        <f t="shared" ref="P388:P451" si="6">_xlfn.CONCAT("| ", B388, " || ", D388, " || ", G388, " || ", I388, " || ", K388, " || ", L388, " || ", "&lt;html5media&gt;File:", C388, "&lt;/html5media&gt;")</f>
         <v>| FIG9-6 || Figur || 9 || 6 || 135 || 9.2 || &lt;html5media&gt;File:FIG9-6.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>386</v>
       </c>
@@ -48093,12 +48111,12 @@
         <f>VLOOKUP(K389,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.5</v>
       </c>
-      <c r="N389" t="str">
+      <c r="P389" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-1 || Figur || 10 || 1 || 142 || 10.2.5 || &lt;html5media&gt;File:FIG10-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>387</v>
       </c>
@@ -48130,12 +48148,12 @@
         <f>VLOOKUP(K390,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.5</v>
       </c>
-      <c r="N390" t="str">
+      <c r="P390" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-2 || Figur || 10 || 2 || 142 || 10.2.5 || &lt;html5media&gt;File:FIG10-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>388</v>
       </c>
@@ -48167,12 +48185,12 @@
         <f>VLOOKUP(K391,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.5</v>
       </c>
-      <c r="N391" t="str">
+      <c r="P391" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-3 || Figur || 10 || 3 || 143 || 10.2.5 || &lt;html5media&gt;File:FIG10-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>389</v>
       </c>
@@ -48204,12 +48222,12 @@
         <f>VLOOKUP(K392,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.5</v>
       </c>
-      <c r="N392" t="str">
+      <c r="P392" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-4 || Figur || 10 || 4 || 144 || 10.2.5 || &lt;html5media&gt;File:FIG10-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>390</v>
       </c>
@@ -48241,12 +48259,12 @@
         <f>VLOOKUP(K393,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.7</v>
       </c>
-      <c r="N393" t="str">
+      <c r="P393" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-5 || Figur || 10 || 5 || 145 || 10.2.7 || &lt;html5media&gt;File:FIG10-5.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>391</v>
       </c>
@@ -48278,12 +48296,12 @@
         <f>VLOOKUP(K394,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.7</v>
       </c>
-      <c r="N394" t="str">
+      <c r="P394" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-6 || Figur || 10 || 6 || 146 || 10.2.7 || &lt;html5media&gt;File:FIG10-6.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>392</v>
       </c>
@@ -48315,12 +48333,12 @@
         <f>VLOOKUP(K395,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.8</v>
       </c>
-      <c r="N395" t="str">
+      <c r="P395" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-7 || Figur || 10 || 7 || 147 || 10.2.8 || &lt;html5media&gt;File:FIG10-7.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>393</v>
       </c>
@@ -48352,12 +48370,12 @@
         <f>VLOOKUP(K396,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.8</v>
       </c>
-      <c r="N396" t="str">
+      <c r="P396" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-8 || Figur || 10 || 8 || 147 || 10.2.8 || &lt;html5media&gt;File:FIG10-8.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>394</v>
       </c>
@@ -48389,12 +48407,12 @@
         <f>VLOOKUP(K397,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N397" t="str">
+      <c r="P397" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-9 || Figur || 10 || 9 || 148 || 10.2.9 || &lt;html5media&gt;File:FIG10-9.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>395</v>
       </c>
@@ -48426,12 +48444,12 @@
         <f>VLOOKUP(K398,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N398" t="str">
+      <c r="P398" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-10 || Figur || 10 || 10 || 148 || 10.2.9 || &lt;html5media&gt;File:FIG10-10.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>396</v>
       </c>
@@ -48463,12 +48481,12 @@
         <f>VLOOKUP(K399,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N399" t="str">
+      <c r="P399" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-11 || Figur || 10 || 11 || 149 || 10.2.9 || &lt;html5media&gt;File:FIG10-11.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>397</v>
       </c>
@@ -48500,12 +48518,12 @@
         <f>VLOOKUP(K400,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N400" t="str">
+      <c r="P400" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-12 || Figur || 10 || 12 || 150 || 10.2.9 || &lt;html5media&gt;File:FIG10-12.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>398</v>
       </c>
@@ -48537,12 +48555,12 @@
         <f>VLOOKUP(K401,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N401" t="str">
+      <c r="P401" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-13 || Figur || 10 || 13 || 150 || 10.2.9 || &lt;html5media&gt;File:FIG10-13.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>399</v>
       </c>
@@ -48574,12 +48592,12 @@
         <f>VLOOKUP(K402,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N402" t="str">
+      <c r="P402" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-14 || Figur || 10 || 14 || 150 || 10.2.9 || &lt;html5media&gt;File:FIG10-14.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>400</v>
       </c>
@@ -48611,12 +48629,12 @@
         <f>VLOOKUP(K403,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.9</v>
       </c>
-      <c r="N403" t="str">
+      <c r="P403" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-15 || Figur || 10 || 15 || 150 || 10.2.9 || &lt;html5media&gt;File:FIG10-15.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>401</v>
       </c>
@@ -48648,12 +48666,12 @@
         <f>VLOOKUP(K404,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.11</v>
       </c>
-      <c r="N404" t="str">
+      <c r="P404" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-16 || Figur || 10 || 16 || 151 || 10.2.11 || &lt;html5media&gt;File:FIG10-16.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>402</v>
       </c>
@@ -48685,12 +48703,12 @@
         <f>VLOOKUP(K405,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.12</v>
       </c>
-      <c r="N405" t="str">
+      <c r="P405" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-17 || Figur || 10 || 17 || 152 || 10.2.12 || &lt;html5media&gt;File:FIG10-17.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>403</v>
       </c>
@@ -48722,12 +48740,12 @@
         <f>VLOOKUP(K406,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.12</v>
       </c>
-      <c r="N406" t="str">
+      <c r="P406" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-18 || Figur || 10 || 18 || 152 || 10.2.12 || &lt;html5media&gt;File:FIG10-18.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>404</v>
       </c>
@@ -48759,12 +48777,12 @@
         <f>VLOOKUP(K407,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.12</v>
       </c>
-      <c r="N407" t="str">
+      <c r="P407" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-19 || Figur || 10 || 19 || 152 || 10.2.12 || &lt;html5media&gt;File:FIG10-19.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>405</v>
       </c>
@@ -48796,12 +48814,12 @@
         <f>VLOOKUP(K408,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>10.2.13</v>
       </c>
-      <c r="N408" t="str">
+      <c r="P408" t="str">
         <f t="shared" si="6"/>
         <v>| FIG10-20 || Figur || 10 || 20 || 153 || 10.2.13 || &lt;html5media&gt;File:FIG10-20.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>406</v>
       </c>
@@ -48833,12 +48851,12 @@
         <f>VLOOKUP(K409,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.4</v>
       </c>
-      <c r="N409" t="str">
+      <c r="P409" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-1 || Figur || 11 || 1 || 165 || 11.2.4 || &lt;html5media&gt;File:FIG11-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>407</v>
       </c>
@@ -48870,12 +48888,12 @@
         <f>VLOOKUP(K410,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.5</v>
       </c>
-      <c r="N410" t="str">
+      <c r="P410" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-2 || Figur || 11 || 2 || 167 || 11.2.5 || &lt;html5media&gt;File:FIG11-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>408</v>
       </c>
@@ -48907,12 +48925,12 @@
         <f>VLOOKUP(K411,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.5</v>
       </c>
-      <c r="N411" t="str">
+      <c r="P411" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-3 || Figur || 11 || 3 || 167 || 11.2.5 || &lt;html5media&gt;File:FIG11-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>409</v>
       </c>
@@ -48944,12 +48962,12 @@
         <f>VLOOKUP(K412,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.5</v>
       </c>
-      <c r="N412" t="str">
+      <c r="P412" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-4 || Figur || 11 || 4 || 168 || 11.2.5 || &lt;html5media&gt;File:FIG11-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>410</v>
       </c>
@@ -48981,12 +48999,12 @@
         <f>VLOOKUP(K413,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N413" t="str">
+      <c r="P413" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-5 || Figur || 11 || 5 || 170 || 11.2.6 || &lt;html5media&gt;File:FIG11-5.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>411</v>
       </c>
@@ -49018,12 +49036,12 @@
         <f>VLOOKUP(K414,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N414" t="str">
+      <c r="P414" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-6 || Figur || 11 || 6 || 171 || 11.2.6 || &lt;html5media&gt;File:FIG11-6.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>412</v>
       </c>
@@ -49055,12 +49073,12 @@
         <f>VLOOKUP(K415,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N415" t="str">
+      <c r="P415" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-7 || Figur || 11 || 7 || 172 || 11.2.6 || &lt;html5media&gt;File:FIG11-7.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>413</v>
       </c>
@@ -49092,12 +49110,12 @@
         <f>VLOOKUP(K416,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N416" t="str">
+      <c r="P416" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-8 || Figur || 11 || 8 || 173 || 11.2.6 || &lt;html5media&gt;File:FIG11-8.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>414</v>
       </c>
@@ -49129,12 +49147,12 @@
         <f>VLOOKUP(K417,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N417" t="str">
+      <c r="P417" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-9 || Figur || 11 || 9 || 173 || 11.2.6 || &lt;html5media&gt;File:FIG11-9.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>415</v>
       </c>
@@ -49166,12 +49184,12 @@
         <f>VLOOKUP(K418,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.6</v>
       </c>
-      <c r="N418" t="str">
+      <c r="P418" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-10 || Figur || 11 || 10 || 173 || 11.2.6 || &lt;html5media&gt;File:FIG11-10.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>416</v>
       </c>
@@ -49203,12 +49221,12 @@
         <f>VLOOKUP(K419,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.7</v>
       </c>
-      <c r="N419" t="str">
+      <c r="P419" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-11 || Figur || 11 || 11 || 174 || 11.2.7 || &lt;html5media&gt;File:FIG11-11.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>417</v>
       </c>
@@ -49240,12 +49258,12 @@
         <f>VLOOKUP(K420,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.7</v>
       </c>
-      <c r="N420" t="str">
+      <c r="P420" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-12 || Figur || 11 || 12 || 174 || 11.2.7 || &lt;html5media&gt;File:FIG11-12.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>418</v>
       </c>
@@ -49277,12 +49295,12 @@
         <f>VLOOKUP(K421,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.7</v>
       </c>
-      <c r="N421" t="str">
+      <c r="P421" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-13 || Figur || 11 || 13 || 175 || 11.2.7 || &lt;html5media&gt;File:FIG11-13.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>419</v>
       </c>
@@ -49314,12 +49332,12 @@
         <f>VLOOKUP(K422,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>11.2.7</v>
       </c>
-      <c r="N422" t="str">
+      <c r="P422" t="str">
         <f t="shared" si="6"/>
         <v>| FIG11-15 || Figur || 11 || 15 || 176 || 11.2.7 || &lt;html5media&gt;File:FIG11-15.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>420</v>
       </c>
@@ -49351,12 +49369,12 @@
         <f>VLOOKUP(K423,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.1</v>
       </c>
-      <c r="N423" t="str">
+      <c r="P423" t="str">
         <f t="shared" si="6"/>
         <v>| FIG12-1 || Figur || 12 || 1 || 184 || 12.2.1 || &lt;html5media&gt;File:FIG12-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>421</v>
       </c>
@@ -49388,12 +49406,12 @@
         <f>VLOOKUP(K424,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.2</v>
       </c>
-      <c r="N424" t="str">
+      <c r="P424" t="str">
         <f t="shared" si="6"/>
         <v>| FIG12-2 || Figur || 12 || 2 || 185 || 12.2.2 || &lt;html5media&gt;File:FIG12-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>422</v>
       </c>
@@ -49425,12 +49443,12 @@
         <f>VLOOKUP(K425,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>12.2.2</v>
       </c>
-      <c r="N425" t="str">
+      <c r="P425" t="str">
         <f t="shared" si="6"/>
         <v>| FIG12-3 || Figur || 12 || 3 || 186 || 12.2.2 || &lt;html5media&gt;File:FIG12-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>423</v>
       </c>
@@ -49462,12 +49480,12 @@
         <f>VLOOKUP(K426,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.3</v>
       </c>
-      <c r="N426" t="str">
+      <c r="P426" t="str">
         <f t="shared" si="6"/>
         <v>| FIG13-1 || Figur || 13 || 1 || 189 || 13.3 || &lt;html5media&gt;File:FIG13-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>424</v>
       </c>
@@ -49499,12 +49517,12 @@
         <f>VLOOKUP(K427,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.6.1</v>
       </c>
-      <c r="N427" t="str">
+      <c r="P427" t="str">
         <f t="shared" si="6"/>
         <v>| FIG13-2 || Figur || 13 || 2 || 192 || 13.6.1 || &lt;html5media&gt;File:FIG13-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>425</v>
       </c>
@@ -49536,12 +49554,12 @@
         <f>VLOOKUP(K428,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.6.1</v>
       </c>
-      <c r="N428" t="str">
+      <c r="P428" t="str">
         <f t="shared" si="6"/>
         <v>| FIG13-3 || Figur || 13 || 3 || 192 || 13.6.1 || &lt;html5media&gt;File:FIG13-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>426</v>
       </c>
@@ -49573,12 +49591,12 @@
         <f>VLOOKUP(K429,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>13.6.1</v>
       </c>
-      <c r="N429" t="str">
+      <c r="P429" t="str">
         <f t="shared" si="6"/>
         <v>| FIG13-4 || Figur || 13 || 4 || 193 || 13.6.1 || &lt;html5media&gt;File:FIG13-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>427</v>
       </c>
@@ -49610,12 +49628,12 @@
         <f>VLOOKUP(K430,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14.2.1</v>
       </c>
-      <c r="N430" t="str">
+      <c r="P430" t="str">
         <f t="shared" si="6"/>
         <v>| FIG14-1 || Figur || 14 || 1 || 197 || 14.2.1 || &lt;html5media&gt;File:FIG14-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>428</v>
       </c>
@@ -49647,12 +49665,12 @@
         <f>VLOOKUP(K431,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14.2.1</v>
       </c>
-      <c r="N431" t="str">
+      <c r="P431" t="str">
         <f t="shared" si="6"/>
         <v>| FIG14-2 || Figur || 14 || 2 || 198 || 14.2.1 || &lt;html5media&gt;File:FIG14-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>429</v>
       </c>
@@ -49684,12 +49702,12 @@
         <f>VLOOKUP(K432,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14.2.1</v>
       </c>
-      <c r="N432" t="str">
+      <c r="P432" t="str">
         <f t="shared" si="6"/>
         <v>| FIG14-3 || Figur || 14 || 3 || 199 || 14.2.1 || &lt;html5media&gt;File:FIG14-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>430</v>
       </c>
@@ -49721,12 +49739,12 @@
         <f>VLOOKUP(K433,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14.2.1</v>
       </c>
-      <c r="N433" t="str">
+      <c r="P433" t="str">
         <f t="shared" si="6"/>
         <v>| FIG14-4 || Figur || 14 || 4 || 200 || 14.2.1 || &lt;html5media&gt;File:FIG14-4.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>431</v>
       </c>
@@ -49758,12 +49776,12 @@
         <f>VLOOKUP(K434,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>14.2.1</v>
       </c>
-      <c r="N434" t="str">
+      <c r="P434" t="str">
         <f t="shared" si="6"/>
         <v>| FIG14-5 || Figur || 14 || 5 || 200 || 14.2.1 || &lt;html5media&gt;File:FIG14-5.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>432</v>
       </c>
@@ -49795,12 +49813,12 @@
         <f>VLOOKUP(K435,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.2.2</v>
       </c>
-      <c r="N435" t="str">
+      <c r="P435" t="str">
         <f t="shared" si="6"/>
         <v>| FIG15-1 || Figur || 15 || 1 || 204 || 15.2.2 || &lt;html5media&gt;File:FIG15-1.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>433</v>
       </c>
@@ -49832,12 +49850,12 @@
         <f>VLOOKUP(K436,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.2.2</v>
       </c>
-      <c r="N436" t="str">
+      <c r="P436" t="str">
         <f t="shared" si="6"/>
         <v>| FIG15-2 || Figur || 15 || 2 || 204 || 15.2.2 || &lt;html5media&gt;File:FIG15-2.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>434</v>
       </c>
@@ -49869,12 +49887,12 @@
         <f>VLOOKUP(K437,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>15.2.2</v>
       </c>
-      <c r="N437" t="str">
+      <c r="P437" t="str">
         <f t="shared" si="6"/>
         <v>| FIG15-3 || Figur || 15 || 3 || 205 || 15.2.2 || &lt;html5media&gt;File:FIG15-3.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>435</v>
       </c>
@@ -49903,12 +49921,12 @@
         <f>VLOOKUP(K438,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N438" t="str">
+      <c r="P438" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-A || Stikordsregister ||  || A || 207 || 16 || &lt;html5media&gt;File:STIK-A.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>436</v>
       </c>
@@ -49937,12 +49955,12 @@
         <f>VLOOKUP(K439,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N439" t="str">
+      <c r="P439" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-AA || Stikordsregister ||  || AA || 216 || 16 || &lt;html5media&gt;File:STIK-AA.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>437</v>
       </c>
@@ -49971,12 +49989,12 @@
         <f>VLOOKUP(K440,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N440" t="str">
+      <c r="P440" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-B || Stikordsregister ||  || B || 207 || 16 || &lt;html5media&gt;File:STIK-B.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>438</v>
       </c>
@@ -50005,12 +50023,12 @@
         <f>VLOOKUP(K441,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N441" t="str">
+      <c r="P441" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-C || Stikordsregister ||  || C || 208 || 16 || &lt;html5media&gt;File:STIK-C.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>439</v>
       </c>
@@ -50039,12 +50057,12 @@
         <f>VLOOKUP(K442,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N442" t="str">
+      <c r="P442" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-D || Stikordsregister ||  || D || 208 || 16 || &lt;html5media&gt;File:STIK-D.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>440</v>
       </c>
@@ -50073,12 +50091,12 @@
         <f>VLOOKUP(K443,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N443" t="str">
+      <c r="P443" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-E || Stikordsregister ||  || E || 209 || 16 || &lt;html5media&gt;File:STIK-E.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>441</v>
       </c>
@@ -50107,12 +50125,12 @@
         <f>VLOOKUP(K444,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N444" t="str">
+      <c r="P444" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-F || Stikordsregister ||  || F || 209 || 16 || &lt;html5media&gt;File:STIK-F.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>442</v>
       </c>
@@ -50141,12 +50159,12 @@
         <f>VLOOKUP(K445,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N445" t="str">
+      <c r="P445" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-G || Stikordsregister ||  || G || 209 || 16 || &lt;html5media&gt;File:STIK-G.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>443</v>
       </c>
@@ -50175,12 +50193,12 @@
         <f>VLOOKUP(K446,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N446" t="str">
+      <c r="P446" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-H || Stikordsregister ||  || H || 210 || 16 || &lt;html5media&gt;File:STIK-H.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>444</v>
       </c>
@@ -50209,12 +50227,12 @@
         <f>VLOOKUP(K447,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N447" t="str">
+      <c r="P447" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-I || Stikordsregister ||  || I || 210 || 16 || &lt;html5media&gt;File:STIK-I.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>445</v>
       </c>
@@ -50243,12 +50261,12 @@
         <f>VLOOKUP(K448,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N448" t="str">
+      <c r="P448" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-J || Stikordsregister ||  || J || 211 || 16 || &lt;html5media&gt;File:STIK-J.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>446</v>
       </c>
@@ -50277,12 +50295,12 @@
         <f>VLOOKUP(K449,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N449" t="str">
+      <c r="P449" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-K || Stikordsregister ||  || K || 211 || 16 || &lt;html5media&gt;File:STIK-K.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A450" s="6">
         <v>447</v>
       </c>
@@ -50311,12 +50329,12 @@
         <f>VLOOKUP(K450,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N450" t="str">
+      <c r="P450" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-L || Stikordsregister ||  || L || 211 || 16 || &lt;html5media&gt;File:STIK-L.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>448</v>
       </c>
@@ -50345,12 +50363,12 @@
         <f>VLOOKUP(K451,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N451" t="str">
+      <c r="P451" t="str">
         <f t="shared" si="6"/>
         <v>| STIK-M || Stikordsregister ||  || M || 211 || 16 || &lt;html5media&gt;File:STIK-M.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>449</v>
       </c>
@@ -50379,12 +50397,12 @@
         <f>VLOOKUP(K452,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N452" t="str">
-        <f t="shared" ref="N452:N460" si="7">_xlfn.CONCAT("| ", B452, " || ", D452, " || ", G452, " || ", I452, " || ", K452, " || ", L452, " || ", "&lt;html5media&gt;File:", C452, "&lt;/html5media&gt;")</f>
+      <c r="P452" t="str">
+        <f t="shared" ref="P452:P460" si="7">_xlfn.CONCAT("| ", B452, " || ", D452, " || ", G452, " || ", I452, " || ", K452, " || ", L452, " || ", "&lt;html5media&gt;File:", C452, "&lt;/html5media&gt;")</f>
         <v>| STIK-N || Stikordsregister ||  || N || 212 || 16 || &lt;html5media&gt;File:STIK-N.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>450</v>
       </c>
@@ -50413,12 +50431,12 @@
         <f>VLOOKUP(K453,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N453" t="str">
+      <c r="P453" t="str">
         <f t="shared" si="7"/>
         <v>| STIK-O || Stikordsregister ||  || O || 212 || 16 || &lt;html5media&gt;File:STIK-O.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>451</v>
       </c>
@@ -50447,12 +50465,12 @@
         <f>VLOOKUP(K454,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N454" t="str">
+      <c r="P454" t="str">
         <f t="shared" si="7"/>
         <v>| STIK-OE || Stikordsregister ||  || OE || 216 || 16 || &lt;html5media&gt;File:STIK-OE.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>452</v>
       </c>
@@ -50481,12 +50499,12 @@
         <f>VLOOKUP(K455,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N455" t="str">
+      <c r="P455" t="str">
         <f t="shared" si="7"/>
         <v>| STIK-P || Stikordsregister ||  || P || 213 || 16 || &lt;html5media&gt;File:STIK-P.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A456" s="6">
         <v>453</v>
       </c>
@@ -50515,12 +50533,12 @@
         <f>VLOOKUP(K456,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N456" t="str">
+      <c r="P456" t="str">
         <f t="shared" si="7"/>
         <v>| STIK-R || Stikordsregister ||  || R || 213 || 16 || &lt;html5media&gt;File:STIK-R.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>454</v>
       </c>
@@ -50549,12 +50567,12 @@
         <f>VLOOKUP(K457,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N457" t="str">
+      <c r="P457" t="str">
         <f t="shared" si="7"/>
         <v>| STIK-S || Stikordsregister ||  || S || 214 || 16 || &lt;html5media&gt;File:STIK-S.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>455</v>
       </c>
@@ -50583,12 +50601,12 @@
         <f>VLOOKUP(K458,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N458" t="str">
+      <c r="P458" t="str">
         <f t="shared" si="7"/>
         <v>| STIK-T || Stikordsregister ||  || T || 215 || 16 || &lt;html5media&gt;File:STIK-T.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>456</v>
       </c>
@@ -50617,12 +50635,12 @@
         <f>VLOOKUP(K459,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N459" t="str">
+      <c r="P459" t="str">
         <f t="shared" si="7"/>
         <v>| STIK-U || Stikordsregister ||  || U || 215 || 16 || &lt;html5media&gt;File:STIK-U.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>457</v>
       </c>
@@ -50651,7 +50669,7 @@
         <f>VLOOKUP(K460,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N460" t="str">
+      <c r="P460" t="str">
         <f t="shared" si="7"/>
         <v>| STIK-V || Stikordsregister ||  || V || 216 || 16 || &lt;html5media&gt;File:STIK-V.mp3&lt;/html5media&gt;</v>
       </c>
@@ -50665,8 +50683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4F113F-0093-EA45-A80B-290E9D65DD44}">
   <dimension ref="A1:I869"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A548" workbookViewId="0">
+      <selection activeCell="K572" sqref="K572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/materialer/indholdsfortegnelse.xlsx
+++ b/materialer/indholdsfortegnelse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinnet/software/hoer-laegedansk/materialer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6459C67-8832-A641-AAAC-896998E13D29}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9312F872-8B9F-D24D-A2BD-92AE96460460}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="2344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="2344">
   <si>
     <t>Mødet mellem læge og patient</t>
   </si>
@@ -30702,7 +30702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8D912-FB3D-A540-9B81-CC99B84FAB3E}">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -33754,9 +33754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E3B2D6-1357-EF4F-B237-AF77DB97A715}">
   <dimension ref="A1:P460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33768,7 +33768,7 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.1640625" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
@@ -33915,21 +33915,27 @@
         <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
         <v>210</v>
       </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>32</v>
+      </c>
       <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
+        <v>32</v>
+      </c>
+      <c r="L5" s="7" t="str">
         <f>VLOOKUP(K5,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>| OP-JOUR || Forord ||  ||  || 1 || 0 || &lt;html5media&gt;File:OP-JOUR.mp3&lt;/html5media&gt;</v>
+        <v>| OP-JOUR || Kapitel || 3 ||  || 32 || 3 || &lt;html5media&gt;File:OP-JOUR.mp3&lt;/html5media&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -33964,6 +33970,9 @@
         <f>VLOOKUP(K6,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="N6" t="s">
+        <v>2343</v>
+      </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_15 || Kapitel || 1 ||  || 15 || 1 || &lt;html5media&gt;File:KAP1_15.mp3&lt;/html5media&gt;</v>
@@ -34004,6 +34013,9 @@
         <f>VLOOKUP(K7,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="N7" t="s">
+        <v>2343</v>
+      </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_15_2 || Kapitel || 1 || 2 || 15 || 1 || &lt;html5media&gt;File:KAP1_15_2.mp3&lt;/html5media&gt;</v>
@@ -34041,6 +34053,9 @@
         <f>VLOOKUP(K8,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2</v>
       </c>
+      <c r="N8" t="s">
+        <v>2343</v>
+      </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_16 || Kapitel || 1 ||  || 16 || 1.2 || &lt;html5media&gt;File:KAP1_16.mp3&lt;/html5media&gt;</v>
@@ -34081,6 +34096,9 @@
         <f>VLOOKUP(K9,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2</v>
       </c>
+      <c r="N9" t="s">
+        <v>2343</v>
+      </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_16_2 || Kapitel || 1 || 2 || 16 || 1.2 || &lt;html5media&gt;File:KAP1_16_2.mp3&lt;/html5media&gt;</v>
@@ -34118,6 +34136,9 @@
         <f>VLOOKUP(K10,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2.2</v>
       </c>
+      <c r="N10" t="s">
+        <v>2343</v>
+      </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_17 || Kapitel || 1 ||  || 17 || 1.2.2 || &lt;html5media&gt;File:KAP1_17.mp3&lt;/html5media&gt;</v>
@@ -34155,6 +34176,9 @@
         <f>VLOOKUP(K11,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.2.3</v>
       </c>
+      <c r="N11" t="s">
+        <v>2343</v>
+      </c>
       <c r="P11" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_18 || Kapitel || 1 ||  || 18 || 1.2.3 || &lt;html5media&gt;File:KAP1_18.mp3&lt;/html5media&gt;</v>
@@ -34192,6 +34216,9 @@
         <f>VLOOKUP(K12,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3</v>
       </c>
+      <c r="N12" t="s">
+        <v>2343</v>
+      </c>
       <c r="P12" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_19 || Kapitel || 1 ||  || 19 || 1.3 || &lt;html5media&gt;File:KAP1_19.mp3&lt;/html5media&gt;</v>
@@ -34232,6 +34259,9 @@
         <f>VLOOKUP(K13,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3</v>
       </c>
+      <c r="N13" t="s">
+        <v>2343</v>
+      </c>
       <c r="P13" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_19_2 || Kapitel || 1 || 2 || 19 || 1.3 || &lt;html5media&gt;File:KAP1_19_2.mp3&lt;/html5media&gt;</v>
@@ -34272,6 +34302,9 @@
         <f>VLOOKUP(K14,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3</v>
       </c>
+      <c r="N14" t="s">
+        <v>2343</v>
+      </c>
       <c r="P14" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_19_3 || Kapitel || 1 || 3 || 19 || 1.3 || &lt;html5media&gt;File:KAP1_19_3.mp3&lt;/html5media&gt;</v>
@@ -34309,6 +34342,9 @@
         <f>VLOOKUP(K15,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.3</v>
       </c>
+      <c r="N15" t="s">
+        <v>2343</v>
+      </c>
       <c r="P15" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_21 || Kapitel || 1 ||  || 21 || 1.3.3 || &lt;html5media&gt;File:KAP1_21.mp3&lt;/html5media&gt;</v>
@@ -34346,6 +34382,9 @@
         <f>VLOOKUP(K16,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.4</v>
       </c>
+      <c r="N16" t="s">
+        <v>2343</v>
+      </c>
       <c r="P16" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_22 || Kapitel || 1 ||  || 22 || 1.3.4 || &lt;html5media&gt;File:KAP1_22.mp3&lt;/html5media&gt;</v>
@@ -34386,6 +34425,9 @@
         <f>VLOOKUP(K17,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.4</v>
       </c>
+      <c r="N17" t="s">
+        <v>2343</v>
+      </c>
       <c r="P17" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_22_2 || Kapitel || 1 || 2 || 22 || 1.3.4 || &lt;html5media&gt;File:KAP1_22_2.mp3&lt;/html5media&gt;</v>
@@ -34426,6 +34468,9 @@
         <f>VLOOKUP(K18,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.4</v>
       </c>
+      <c r="N18" t="s">
+        <v>2343</v>
+      </c>
       <c r="P18" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_22_3 || Kapitel || 1 || 3 || 22 || 1.3.4 || &lt;html5media&gt;File:KAP1_22_3.mp3&lt;/html5media&gt;</v>
@@ -34463,6 +34508,9 @@
         <f>VLOOKUP(K19,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.4</v>
       </c>
+      <c r="N19" t="s">
+        <v>2343</v>
+      </c>
       <c r="P19" t="str">
         <f t="shared" si="0"/>
         <v>| KAP1_23 || Kapitel || 1 ||  || 23 || 1.4 || &lt;html5media&gt;File:KAP1_23.mp3&lt;/html5media&gt;</v>
@@ -42393,6 +42441,9 @@
         <f>VLOOKUP(K227,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.3</v>
       </c>
+      <c r="N227" t="s">
+        <v>2343</v>
+      </c>
       <c r="P227" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS21 || Bokse ||  ||  || 21 || 1.3.3 || &lt;html5media&gt;File:BOKS21.mp3&lt;/html5media&gt;</v>
@@ -42430,6 +42481,9 @@
         <f>VLOOKUP(K228,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.3.3</v>
       </c>
+      <c r="N228" t="s">
+        <v>2343</v>
+      </c>
       <c r="P228" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS21B || Bokse ||  || B || 21 || 1.3.3 || &lt;html5media&gt;File:BOKS21B.mp3&lt;/html5media&gt;</v>
@@ -42464,6 +42518,9 @@
         <f>VLOOKUP(K229,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.4</v>
       </c>
+      <c r="N229" t="s">
+        <v>2343</v>
+      </c>
       <c r="P229" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS23 || Bokse ||  ||  || 23 || 1.4 || &lt;html5media&gt;File:BOKS23.mp3&lt;/html5media&gt;</v>
@@ -42498,6 +42555,9 @@
         <f>VLOOKUP(K230,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.4</v>
       </c>
+      <c r="N230" t="s">
+        <v>2343</v>
+      </c>
       <c r="P230" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS24 || Bokse ||  ||  || 24 || 1.4 || &lt;html5media&gt;File:BOKS24.mp3&lt;/html5media&gt;</v>
@@ -42534,6 +42594,9 @@
       <c r="L231" s="7" t="str">
         <f>VLOOKUP(K231,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>1.4</v>
+      </c>
+      <c r="N231" t="s">
+        <v>2343</v>
       </c>
       <c r="P231" t="str">
         <f t="shared" si="3"/>

--- a/materialer/indholdsfortegnelse.xlsx
+++ b/materialer/indholdsfortegnelse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinnet/software/hoer-laegedansk/materialer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9312F872-8B9F-D24D-A2BD-92AE96460460}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2D211-C340-6940-8536-FE38A8618E84}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="2344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="2344">
   <si>
     <t>Mødet mellem læge og patient</t>
   </si>
@@ -33754,9 +33754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E3B2D6-1357-EF4F-B237-AF77DB97A715}">
   <dimension ref="A1:P460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N233" sqref="N233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34548,6 +34548,9 @@
         <f>VLOOKUP(K20,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2</v>
       </c>
+      <c r="N20" t="s">
+        <v>2343</v>
+      </c>
       <c r="P20" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_25 || Kapitel || 2 ||  || 25 || 2 || &lt;html5media&gt;File:KAP2_25.mp3&lt;/html5media&gt;</v>
@@ -34588,6 +34591,9 @@
         <f>VLOOKUP(K21,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2</v>
       </c>
+      <c r="N21" t="s">
+        <v>2343</v>
+      </c>
       <c r="P21" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_25_2 || Kapitel || 2 || 2 || 25 || 2 || &lt;html5media&gt;File:KAP2_25_2.mp3&lt;/html5media&gt;</v>
@@ -34625,6 +34631,9 @@
         <f>VLOOKUP(K22,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2.3</v>
       </c>
+      <c r="N22" t="s">
+        <v>2343</v>
+      </c>
       <c r="P22" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_27 || Kapitel || 2 ||  || 27 || 2.3 || &lt;html5media&gt;File:KAP2_27.mp3&lt;/html5media&gt;</v>
@@ -34665,6 +34674,9 @@
         <f>VLOOKUP(K23,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2.3</v>
       </c>
+      <c r="N23" t="s">
+        <v>2343</v>
+      </c>
       <c r="P23" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_27_2 || Kapitel || 2 || 2 || 27 || 2.3 || &lt;html5media&gt;File:KAP2_27_2.mp3&lt;/html5media&gt;</v>
@@ -34702,6 +34714,9 @@
         <f>VLOOKUP(K24,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2.5</v>
       </c>
+      <c r="N24" t="s">
+        <v>2343</v>
+      </c>
       <c r="P24" t="str">
         <f t="shared" si="0"/>
         <v>| KAP2_29 || Kapitel || 2 ||  || 29 || 2.5 || &lt;html5media&gt;File:KAP2_29.mp3&lt;/html5media&gt;</v>
@@ -42631,6 +42646,9 @@
       <c r="L232" s="7" t="str">
         <f>VLOOKUP(K232,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>2</v>
+      </c>
+      <c r="N232" t="s">
+        <v>2343</v>
       </c>
       <c r="P232" t="str">
         <f t="shared" si="3"/>

--- a/materialer/indholdsfortegnelse.xlsx
+++ b/materialer/indholdsfortegnelse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinnet/software/hoer-laegedansk/materialer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2D211-C340-6940-8536-FE38A8618E84}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB24FAD-F8FD-254E-B9FF-CFCCB15870A4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="2344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2344">
   <si>
     <t>Mødet mellem læge og patient</t>
   </si>
@@ -33755,8 +33755,8 @@
   <dimension ref="A1:P460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N233" sqref="N233"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34754,6 +34754,9 @@
         <f>VLOOKUP(K25,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3</v>
       </c>
+      <c r="N25" t="s">
+        <v>2343</v>
+      </c>
       <c r="P25" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_31 || Kapitel || 3 ||  || 31 || 3 || &lt;html5media&gt;File:KAP3_31.mp3&lt;/html5media&gt;</v>
@@ -34794,6 +34797,9 @@
         <f>VLOOKUP(K26,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3</v>
       </c>
+      <c r="N26" t="s">
+        <v>2343</v>
+      </c>
       <c r="P26" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_31_2 || Kapitel || 3 || 2 || 31 || 3 || &lt;html5media&gt;File:KAP3_31_2.mp3&lt;/html5media&gt;</v>
@@ -34834,6 +34840,9 @@
         <f>VLOOKUP(K27,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3</v>
       </c>
+      <c r="N27" t="s">
+        <v>2343</v>
+      </c>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_31_3 || Kapitel || 3 || 3 || 31 || 3 || &lt;html5media&gt;File:KAP3_31_3.mp3&lt;/html5media&gt;</v>
@@ -34871,6 +34880,9 @@
         <f>VLOOKUP(K28,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.2</v>
       </c>
+      <c r="N28" t="s">
+        <v>2343</v>
+      </c>
       <c r="P28" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_33 || Kapitel || 3 ||  || 33 || 3.1.2 || &lt;html5media&gt;File:KAP3_33.mp3&lt;/html5media&gt;</v>
@@ -34911,6 +34923,9 @@
         <f>VLOOKUP(K29,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.2</v>
       </c>
+      <c r="N29" t="s">
+        <v>2343</v>
+      </c>
       <c r="P29" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_33_2 || Kapitel || 3 || 2 || 33 || 3.1.2 || &lt;html5media&gt;File:KAP3_33_2.mp3&lt;/html5media&gt;</v>
@@ -34948,6 +34963,9 @@
         <f>VLOOKUP(K30,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.4</v>
       </c>
+      <c r="N30" t="s">
+        <v>2343</v>
+      </c>
       <c r="P30" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_34 || Kapitel || 3 ||  || 34 || 3.1.4 || &lt;html5media&gt;File:KAP3_34.mp3&lt;/html5media&gt;</v>
@@ -34985,6 +35003,9 @@
         <f>VLOOKUP(K31,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.5</v>
       </c>
+      <c r="N31" t="s">
+        <v>2343</v>
+      </c>
       <c r="P31" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_35 || Kapitel || 3 ||  || 35 || 3.1.5 || &lt;html5media&gt;File:KAP3_35.mp3&lt;/html5media&gt;</v>
@@ -35022,6 +35043,9 @@
         <f>VLOOKUP(K32,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.6</v>
       </c>
+      <c r="N32" t="s">
+        <v>2343</v>
+      </c>
       <c r="P32" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_36 || Kapitel || 3 ||  || 36 || 3.1.6 || &lt;html5media&gt;File:KAP3_36.mp3&lt;/html5media&gt;</v>
@@ -35059,6 +35083,9 @@
         <f>VLOOKUP(K33,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.7</v>
       </c>
+      <c r="N33" t="s">
+        <v>2343</v>
+      </c>
       <c r="P33" t="str">
         <f t="shared" si="0"/>
         <v>| kap3_37 || Kapitel || 3 ||  || 37 || 3.1.7 || &lt;html5media&gt;File:kap3_37.mp3&lt;/html5media&gt;</v>
@@ -35096,6 +35123,9 @@
         <f>VLOOKUP(K34,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.8</v>
       </c>
+      <c r="N34" t="s">
+        <v>2343</v>
+      </c>
       <c r="P34" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_39 || Kapitel || 3 ||  || 39 || 3.1.8 || &lt;html5media&gt;File:KAP3_39.mp3&lt;/html5media&gt;</v>
@@ -35133,6 +35163,9 @@
         <f>VLOOKUP(K35,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.9</v>
       </c>
+      <c r="N35" t="s">
+        <v>2343</v>
+      </c>
       <c r="P35" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_41 || Kapitel || 3 ||  || 41 || 3.1.9 || &lt;html5media&gt;File:KAP3_41.mp3&lt;/html5media&gt;</v>
@@ -35170,6 +35203,9 @@
         <f>VLOOKUP(K36,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.10</v>
       </c>
+      <c r="N36" t="s">
+        <v>2343</v>
+      </c>
       <c r="P36" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_42 || Kapitel || 3 ||  || 42 || 3.1.10 || &lt;html5media&gt;File:KAP3_42.mp3&lt;/html5media&gt;</v>
@@ -35210,6 +35246,9 @@
         <f>VLOOKUP(K37,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.10</v>
       </c>
+      <c r="N37" t="s">
+        <v>2343</v>
+      </c>
       <c r="P37" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_42_2 || Kapitel || 3 || 2 || 42 || 3.1.10 || &lt;html5media&gt;File:KAP3_42_2.mp3&lt;/html5media&gt;</v>
@@ -35247,6 +35286,9 @@
         <f>VLOOKUP(K38,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2</v>
       </c>
+      <c r="N38" t="s">
+        <v>2343</v>
+      </c>
       <c r="P38" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_43 || Kapitel || 3 ||  || 43 || 3.2 || &lt;html5media&gt;File:KAP3_43.mp3&lt;/html5media&gt;</v>
@@ -35284,6 +35326,9 @@
         <f>VLOOKUP(K39,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.1</v>
       </c>
+      <c r="N39" t="s">
+        <v>2343</v>
+      </c>
       <c r="P39" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_44 || Kapitel || 3 ||  || 44 || 3.2.1 || &lt;html5media&gt;File:KAP3_44.mp3&lt;/html5media&gt;</v>
@@ -35321,6 +35366,9 @@
         <f>VLOOKUP(K40,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.2</v>
       </c>
+      <c r="N40" t="s">
+        <v>2343</v>
+      </c>
       <c r="P40" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_45 || Kapitel || 3 ||  || 45 || 3.2.2 || &lt;html5media&gt;File:KAP3_45.mp3&lt;/html5media&gt;</v>
@@ -35361,6 +35409,9 @@
         <f>VLOOKUP(K41,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.2</v>
       </c>
+      <c r="N41" t="s">
+        <v>2343</v>
+      </c>
       <c r="P41" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_45_2 || Kapitel || 3 || 2 || 45 || 3.2.2 || &lt;html5media&gt;File:KAP3_45_2.mp3&lt;/html5media&gt;</v>
@@ -35401,6 +35452,9 @@
         <f>VLOOKUP(K42,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.2</v>
       </c>
+      <c r="N42" t="s">
+        <v>2343</v>
+      </c>
       <c r="P42" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_45_3 || Kapitel || 3 || 3 || 45 || 3.2.2 || &lt;html5media&gt;File:KAP3_45_3.mp3&lt;/html5media&gt;</v>
@@ -35438,6 +35492,9 @@
         <f>VLOOKUP(K43,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.5</v>
       </c>
+      <c r="N43" t="s">
+        <v>2343</v>
+      </c>
       <c r="P43" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_46 || Kapitel || 3 ||  || 46 || 3.2.5 || &lt;html5media&gt;File:KAP3_46.mp3&lt;/html5media&gt;</v>
@@ -35478,6 +35535,9 @@
         <f>VLOOKUP(K44,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.5</v>
       </c>
+      <c r="N44" t="s">
+        <v>2343</v>
+      </c>
       <c r="P44" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_46_2 || Kapitel || 3 || 2 || 46 || 3.2.5 || &lt;html5media&gt;File:KAP3_46_2.mp3&lt;/html5media&gt;</v>
@@ -35518,6 +35578,9 @@
         <f>VLOOKUP(K45,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.5</v>
       </c>
+      <c r="N45" t="s">
+        <v>2343</v>
+      </c>
       <c r="P45" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_46_3 || Kapitel || 3 || 3 || 46 || 3.2.5 || &lt;html5media&gt;File:KAP3_46_3.mp3&lt;/html5media&gt;</v>
@@ -35558,6 +35621,9 @@
         <f>VLOOKUP(K46,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.5</v>
       </c>
+      <c r="N46" t="s">
+        <v>2343</v>
+      </c>
       <c r="P46" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_46_4 || Kapitel || 3 || 4 || 46 || 3.2.5 || &lt;html5media&gt;File:KAP3_46_4.mp3&lt;/html5media&gt;</v>
@@ -35595,6 +35661,9 @@
         <f>VLOOKUP(K47,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.9</v>
       </c>
+      <c r="N47" t="s">
+        <v>2343</v>
+      </c>
       <c r="P47" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_47 || Kapitel || 3 ||  || 47 || 3.2.9 || &lt;html5media&gt;File:KAP3_47.mp3&lt;/html5media&gt;</v>
@@ -35635,6 +35704,9 @@
         <f>VLOOKUP(K48,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.9</v>
       </c>
+      <c r="N48" t="s">
+        <v>2343</v>
+      </c>
       <c r="P48" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_47_2 || Kapitel || 3 || 2 || 47 || 3.2.9 || &lt;html5media&gt;File:KAP3_47_2.mp3&lt;/html5media&gt;</v>
@@ -35675,6 +35747,9 @@
         <f>VLOOKUP(K49,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.9</v>
       </c>
+      <c r="N49" t="s">
+        <v>2343</v>
+      </c>
       <c r="P49" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_47_3 || Kapitel || 3 || 3 || 47 || 3.2.9 || &lt;html5media&gt;File:KAP3_47_3.mp3&lt;/html5media&gt;</v>
@@ -35712,6 +35787,9 @@
         <f>VLOOKUP(K50,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.12</v>
       </c>
+      <c r="N50" t="s">
+        <v>2343</v>
+      </c>
       <c r="P50" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_48 || Kapitel || 3 ||  || 48 || 3.2.12 || &lt;html5media&gt;File:KAP3_48.mp3&lt;/html5media&gt;</v>
@@ -35752,6 +35830,9 @@
         <f>VLOOKUP(K51,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.12</v>
       </c>
+      <c r="N51" t="s">
+        <v>2343</v>
+      </c>
       <c r="P51" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_48_2 || Kapitel || 3 || 2 || 48 || 3.2.12 || &lt;html5media&gt;File:KAP3_48_2.mp3&lt;/html5media&gt;</v>
@@ -35789,6 +35870,9 @@
         <f>VLOOKUP(K52,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.14</v>
       </c>
+      <c r="N52" t="s">
+        <v>2343</v>
+      </c>
       <c r="P52" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_49 || Kapitel || 3 ||  || 49 || 3.2.14 || &lt;html5media&gt;File:KAP3_49.mp3&lt;/html5media&gt;</v>
@@ -35826,6 +35910,9 @@
         <f>VLOOKUP(K53,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.15</v>
       </c>
+      <c r="N53" t="s">
+        <v>2343</v>
+      </c>
       <c r="P53" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_50 || Kapitel || 3 ||  || 50 || 3.2.15 || &lt;html5media&gt;File:KAP3_50.mp3&lt;/html5media&gt;</v>
@@ -35866,6 +35953,9 @@
         <f>VLOOKUP(K54,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.15</v>
       </c>
+      <c r="N54" t="s">
+        <v>2343</v>
+      </c>
       <c r="P54" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_50_2 || Kapitel || 3 || 2 || 50 || 3.2.15 || &lt;html5media&gt;File:KAP3_50_2.mp3&lt;/html5media&gt;</v>
@@ -35906,6 +35996,9 @@
         <f>VLOOKUP(K55,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.15</v>
       </c>
+      <c r="N55" t="s">
+        <v>2343</v>
+      </c>
       <c r="P55" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_50_3 || Kapitel || 3 || 3 || 50 || 3.2.15 || &lt;html5media&gt;File:KAP3_50_3.mp3&lt;/html5media&gt;</v>
@@ -35943,6 +36036,9 @@
         <f>VLOOKUP(K56,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.18</v>
       </c>
+      <c r="N56" t="s">
+        <v>2343</v>
+      </c>
       <c r="P56" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_51 || Kapitel || 3 ||  || 51 || 3.2.18 || &lt;html5media&gt;File:KAP3_51.mp3&lt;/html5media&gt;</v>
@@ -35983,6 +36079,9 @@
         <f>VLOOKUP(K57,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.18</v>
       </c>
+      <c r="N57" t="s">
+        <v>2343</v>
+      </c>
       <c r="P57" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_51_2 || Kapitel || 3 || 2 || 51 || 3.2.18 || &lt;html5media&gt;File:KAP3_51_2.mp3&lt;/html5media&gt;</v>
@@ -36020,6 +36119,9 @@
         <f>VLOOKUP(K58,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.20</v>
       </c>
+      <c r="N58" t="s">
+        <v>2343</v>
+      </c>
       <c r="P58" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_52 || Kapitel || 3 ||  || 52 || 3.2.20 || &lt;html5media&gt;File:KAP3_52.mp3&lt;/html5media&gt;</v>
@@ -36057,6 +36159,9 @@
         <f>VLOOKUP(K59,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.21</v>
       </c>
+      <c r="N59" t="s">
+        <v>2343</v>
+      </c>
       <c r="P59" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_53 || Kapitel || 3 ||  || 53 || 3.2.21 || &lt;html5media&gt;File:KAP3_53.mp3&lt;/html5media&gt;</v>
@@ -36097,6 +36202,9 @@
         <f>VLOOKUP(K60,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.21</v>
       </c>
+      <c r="N60" t="s">
+        <v>2343</v>
+      </c>
       <c r="P60" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_53_2 || Kapitel || 3 || 2 || 53 || 3.2.21 || &lt;html5media&gt;File:KAP3_53_2.mp3&lt;/html5media&gt;</v>
@@ -36134,6 +36242,9 @@
         <f>VLOOKUP(K61,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.4</v>
       </c>
+      <c r="N61" t="s">
+        <v>2343</v>
+      </c>
       <c r="P61" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_54 || Kapitel || 3 ||  || 54 || 3.4 || &lt;html5media&gt;File:KAP3_54.mp3&lt;/html5media&gt;</v>
@@ -36174,6 +36285,9 @@
         <f>VLOOKUP(K62,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.4</v>
       </c>
+      <c r="N62" t="s">
+        <v>2343</v>
+      </c>
       <c r="P62" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_54_2 || Kapitel || 3 || 2 || 54 || 3.4 || &lt;html5media&gt;File:KAP3_54_2.mp3&lt;/html5media&gt;</v>
@@ -36211,6 +36325,9 @@
         <f>VLOOKUP(K63,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.4.2</v>
       </c>
+      <c r="N63" t="s">
+        <v>2343</v>
+      </c>
       <c r="P63" t="str">
         <f t="shared" si="0"/>
         <v>| KAP3_56 || Kapitel || 3 ||  || 56 || 3.4.2 || &lt;html5media&gt;File:KAP3_56.mp3&lt;/html5media&gt;</v>
@@ -42684,6 +42801,9 @@
         <f>VLOOKUP(K233,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3</v>
       </c>
+      <c r="N233" t="s">
+        <v>2343</v>
+      </c>
       <c r="P233" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS32 || Bokse ||  ||  || 32 || 3 || &lt;html5media&gt;File:BOKS32.mp3&lt;/html5media&gt;</v>
@@ -42718,6 +42838,9 @@
         <f>VLOOKUP(K234,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.7</v>
       </c>
+      <c r="N234" t="s">
+        <v>2343</v>
+      </c>
       <c r="P234" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS37 || Bokse ||  ||  || 37 || 3.1.7 || &lt;html5media&gt;File:BOKS37.mp3&lt;/html5media&gt;</v>
@@ -42752,6 +42875,9 @@
         <f>VLOOKUP(K235,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.1.8</v>
       </c>
+      <c r="N235" t="s">
+        <v>2343</v>
+      </c>
       <c r="P235" t="str">
         <f t="shared" si="3"/>
         <v>| BOKS39 || Bokse ||  ||  || 39 || 3.1.8 || &lt;html5media&gt;File:BOKS39.mp3&lt;/html5media&gt;</v>
@@ -42785,6 +42911,9 @@
       <c r="L236" s="7" t="str">
         <f>VLOOKUP(K236,Side_til_Sektion!A$2:C$217,3,FALSE)</f>
         <v>3.2.1</v>
+      </c>
+      <c r="N236" t="s">
+        <v>2343</v>
       </c>
       <c r="P236" t="str">
         <f t="shared" si="3"/>

--- a/materialer/indholdsfortegnelse.xlsx
+++ b/materialer/indholdsfortegnelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinnet/software/hoer-laegedansk/materialer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673294D8-6F7F-C749-B37E-FF8ECE867900}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D83F3-1F15-4241-ABD5-D9D02F518DE8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kapitler" sheetId="1" r:id="rId1"/>
@@ -18800,8 +18800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1BA1CE-D23C-684F-8A51-B56EF3EE9DB0}">
   <dimension ref="A1:S220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33361,7 +33361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E3B2D6-1357-EF4F-B237-AF77DB97A715}">
   <dimension ref="A1:R460"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
